--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1270300</v>
+        <v>1226300</v>
       </c>
       <c r="E8" s="3">
-        <v>1240100</v>
+        <v>1197100</v>
       </c>
       <c r="F8" s="3">
-        <v>1263900</v>
+        <v>1220100</v>
       </c>
       <c r="G8" s="3">
-        <v>881800</v>
+        <v>851200</v>
       </c>
       <c r="H8" s="3">
-        <v>613800</v>
+        <v>592500</v>
       </c>
       <c r="I8" s="3">
-        <v>627100</v>
+        <v>605300</v>
       </c>
       <c r="J8" s="3">
-        <v>565700</v>
+        <v>546100</v>
       </c>
       <c r="K8" s="3">
         <v>626800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>427000</v>
+        <v>412200</v>
       </c>
       <c r="E9" s="3">
-        <v>421400</v>
+        <v>406800</v>
       </c>
       <c r="F9" s="3">
-        <v>423300</v>
+        <v>408600</v>
       </c>
       <c r="G9" s="3">
-        <v>269800</v>
+        <v>260500</v>
       </c>
       <c r="H9" s="3">
-        <v>200300</v>
+        <v>193400</v>
       </c>
       <c r="I9" s="3">
-        <v>192000</v>
+        <v>185400</v>
       </c>
       <c r="J9" s="3">
-        <v>173100</v>
+        <v>167100</v>
       </c>
       <c r="K9" s="3">
         <v>197700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>843300</v>
+        <v>814000</v>
       </c>
       <c r="E10" s="3">
-        <v>818700</v>
+        <v>790300</v>
       </c>
       <c r="F10" s="3">
-        <v>840700</v>
+        <v>811500</v>
       </c>
       <c r="G10" s="3">
-        <v>611900</v>
+        <v>590700</v>
       </c>
       <c r="H10" s="3">
-        <v>413400</v>
+        <v>399100</v>
       </c>
       <c r="I10" s="3">
-        <v>435100</v>
+        <v>420000</v>
       </c>
       <c r="J10" s="3">
-        <v>392700</v>
+        <v>379100</v>
       </c>
       <c r="K10" s="3">
         <v>429100</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="E14" s="3">
-        <v>775900</v>
+        <v>749000</v>
       </c>
       <c r="F14" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="G14" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="H14" s="3">
-        <v>151200</v>
+        <v>145900</v>
       </c>
       <c r="I14" s="3">
         <v>700</v>
       </c>
       <c r="J14" s="3">
-        <v>34000</v>
+        <v>32900</v>
       </c>
       <c r="K14" s="3">
         <v>1700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>137300</v>
+        <v>132500</v>
       </c>
       <c r="E15" s="3">
-        <v>61600</v>
+        <v>59500</v>
       </c>
       <c r="F15" s="3">
-        <v>69100</v>
+        <v>66700</v>
       </c>
       <c r="G15" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="H15" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="I15" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="J15" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="K15" s="3">
         <v>19100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1080500</v>
+        <v>1043100</v>
       </c>
       <c r="E17" s="3">
-        <v>1744500</v>
+        <v>1684000</v>
       </c>
       <c r="F17" s="3">
-        <v>1033100</v>
+        <v>997300</v>
       </c>
       <c r="G17" s="3">
-        <v>742400</v>
+        <v>716600</v>
       </c>
       <c r="H17" s="3">
-        <v>605100</v>
+        <v>584100</v>
       </c>
       <c r="I17" s="3">
-        <v>469300</v>
+        <v>453000</v>
       </c>
       <c r="J17" s="3">
-        <v>415000</v>
+        <v>400600</v>
       </c>
       <c r="K17" s="3">
         <v>468000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>189800</v>
+        <v>183200</v>
       </c>
       <c r="E18" s="3">
-        <v>-504400</v>
+        <v>-486900</v>
       </c>
       <c r="F18" s="3">
-        <v>230800</v>
+        <v>222800</v>
       </c>
       <c r="G18" s="3">
-        <v>139400</v>
+        <v>134500</v>
       </c>
       <c r="H18" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I18" s="3">
-        <v>157800</v>
+        <v>152300</v>
       </c>
       <c r="J18" s="3">
-        <v>150700</v>
+        <v>145500</v>
       </c>
       <c r="K18" s="3">
         <v>158800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>728100</v>
+        <v>703100</v>
       </c>
       <c r="E21" s="3">
-        <v>-41700</v>
+        <v>-40100</v>
       </c>
       <c r="F21" s="3">
-        <v>702600</v>
+        <v>678400</v>
       </c>
       <c r="G21" s="3">
-        <v>448100</v>
+        <v>432700</v>
       </c>
       <c r="H21" s="3">
-        <v>208500</v>
+        <v>201300</v>
       </c>
       <c r="I21" s="3">
-        <v>347200</v>
+        <v>335200</v>
       </c>
       <c r="J21" s="3">
-        <v>460700</v>
+        <v>444900</v>
       </c>
       <c r="K21" s="3">
         <v>316900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>189800</v>
+        <v>183200</v>
       </c>
       <c r="E23" s="3">
-        <v>-504400</v>
+        <v>-486900</v>
       </c>
       <c r="F23" s="3">
-        <v>230800</v>
+        <v>222800</v>
       </c>
       <c r="G23" s="3">
-        <v>139400</v>
+        <v>134500</v>
       </c>
       <c r="H23" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I23" s="3">
-        <v>157800</v>
+        <v>152300</v>
       </c>
       <c r="J23" s="3">
-        <v>150700</v>
+        <v>145500</v>
       </c>
       <c r="K23" s="3">
         <v>158800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53800</v>
+        <v>51900</v>
       </c>
       <c r="E24" s="3">
-        <v>66300</v>
+        <v>64000</v>
       </c>
       <c r="F24" s="3">
-        <v>62100</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="3">
-        <v>31300</v>
+        <v>30200</v>
       </c>
       <c r="H24" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="3">
-        <v>40200</v>
+        <v>38800</v>
       </c>
       <c r="J24" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="K24" s="3">
         <v>42600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>136000</v>
+        <v>131300</v>
       </c>
       <c r="E26" s="3">
-        <v>-570700</v>
+        <v>-550900</v>
       </c>
       <c r="F26" s="3">
-        <v>168700</v>
+        <v>162800</v>
       </c>
       <c r="G26" s="3">
-        <v>108100</v>
+        <v>104300</v>
       </c>
       <c r="H26" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="I26" s="3">
-        <v>117600</v>
+        <v>113500</v>
       </c>
       <c r="J26" s="3">
-        <v>124800</v>
+        <v>120400</v>
       </c>
       <c r="K26" s="3">
         <v>116200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117500</v>
+        <v>113400</v>
       </c>
       <c r="E27" s="3">
-        <v>-590600</v>
+        <v>-570100</v>
       </c>
       <c r="F27" s="3">
-        <v>144300</v>
+        <v>139300</v>
       </c>
       <c r="G27" s="3">
-        <v>94800</v>
+        <v>91500</v>
       </c>
       <c r="H27" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="I27" s="3">
-        <v>113200</v>
+        <v>109300</v>
       </c>
       <c r="J27" s="3">
-        <v>120400</v>
+        <v>116200</v>
       </c>
       <c r="K27" s="3">
         <v>110600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117500</v>
+        <v>113400</v>
       </c>
       <c r="E33" s="3">
-        <v>-590600</v>
+        <v>-570100</v>
       </c>
       <c r="F33" s="3">
-        <v>144300</v>
+        <v>139300</v>
       </c>
       <c r="G33" s="3">
-        <v>94800</v>
+        <v>91500</v>
       </c>
       <c r="H33" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="I33" s="3">
-        <v>113200</v>
+        <v>109300</v>
       </c>
       <c r="J33" s="3">
-        <v>120400</v>
+        <v>116200</v>
       </c>
       <c r="K33" s="3">
         <v>110600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117500</v>
+        <v>113400</v>
       </c>
       <c r="E35" s="3">
-        <v>-590600</v>
+        <v>-570100</v>
       </c>
       <c r="F35" s="3">
-        <v>144300</v>
+        <v>139300</v>
       </c>
       <c r="G35" s="3">
-        <v>94800</v>
+        <v>91500</v>
       </c>
       <c r="H35" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="I35" s="3">
-        <v>113200</v>
+        <v>109300</v>
       </c>
       <c r="J35" s="3">
-        <v>120400</v>
+        <v>116200</v>
       </c>
       <c r="K35" s="3">
         <v>110600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62200</v>
+        <v>60000</v>
       </c>
       <c r="E41" s="3">
-        <v>71400</v>
+        <v>68900</v>
       </c>
       <c r="F41" s="3">
-        <v>70500</v>
+        <v>68100</v>
       </c>
       <c r="G41" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="H41" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="I41" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="J41" s="3">
-        <v>61200</v>
+        <v>59000</v>
       </c>
       <c r="K41" s="3">
         <v>18300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>291000</v>
+        <v>280800</v>
       </c>
       <c r="E43" s="3">
-        <v>295100</v>
+        <v>284700</v>
       </c>
       <c r="F43" s="3">
-        <v>308500</v>
+        <v>297600</v>
       </c>
       <c r="G43" s="3">
-        <v>286000</v>
+        <v>275900</v>
       </c>
       <c r="H43" s="3">
-        <v>133300</v>
+        <v>128600</v>
       </c>
       <c r="I43" s="3">
-        <v>145100</v>
+        <v>140000</v>
       </c>
       <c r="J43" s="3">
-        <v>292800</v>
+        <v>282500</v>
       </c>
       <c r="K43" s="3">
         <v>136200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="F45" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="G45" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="H45" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="I45" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J45" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="K45" s="3">
         <v>9400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>367900</v>
+        <v>354900</v>
       </c>
       <c r="E46" s="3">
-        <v>382100</v>
+        <v>368600</v>
       </c>
       <c r="F46" s="3">
-        <v>395500</v>
+        <v>381600</v>
       </c>
       <c r="G46" s="3">
-        <v>353900</v>
+        <v>341400</v>
       </c>
       <c r="H46" s="3">
-        <v>171900</v>
+        <v>165800</v>
       </c>
       <c r="I46" s="3">
-        <v>163700</v>
+        <v>157900</v>
       </c>
       <c r="J46" s="3">
-        <v>233400</v>
+        <v>225200</v>
       </c>
       <c r="K46" s="3">
         <v>163900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="E47" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="F47" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="G47" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="H47" s="3">
-        <v>31700</v>
+        <v>30600</v>
       </c>
       <c r="I47" s="3">
-        <v>28300</v>
+        <v>27300</v>
       </c>
       <c r="J47" s="3">
-        <v>126100</v>
+        <v>121600</v>
       </c>
       <c r="K47" s="3">
         <v>98400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>170100</v>
+        <v>164100</v>
       </c>
       <c r="E48" s="3">
-        <v>174000</v>
+        <v>167900</v>
       </c>
       <c r="F48" s="3">
-        <v>195800</v>
+        <v>188900</v>
       </c>
       <c r="G48" s="3">
-        <v>212400</v>
+        <v>204900</v>
       </c>
       <c r="H48" s="3">
-        <v>104700</v>
+        <v>101100</v>
       </c>
       <c r="I48" s="3">
-        <v>108100</v>
+        <v>104300</v>
       </c>
       <c r="J48" s="3">
-        <v>227800</v>
+        <v>219800</v>
       </c>
       <c r="K48" s="3">
         <v>121700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2876700</v>
+        <v>2775400</v>
       </c>
       <c r="E49" s="3">
-        <v>2997200</v>
+        <v>2891700</v>
       </c>
       <c r="F49" s="3">
-        <v>3856200</v>
+        <v>3720300</v>
       </c>
       <c r="G49" s="3">
-        <v>3910200</v>
+        <v>3772500</v>
       </c>
       <c r="H49" s="3">
-        <v>1622200</v>
+        <v>1565100</v>
       </c>
       <c r="I49" s="3">
-        <v>1750800</v>
+        <v>1689100</v>
       </c>
       <c r="J49" s="3">
-        <v>1408100</v>
+        <v>1358500</v>
       </c>
       <c r="K49" s="3">
         <v>1137600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83700</v>
+        <v>80700</v>
       </c>
       <c r="E52" s="3">
-        <v>102100</v>
+        <v>98500</v>
       </c>
       <c r="F52" s="3">
-        <v>98700</v>
+        <v>95200</v>
       </c>
       <c r="G52" s="3">
-        <v>84000</v>
+        <v>81000</v>
       </c>
       <c r="H52" s="3">
-        <v>50900</v>
+        <v>49100</v>
       </c>
       <c r="I52" s="3">
-        <v>45300</v>
+        <v>43700</v>
       </c>
       <c r="J52" s="3">
-        <v>42200</v>
+        <v>40700</v>
       </c>
       <c r="K52" s="3">
         <v>27400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3517300</v>
+        <v>3393400</v>
       </c>
       <c r="E54" s="3">
-        <v>3675800</v>
+        <v>3546300</v>
       </c>
       <c r="F54" s="3">
-        <v>4567800</v>
+        <v>4406900</v>
       </c>
       <c r="G54" s="3">
-        <v>4587000</v>
+        <v>4425400</v>
       </c>
       <c r="H54" s="3">
-        <v>1981400</v>
+        <v>1911600</v>
       </c>
       <c r="I54" s="3">
-        <v>2096200</v>
+        <v>2022400</v>
       </c>
       <c r="J54" s="3">
-        <v>1631400</v>
+        <v>1573900</v>
       </c>
       <c r="K54" s="3">
         <v>1549100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>285400</v>
+        <v>275300</v>
       </c>
       <c r="E57" s="3">
-        <v>279100</v>
+        <v>269300</v>
       </c>
       <c r="F57" s="3">
-        <v>312900</v>
+        <v>301900</v>
       </c>
       <c r="G57" s="3">
-        <v>296100</v>
+        <v>285700</v>
       </c>
       <c r="H57" s="3">
-        <v>158800</v>
+        <v>153200</v>
       </c>
       <c r="I57" s="3">
-        <v>128300</v>
+        <v>123800</v>
       </c>
       <c r="J57" s="3">
-        <v>185100</v>
+        <v>178600</v>
       </c>
       <c r="K57" s="3">
         <v>120700</v>
@@ -2177,19 +2177,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58500</v>
+        <v>56500</v>
       </c>
       <c r="E58" s="3">
-        <v>82500</v>
+        <v>79500</v>
       </c>
       <c r="F58" s="3">
-        <v>129900</v>
+        <v>125300</v>
       </c>
       <c r="G58" s="3">
-        <v>86600</v>
+        <v>83500</v>
       </c>
       <c r="H58" s="3">
-        <v>112900</v>
+        <v>108900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="E59" s="3">
-        <v>32400</v>
+        <v>31200</v>
       </c>
       <c r="F59" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="G59" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="H59" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I59" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="J59" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="K59" s="3">
         <v>14100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>388600</v>
+        <v>374900</v>
       </c>
       <c r="E60" s="3">
-        <v>393900</v>
+        <v>380100</v>
       </c>
       <c r="F60" s="3">
-        <v>454600</v>
+        <v>438600</v>
       </c>
       <c r="G60" s="3">
-        <v>400300</v>
+        <v>386200</v>
       </c>
       <c r="H60" s="3">
-        <v>278500</v>
+        <v>268600</v>
       </c>
       <c r="I60" s="3">
-        <v>132300</v>
+        <v>127600</v>
       </c>
       <c r="J60" s="3">
-        <v>126800</v>
+        <v>122300</v>
       </c>
       <c r="K60" s="3">
         <v>140100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1246200</v>
+        <v>1202300</v>
       </c>
       <c r="E61" s="3">
-        <v>1415100</v>
+        <v>1365300</v>
       </c>
       <c r="F61" s="3">
-        <v>1444700</v>
+        <v>1393800</v>
       </c>
       <c r="G61" s="3">
-        <v>1566600</v>
+        <v>1511400</v>
       </c>
       <c r="H61" s="3">
-        <v>490100</v>
+        <v>472800</v>
       </c>
       <c r="I61" s="3">
-        <v>658100</v>
+        <v>634900</v>
       </c>
       <c r="J61" s="3">
-        <v>405700</v>
+        <v>391400</v>
       </c>
       <c r="K61" s="3">
         <v>385700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>571000</v>
+        <v>550900</v>
       </c>
       <c r="E62" s="3">
-        <v>604500</v>
+        <v>583200</v>
       </c>
       <c r="F62" s="3">
-        <v>711600</v>
+        <v>686500</v>
       </c>
       <c r="G62" s="3">
-        <v>756000</v>
+        <v>729400</v>
       </c>
       <c r="H62" s="3">
-        <v>294600</v>
+        <v>284200</v>
       </c>
       <c r="I62" s="3">
-        <v>319500</v>
+        <v>308300</v>
       </c>
       <c r="J62" s="3">
-        <v>256600</v>
+        <v>247600</v>
       </c>
       <c r="K62" s="3">
         <v>177700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2315300</v>
+        <v>2233700</v>
       </c>
       <c r="E66" s="3">
-        <v>2529800</v>
+        <v>2440700</v>
       </c>
       <c r="F66" s="3">
-        <v>2730500</v>
+        <v>2634300</v>
       </c>
       <c r="G66" s="3">
-        <v>2842100</v>
+        <v>2742000</v>
       </c>
       <c r="H66" s="3">
-        <v>1076100</v>
+        <v>1038200</v>
       </c>
       <c r="I66" s="3">
-        <v>1123000</v>
+        <v>1083400</v>
       </c>
       <c r="J66" s="3">
-        <v>726100</v>
+        <v>700500</v>
       </c>
       <c r="K66" s="3">
         <v>718900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-571200</v>
+        <v>-551100</v>
       </c>
       <c r="E72" s="3">
-        <v>-644900</v>
+        <v>-622200</v>
       </c>
       <c r="F72" s="3">
-        <v>86200</v>
+        <v>83200</v>
       </c>
       <c r="G72" s="3">
-        <v>107300</v>
+        <v>103500</v>
       </c>
       <c r="H72" s="3">
-        <v>143900</v>
+        <v>138800</v>
       </c>
       <c r="I72" s="3">
-        <v>235900</v>
+        <v>227600</v>
       </c>
       <c r="J72" s="3">
-        <v>193100</v>
+        <v>186300</v>
       </c>
       <c r="K72" s="3">
         <v>147700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1202000</v>
+        <v>1159700</v>
       </c>
       <c r="E76" s="3">
-        <v>1146000</v>
+        <v>1105700</v>
       </c>
       <c r="F76" s="3">
-        <v>1837300</v>
+        <v>1772600</v>
       </c>
       <c r="G76" s="3">
-        <v>1744900</v>
+        <v>1683400</v>
       </c>
       <c r="H76" s="3">
-        <v>905300</v>
+        <v>873400</v>
       </c>
       <c r="I76" s="3">
-        <v>973200</v>
+        <v>939000</v>
       </c>
       <c r="J76" s="3">
-        <v>905300</v>
+        <v>873400</v>
       </c>
       <c r="K76" s="3">
         <v>830100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117500</v>
+        <v>113400</v>
       </c>
       <c r="E81" s="3">
-        <v>-590600</v>
+        <v>-570100</v>
       </c>
       <c r="F81" s="3">
-        <v>144300</v>
+        <v>139300</v>
       </c>
       <c r="G81" s="3">
-        <v>94800</v>
+        <v>91500</v>
       </c>
       <c r="H81" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="I81" s="3">
-        <v>113200</v>
+        <v>109300</v>
       </c>
       <c r="J81" s="3">
-        <v>120400</v>
+        <v>116200</v>
       </c>
       <c r="K81" s="3">
         <v>110600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>538100</v>
+        <v>519500</v>
       </c>
       <c r="E83" s="3">
-        <v>462500</v>
+        <v>446400</v>
       </c>
       <c r="F83" s="3">
-        <v>471600</v>
+        <v>455200</v>
       </c>
       <c r="G83" s="3">
-        <v>308600</v>
+        <v>297900</v>
       </c>
       <c r="H83" s="3">
-        <v>199800</v>
+        <v>192800</v>
       </c>
       <c r="I83" s="3">
-        <v>189300</v>
+        <v>182800</v>
       </c>
       <c r="J83" s="3">
-        <v>309900</v>
+        <v>299100</v>
       </c>
       <c r="K83" s="3">
         <v>157800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>258600</v>
+        <v>249700</v>
       </c>
       <c r="E89" s="3">
-        <v>279200</v>
+        <v>269500</v>
       </c>
       <c r="F89" s="3">
-        <v>224400</v>
+        <v>216700</v>
       </c>
       <c r="G89" s="3">
-        <v>150700</v>
+        <v>145500</v>
       </c>
       <c r="H89" s="3">
-        <v>158400</v>
+        <v>152900</v>
       </c>
       <c r="I89" s="3">
-        <v>146400</v>
+        <v>141300</v>
       </c>
       <c r="J89" s="3">
-        <v>118000</v>
+        <v>113900</v>
       </c>
       <c r="K89" s="3">
         <v>126700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22600</v>
+        <v>-21800</v>
       </c>
       <c r="E91" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-12500</v>
-      </c>
       <c r="I91" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="J91" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K91" s="3">
         <v>-14300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22700</v>
+        <v>-22000</v>
       </c>
       <c r="E94" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="F94" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1248400</v>
+        <v>-1205200</v>
       </c>
       <c r="H94" s="3">
-        <v>-21800</v>
+        <v>-21000</v>
       </c>
       <c r="I94" s="3">
-        <v>-396200</v>
+        <v>-382400</v>
       </c>
       <c r="J94" s="3">
-        <v>-10300</v>
+        <v>-9900</v>
       </c>
       <c r="K94" s="3">
         <v>-26200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28700</v>
+        <v>-27700</v>
       </c>
       <c r="E96" s="3">
-        <v>-149700</v>
+        <v>-144500</v>
       </c>
       <c r="F96" s="3">
-        <v>-79800</v>
+        <v>-77100</v>
       </c>
       <c r="G96" s="3">
-        <v>-67500</v>
+        <v>-65200</v>
       </c>
       <c r="H96" s="3">
-        <v>-57400</v>
+        <v>-55400</v>
       </c>
       <c r="I96" s="3">
-        <v>-49300</v>
+        <v>-47600</v>
       </c>
       <c r="J96" s="3">
-        <v>-42700</v>
+        <v>-41200</v>
       </c>
       <c r="K96" s="3">
         <v>-37800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-245100</v>
+        <v>-236600</v>
       </c>
       <c r="E100" s="3">
-        <v>-259100</v>
+        <v>-250100</v>
       </c>
       <c r="F100" s="3">
-        <v>-191900</v>
+        <v>-185200</v>
       </c>
       <c r="G100" s="3">
-        <v>1123300</v>
+        <v>1084300</v>
       </c>
       <c r="H100" s="3">
-        <v>-117100</v>
+        <v>-113100</v>
       </c>
       <c r="I100" s="3">
-        <v>197300</v>
+        <v>190500</v>
       </c>
       <c r="J100" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="K100" s="3">
         <v>-123800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="E102" s="3">
         <v>800</v>
       </c>
       <c r="F102" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="G102" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="H102" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="I102" s="3">
-        <v>-52500</v>
+        <v>-50600</v>
       </c>
       <c r="J102" s="3">
-        <v>46700</v>
+        <v>45100</v>
       </c>
       <c r="K102" s="3">
         <v>-23300</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1226300</v>
+        <v>1284300</v>
       </c>
       <c r="E8" s="3">
-        <v>1197100</v>
+        <v>1253800</v>
       </c>
       <c r="F8" s="3">
-        <v>1220100</v>
+        <v>1277900</v>
       </c>
       <c r="G8" s="3">
-        <v>851200</v>
+        <v>891500</v>
       </c>
       <c r="H8" s="3">
-        <v>592500</v>
+        <v>620500</v>
       </c>
       <c r="I8" s="3">
-        <v>605300</v>
+        <v>634000</v>
       </c>
       <c r="J8" s="3">
-        <v>546100</v>
+        <v>572000</v>
       </c>
       <c r="K8" s="3">
         <v>626800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>412200</v>
+        <v>431700</v>
       </c>
       <c r="E9" s="3">
-        <v>406800</v>
+        <v>426100</v>
       </c>
       <c r="F9" s="3">
-        <v>408600</v>
+        <v>428000</v>
       </c>
       <c r="G9" s="3">
-        <v>260500</v>
+        <v>272800</v>
       </c>
       <c r="H9" s="3">
-        <v>193400</v>
+        <v>202500</v>
       </c>
       <c r="I9" s="3">
-        <v>185400</v>
+        <v>194100</v>
       </c>
       <c r="J9" s="3">
-        <v>167100</v>
+        <v>175000</v>
       </c>
       <c r="K9" s="3">
         <v>197700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>814000</v>
+        <v>852600</v>
       </c>
       <c r="E10" s="3">
-        <v>790300</v>
+        <v>827700</v>
       </c>
       <c r="F10" s="3">
-        <v>811500</v>
+        <v>849900</v>
       </c>
       <c r="G10" s="3">
-        <v>590700</v>
+        <v>618700</v>
       </c>
       <c r="H10" s="3">
-        <v>399100</v>
+        <v>418000</v>
       </c>
       <c r="I10" s="3">
-        <v>420000</v>
+        <v>439900</v>
       </c>
       <c r="J10" s="3">
-        <v>379100</v>
+        <v>397000</v>
       </c>
       <c r="K10" s="3">
         <v>429100</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="E14" s="3">
-        <v>749000</v>
+        <v>784500</v>
       </c>
       <c r="F14" s="3">
-        <v>27100</v>
+        <v>28300</v>
       </c>
       <c r="G14" s="3">
-        <v>22900</v>
+        <v>24000</v>
       </c>
       <c r="H14" s="3">
-        <v>145900</v>
+        <v>152800</v>
       </c>
       <c r="I14" s="3">
         <v>700</v>
       </c>
       <c r="J14" s="3">
-        <v>32900</v>
+        <v>34400</v>
       </c>
       <c r="K14" s="3">
         <v>1700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>132500</v>
+        <v>138800</v>
       </c>
       <c r="E15" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="F15" s="3">
-        <v>66700</v>
+        <v>69800</v>
       </c>
       <c r="G15" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="H15" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="I15" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="J15" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="K15" s="3">
         <v>19100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1043100</v>
+        <v>1092400</v>
       </c>
       <c r="E17" s="3">
-        <v>1684000</v>
+        <v>1763700</v>
       </c>
       <c r="F17" s="3">
-        <v>997300</v>
+        <v>1044500</v>
       </c>
       <c r="G17" s="3">
-        <v>716600</v>
+        <v>750600</v>
       </c>
       <c r="H17" s="3">
-        <v>584100</v>
+        <v>611800</v>
       </c>
       <c r="I17" s="3">
-        <v>453000</v>
+        <v>474500</v>
       </c>
       <c r="J17" s="3">
-        <v>400600</v>
+        <v>419600</v>
       </c>
       <c r="K17" s="3">
         <v>468000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>183200</v>
+        <v>191900</v>
       </c>
       <c r="E18" s="3">
-        <v>-486900</v>
+        <v>-510000</v>
       </c>
       <c r="F18" s="3">
-        <v>222800</v>
+        <v>233300</v>
       </c>
       <c r="G18" s="3">
-        <v>134500</v>
+        <v>140900</v>
       </c>
       <c r="H18" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I18" s="3">
-        <v>152300</v>
+        <v>159500</v>
       </c>
       <c r="J18" s="3">
-        <v>145500</v>
+        <v>152400</v>
       </c>
       <c r="K18" s="3">
         <v>158800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>703100</v>
+        <v>734700</v>
       </c>
       <c r="E21" s="3">
-        <v>-40100</v>
+        <v>-43400</v>
       </c>
       <c r="F21" s="3">
-        <v>678400</v>
+        <v>709100</v>
       </c>
       <c r="G21" s="3">
-        <v>432700</v>
+        <v>452200</v>
       </c>
       <c r="H21" s="3">
-        <v>201300</v>
+        <v>210300</v>
       </c>
       <c r="I21" s="3">
-        <v>335200</v>
+        <v>350500</v>
       </c>
       <c r="J21" s="3">
-        <v>444900</v>
+        <v>465000</v>
       </c>
       <c r="K21" s="3">
         <v>316900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>183200</v>
+        <v>191900</v>
       </c>
       <c r="E23" s="3">
-        <v>-486900</v>
+        <v>-510000</v>
       </c>
       <c r="F23" s="3">
-        <v>222800</v>
+        <v>233300</v>
       </c>
       <c r="G23" s="3">
-        <v>134500</v>
+        <v>140900</v>
       </c>
       <c r="H23" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I23" s="3">
-        <v>152300</v>
+        <v>159500</v>
       </c>
       <c r="J23" s="3">
-        <v>145500</v>
+        <v>152400</v>
       </c>
       <c r="K23" s="3">
         <v>158800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51900</v>
+        <v>54400</v>
       </c>
       <c r="E24" s="3">
-        <v>64000</v>
+        <v>67100</v>
       </c>
       <c r="F24" s="3">
-        <v>60000</v>
+        <v>62800</v>
       </c>
       <c r="G24" s="3">
-        <v>30200</v>
+        <v>31600</v>
       </c>
       <c r="H24" s="3">
-        <v>22500</v>
+        <v>23600</v>
       </c>
       <c r="I24" s="3">
-        <v>38800</v>
+        <v>40700</v>
       </c>
       <c r="J24" s="3">
-        <v>25000</v>
+        <v>26200</v>
       </c>
       <c r="K24" s="3">
         <v>42600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>131300</v>
+        <v>137500</v>
       </c>
       <c r="E26" s="3">
-        <v>-550900</v>
+        <v>-577000</v>
       </c>
       <c r="F26" s="3">
-        <v>162800</v>
+        <v>170600</v>
       </c>
       <c r="G26" s="3">
-        <v>104300</v>
+        <v>109300</v>
       </c>
       <c r="H26" s="3">
-        <v>-14200</v>
+        <v>-14800</v>
       </c>
       <c r="I26" s="3">
-        <v>113500</v>
+        <v>118900</v>
       </c>
       <c r="J26" s="3">
-        <v>120400</v>
+        <v>126100</v>
       </c>
       <c r="K26" s="3">
         <v>116200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="E27" s="3">
-        <v>-570100</v>
+        <v>-597100</v>
       </c>
       <c r="F27" s="3">
-        <v>139300</v>
+        <v>145900</v>
       </c>
       <c r="G27" s="3">
-        <v>91500</v>
+        <v>95800</v>
       </c>
       <c r="H27" s="3">
-        <v>-18300</v>
+        <v>-19100</v>
       </c>
       <c r="I27" s="3">
-        <v>109300</v>
+        <v>114500</v>
       </c>
       <c r="J27" s="3">
-        <v>116200</v>
+        <v>121700</v>
       </c>
       <c r="K27" s="3">
         <v>110600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="E33" s="3">
-        <v>-570100</v>
+        <v>-597100</v>
       </c>
       <c r="F33" s="3">
-        <v>139300</v>
+        <v>145900</v>
       </c>
       <c r="G33" s="3">
-        <v>91500</v>
+        <v>95800</v>
       </c>
       <c r="H33" s="3">
-        <v>-18300</v>
+        <v>-19100</v>
       </c>
       <c r="I33" s="3">
-        <v>109300</v>
+        <v>114500</v>
       </c>
       <c r="J33" s="3">
-        <v>116200</v>
+        <v>121700</v>
       </c>
       <c r="K33" s="3">
         <v>110600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="E35" s="3">
-        <v>-570100</v>
+        <v>-597100</v>
       </c>
       <c r="F35" s="3">
-        <v>139300</v>
+        <v>145900</v>
       </c>
       <c r="G35" s="3">
-        <v>91500</v>
+        <v>95800</v>
       </c>
       <c r="H35" s="3">
-        <v>-18300</v>
+        <v>-19100</v>
       </c>
       <c r="I35" s="3">
-        <v>109300</v>
+        <v>114500</v>
       </c>
       <c r="J35" s="3">
-        <v>116200</v>
+        <v>121700</v>
       </c>
       <c r="K35" s="3">
         <v>110600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>60000</v>
+        <v>62800</v>
       </c>
       <c r="E41" s="3">
-        <v>68900</v>
+        <v>72200</v>
       </c>
       <c r="F41" s="3">
-        <v>68100</v>
+        <v>71300</v>
       </c>
       <c r="G41" s="3">
-        <v>51800</v>
+        <v>54300</v>
       </c>
       <c r="H41" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="I41" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="J41" s="3">
-        <v>59000</v>
+        <v>61900</v>
       </c>
       <c r="K41" s="3">
         <v>18300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>280800</v>
+        <v>294200</v>
       </c>
       <c r="E43" s="3">
-        <v>284700</v>
+        <v>298400</v>
       </c>
       <c r="F43" s="3">
-        <v>297600</v>
+        <v>311900</v>
       </c>
       <c r="G43" s="3">
-        <v>275900</v>
+        <v>289100</v>
       </c>
       <c r="H43" s="3">
-        <v>128600</v>
+        <v>134700</v>
       </c>
       <c r="I43" s="3">
-        <v>140000</v>
+        <v>146700</v>
       </c>
       <c r="J43" s="3">
-        <v>282500</v>
+        <v>296000</v>
       </c>
       <c r="K43" s="3">
         <v>136200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="F45" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="G45" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="H45" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="I45" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="J45" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="K45" s="3">
         <v>9400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>354900</v>
+        <v>372000</v>
       </c>
       <c r="E46" s="3">
-        <v>368600</v>
+        <v>386300</v>
       </c>
       <c r="F46" s="3">
-        <v>381600</v>
+        <v>399900</v>
       </c>
       <c r="G46" s="3">
-        <v>341400</v>
+        <v>357800</v>
       </c>
       <c r="H46" s="3">
-        <v>165800</v>
+        <v>173800</v>
       </c>
       <c r="I46" s="3">
-        <v>157900</v>
+        <v>165500</v>
       </c>
       <c r="J46" s="3">
-        <v>225200</v>
+        <v>236000</v>
       </c>
       <c r="K46" s="3">
         <v>163900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="E47" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="F47" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="G47" s="3">
-        <v>25700</v>
+        <v>26900</v>
       </c>
       <c r="H47" s="3">
-        <v>30600</v>
+        <v>32100</v>
       </c>
       <c r="I47" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="J47" s="3">
-        <v>121600</v>
+        <v>127500</v>
       </c>
       <c r="K47" s="3">
         <v>98400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>164100</v>
+        <v>172000</v>
       </c>
       <c r="E48" s="3">
-        <v>167900</v>
+        <v>176000</v>
       </c>
       <c r="F48" s="3">
-        <v>188900</v>
+        <v>197900</v>
       </c>
       <c r="G48" s="3">
-        <v>204900</v>
+        <v>214700</v>
       </c>
       <c r="H48" s="3">
-        <v>101100</v>
+        <v>105900</v>
       </c>
       <c r="I48" s="3">
-        <v>104300</v>
+        <v>109300</v>
       </c>
       <c r="J48" s="3">
-        <v>219800</v>
+        <v>230300</v>
       </c>
       <c r="K48" s="3">
         <v>121700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2775400</v>
+        <v>2908500</v>
       </c>
       <c r="E49" s="3">
-        <v>2891700</v>
+        <v>3030300</v>
       </c>
       <c r="F49" s="3">
-        <v>3720300</v>
+        <v>3898700</v>
       </c>
       <c r="G49" s="3">
-        <v>3772500</v>
+        <v>3953300</v>
       </c>
       <c r="H49" s="3">
-        <v>1565100</v>
+        <v>1640100</v>
       </c>
       <c r="I49" s="3">
-        <v>1689100</v>
+        <v>1770100</v>
       </c>
       <c r="J49" s="3">
-        <v>1358500</v>
+        <v>1423700</v>
       </c>
       <c r="K49" s="3">
         <v>1137600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80700</v>
+        <v>84600</v>
       </c>
       <c r="E52" s="3">
-        <v>98500</v>
+        <v>103200</v>
       </c>
       <c r="F52" s="3">
-        <v>95200</v>
+        <v>99800</v>
       </c>
       <c r="G52" s="3">
-        <v>81000</v>
+        <v>84900</v>
       </c>
       <c r="H52" s="3">
-        <v>49100</v>
+        <v>51500</v>
       </c>
       <c r="I52" s="3">
-        <v>43700</v>
+        <v>45800</v>
       </c>
       <c r="J52" s="3">
-        <v>40700</v>
+        <v>42600</v>
       </c>
       <c r="K52" s="3">
         <v>27400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3393400</v>
+        <v>3556000</v>
       </c>
       <c r="E54" s="3">
-        <v>3546300</v>
+        <v>3716400</v>
       </c>
       <c r="F54" s="3">
-        <v>4406900</v>
+        <v>4618200</v>
       </c>
       <c r="G54" s="3">
-        <v>4425400</v>
+        <v>4637600</v>
       </c>
       <c r="H54" s="3">
-        <v>1911600</v>
+        <v>2003300</v>
       </c>
       <c r="I54" s="3">
-        <v>2022400</v>
+        <v>2119300</v>
       </c>
       <c r="J54" s="3">
-        <v>1573900</v>
+        <v>1649400</v>
       </c>
       <c r="K54" s="3">
         <v>1549100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>275300</v>
+        <v>288500</v>
       </c>
       <c r="E57" s="3">
-        <v>269300</v>
+        <v>282200</v>
       </c>
       <c r="F57" s="3">
-        <v>301900</v>
+        <v>316400</v>
       </c>
       <c r="G57" s="3">
-        <v>285700</v>
+        <v>299400</v>
       </c>
       <c r="H57" s="3">
-        <v>153200</v>
+        <v>160600</v>
       </c>
       <c r="I57" s="3">
-        <v>123800</v>
+        <v>129700</v>
       </c>
       <c r="J57" s="3">
-        <v>178600</v>
+        <v>187100</v>
       </c>
       <c r="K57" s="3">
         <v>120700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56500</v>
+        <v>59200</v>
       </c>
       <c r="E58" s="3">
-        <v>79500</v>
+        <v>83400</v>
       </c>
       <c r="F58" s="3">
-        <v>125300</v>
+        <v>131300</v>
       </c>
       <c r="G58" s="3">
-        <v>83500</v>
+        <v>87500</v>
       </c>
       <c r="H58" s="3">
-        <v>108900</v>
+        <v>114200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>5400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43100</v>
+        <v>45100</v>
       </c>
       <c r="E59" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="F59" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="G59" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="H59" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="I59" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J59" s="3">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="K59" s="3">
         <v>14100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>374900</v>
+        <v>392800</v>
       </c>
       <c r="E60" s="3">
-        <v>380100</v>
+        <v>398300</v>
       </c>
       <c r="F60" s="3">
-        <v>438600</v>
+        <v>459700</v>
       </c>
       <c r="G60" s="3">
-        <v>386200</v>
+        <v>404700</v>
       </c>
       <c r="H60" s="3">
-        <v>268600</v>
+        <v>281500</v>
       </c>
       <c r="I60" s="3">
-        <v>127600</v>
+        <v>133700</v>
       </c>
       <c r="J60" s="3">
-        <v>122300</v>
+        <v>128200</v>
       </c>
       <c r="K60" s="3">
         <v>140100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1202300</v>
+        <v>1259900</v>
       </c>
       <c r="E61" s="3">
-        <v>1365300</v>
+        <v>1430700</v>
       </c>
       <c r="F61" s="3">
-        <v>1393800</v>
+        <v>1460600</v>
       </c>
       <c r="G61" s="3">
-        <v>1511400</v>
+        <v>1583800</v>
       </c>
       <c r="H61" s="3">
-        <v>472800</v>
+        <v>495500</v>
       </c>
       <c r="I61" s="3">
-        <v>634900</v>
+        <v>665400</v>
       </c>
       <c r="J61" s="3">
-        <v>391400</v>
+        <v>410200</v>
       </c>
       <c r="K61" s="3">
         <v>385700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>550900</v>
+        <v>577300</v>
       </c>
       <c r="E62" s="3">
-        <v>583200</v>
+        <v>611100</v>
       </c>
       <c r="F62" s="3">
-        <v>686500</v>
+        <v>719500</v>
       </c>
       <c r="G62" s="3">
-        <v>729400</v>
+        <v>764300</v>
       </c>
       <c r="H62" s="3">
-        <v>284200</v>
+        <v>297800</v>
       </c>
       <c r="I62" s="3">
-        <v>308300</v>
+        <v>323100</v>
       </c>
       <c r="J62" s="3">
-        <v>247600</v>
+        <v>259400</v>
       </c>
       <c r="K62" s="3">
         <v>177700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2233700</v>
+        <v>2340800</v>
       </c>
       <c r="E66" s="3">
-        <v>2440700</v>
+        <v>2557700</v>
       </c>
       <c r="F66" s="3">
-        <v>2634300</v>
+        <v>2760600</v>
       </c>
       <c r="G66" s="3">
-        <v>2742000</v>
+        <v>2873500</v>
       </c>
       <c r="H66" s="3">
-        <v>1038200</v>
+        <v>1088000</v>
       </c>
       <c r="I66" s="3">
-        <v>1083400</v>
+        <v>1135300</v>
       </c>
       <c r="J66" s="3">
-        <v>700500</v>
+        <v>734100</v>
       </c>
       <c r="K66" s="3">
         <v>718900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-551100</v>
+        <v>-577500</v>
       </c>
       <c r="E72" s="3">
-        <v>-622200</v>
+        <v>-652000</v>
       </c>
       <c r="F72" s="3">
-        <v>83200</v>
+        <v>87100</v>
       </c>
       <c r="G72" s="3">
-        <v>103500</v>
+        <v>108500</v>
       </c>
       <c r="H72" s="3">
-        <v>138800</v>
+        <v>145500</v>
       </c>
       <c r="I72" s="3">
-        <v>227600</v>
+        <v>238500</v>
       </c>
       <c r="J72" s="3">
-        <v>186300</v>
+        <v>195200</v>
       </c>
       <c r="K72" s="3">
         <v>147700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1159700</v>
+        <v>1215300</v>
       </c>
       <c r="E76" s="3">
-        <v>1105700</v>
+        <v>1158700</v>
       </c>
       <c r="F76" s="3">
-        <v>1772600</v>
+        <v>1857600</v>
       </c>
       <c r="G76" s="3">
-        <v>1683400</v>
+        <v>1764100</v>
       </c>
       <c r="H76" s="3">
-        <v>873400</v>
+        <v>915300</v>
       </c>
       <c r="I76" s="3">
-        <v>939000</v>
+        <v>984000</v>
       </c>
       <c r="J76" s="3">
-        <v>873400</v>
+        <v>915300</v>
       </c>
       <c r="K76" s="3">
         <v>830100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="E81" s="3">
-        <v>-570100</v>
+        <v>-597100</v>
       </c>
       <c r="F81" s="3">
-        <v>139300</v>
+        <v>145900</v>
       </c>
       <c r="G81" s="3">
-        <v>91500</v>
+        <v>95800</v>
       </c>
       <c r="H81" s="3">
-        <v>-18300</v>
+        <v>-19100</v>
       </c>
       <c r="I81" s="3">
-        <v>109300</v>
+        <v>114500</v>
       </c>
       <c r="J81" s="3">
-        <v>116200</v>
+        <v>121700</v>
       </c>
       <c r="K81" s="3">
         <v>110600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>519500</v>
+        <v>544000</v>
       </c>
       <c r="E83" s="3">
-        <v>446400</v>
+        <v>467600</v>
       </c>
       <c r="F83" s="3">
-        <v>455200</v>
+        <v>476800</v>
       </c>
       <c r="G83" s="3">
-        <v>297900</v>
+        <v>312000</v>
       </c>
       <c r="H83" s="3">
-        <v>192800</v>
+        <v>202000</v>
       </c>
       <c r="I83" s="3">
-        <v>182800</v>
+        <v>191400</v>
       </c>
       <c r="J83" s="3">
-        <v>299100</v>
+        <v>313300</v>
       </c>
       <c r="K83" s="3">
         <v>157800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>249700</v>
+        <v>261500</v>
       </c>
       <c r="E89" s="3">
-        <v>269500</v>
+        <v>282300</v>
       </c>
       <c r="F89" s="3">
-        <v>216700</v>
+        <v>226900</v>
       </c>
       <c r="G89" s="3">
-        <v>145500</v>
+        <v>152400</v>
       </c>
       <c r="H89" s="3">
-        <v>152900</v>
+        <v>160100</v>
       </c>
       <c r="I89" s="3">
-        <v>141300</v>
+        <v>148000</v>
       </c>
       <c r="J89" s="3">
-        <v>113900</v>
+        <v>119300</v>
       </c>
       <c r="K89" s="3">
         <v>126700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21800</v>
+        <v>-22900</v>
       </c>
       <c r="E91" s="3">
-        <v>-11700</v>
+        <v>-12300</v>
       </c>
       <c r="F91" s="3">
-        <v>-19600</v>
+        <v>-20500</v>
       </c>
       <c r="G91" s="3">
-        <v>-16400</v>
+        <v>-17200</v>
       </c>
       <c r="H91" s="3">
-        <v>-12100</v>
+        <v>-12700</v>
       </c>
       <c r="I91" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="J91" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="K91" s="3">
         <v>-14300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1262200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1205200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-21000</v>
-      </c>
       <c r="I94" s="3">
-        <v>-382400</v>
+        <v>-400500</v>
       </c>
       <c r="J94" s="3">
-        <v>-9900</v>
+        <v>-10400</v>
       </c>
       <c r="K94" s="3">
         <v>-26200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27700</v>
+        <v>-29000</v>
       </c>
       <c r="E96" s="3">
-        <v>-144500</v>
+        <v>-151300</v>
       </c>
       <c r="F96" s="3">
-        <v>-77100</v>
+        <v>-80700</v>
       </c>
       <c r="G96" s="3">
-        <v>-65200</v>
+        <v>-68300</v>
       </c>
       <c r="H96" s="3">
-        <v>-55400</v>
+        <v>-58000</v>
       </c>
       <c r="I96" s="3">
-        <v>-47600</v>
+        <v>-49800</v>
       </c>
       <c r="J96" s="3">
-        <v>-41200</v>
+        <v>-43200</v>
       </c>
       <c r="K96" s="3">
         <v>-37800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-236600</v>
+        <v>-247800</v>
       </c>
       <c r="E100" s="3">
-        <v>-250100</v>
+        <v>-262000</v>
       </c>
       <c r="F100" s="3">
-        <v>-185200</v>
+        <v>-194000</v>
       </c>
       <c r="G100" s="3">
-        <v>1084300</v>
+        <v>1135700</v>
       </c>
       <c r="H100" s="3">
-        <v>-113100</v>
+        <v>-118400</v>
       </c>
       <c r="I100" s="3">
-        <v>190500</v>
+        <v>199500</v>
       </c>
       <c r="J100" s="3">
-        <v>-58900</v>
+        <v>-61600</v>
       </c>
       <c r="K100" s="3">
         <v>-123800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8900</v>
+        <v>-9300</v>
       </c>
       <c r="E102" s="3">
         <v>800</v>
       </c>
       <c r="F102" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="G102" s="3">
-        <v>24700</v>
+        <v>25800</v>
       </c>
       <c r="H102" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="I102" s="3">
-        <v>-50600</v>
+        <v>-53000</v>
       </c>
       <c r="J102" s="3">
-        <v>45100</v>
+        <v>47200</v>
       </c>
       <c r="K102" s="3">
         <v>-23300</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CJREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43343</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42978</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42613</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42247</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41882</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41517</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41152</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40786</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1284300</v>
+        <v>1163400</v>
       </c>
       <c r="E8" s="3">
-        <v>1253800</v>
+        <v>1299100</v>
       </c>
       <c r="F8" s="3">
-        <v>1277900</v>
+        <v>1268200</v>
       </c>
       <c r="G8" s="3">
-        <v>891500</v>
+        <v>1292500</v>
       </c>
       <c r="H8" s="3">
-        <v>620500</v>
+        <v>901700</v>
       </c>
       <c r="I8" s="3">
+        <v>627600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>641300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>572000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>626800</v>
+      </c>
+      <c r="M8" s="3">
         <v>634000</v>
       </c>
-      <c r="J8" s="3">
-        <v>572000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>626800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>634000</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>431700</v>
+        <v>419800</v>
       </c>
       <c r="E9" s="3">
-        <v>426100</v>
+        <v>436700</v>
       </c>
       <c r="F9" s="3">
-        <v>428000</v>
+        <v>431000</v>
       </c>
       <c r="G9" s="3">
-        <v>272800</v>
+        <v>432900</v>
       </c>
       <c r="H9" s="3">
-        <v>202500</v>
+        <v>275900</v>
       </c>
       <c r="I9" s="3">
-        <v>194100</v>
+        <v>204900</v>
       </c>
       <c r="J9" s="3">
+        <v>196400</v>
+      </c>
+      <c r="K9" s="3">
         <v>175000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>197700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>191200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>852600</v>
+        <v>743500</v>
       </c>
       <c r="E10" s="3">
-        <v>827700</v>
+        <v>862400</v>
       </c>
       <c r="F10" s="3">
-        <v>849900</v>
+        <v>837200</v>
       </c>
       <c r="G10" s="3">
-        <v>618700</v>
+        <v>859700</v>
       </c>
       <c r="H10" s="3">
-        <v>418000</v>
+        <v>625800</v>
       </c>
       <c r="I10" s="3">
-        <v>439900</v>
+        <v>422800</v>
       </c>
       <c r="J10" s="3">
+        <v>444900</v>
+      </c>
+      <c r="K10" s="3">
         <v>397000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>429100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>442700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23700</v>
+        <v>593600</v>
       </c>
       <c r="E14" s="3">
-        <v>784500</v>
+        <v>24000</v>
       </c>
       <c r="F14" s="3">
-        <v>28300</v>
+        <v>793500</v>
       </c>
       <c r="G14" s="3">
-        <v>24000</v>
+        <v>28700</v>
       </c>
       <c r="H14" s="3">
-        <v>152800</v>
+        <v>24200</v>
       </c>
       <c r="I14" s="3">
+        <v>154600</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>138800</v>
+        <v>122100</v>
       </c>
       <c r="E15" s="3">
-        <v>62300</v>
+        <v>140400</v>
       </c>
       <c r="F15" s="3">
-        <v>69800</v>
+        <v>63000</v>
       </c>
       <c r="G15" s="3">
-        <v>56300</v>
+        <v>70600</v>
       </c>
       <c r="H15" s="3">
-        <v>18300</v>
+        <v>56900</v>
       </c>
       <c r="I15" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="J15" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K15" s="3">
         <v>20400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>19100</v>
       </c>
       <c r="L15" s="3">
         <v>19100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1092400</v>
+        <v>1598900</v>
       </c>
       <c r="E17" s="3">
-        <v>1763700</v>
+        <v>1105000</v>
       </c>
       <c r="F17" s="3">
-        <v>1044500</v>
+        <v>1784000</v>
       </c>
       <c r="G17" s="3">
-        <v>750600</v>
+        <v>1056500</v>
       </c>
       <c r="H17" s="3">
-        <v>611800</v>
+        <v>759200</v>
       </c>
       <c r="I17" s="3">
-        <v>474500</v>
+        <v>618800</v>
       </c>
       <c r="J17" s="3">
+        <v>479900</v>
+      </c>
+      <c r="K17" s="3">
         <v>419600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>468000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>477200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>191900</v>
+        <v>-435500</v>
       </c>
       <c r="E18" s="3">
-        <v>-510000</v>
+        <v>194100</v>
       </c>
       <c r="F18" s="3">
-        <v>233300</v>
+        <v>-515800</v>
       </c>
       <c r="G18" s="3">
-        <v>140900</v>
+        <v>236000</v>
       </c>
       <c r="H18" s="3">
-        <v>8700</v>
+        <v>142500</v>
       </c>
       <c r="I18" s="3">
-        <v>159500</v>
+        <v>8800</v>
       </c>
       <c r="J18" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K18" s="3">
         <v>152400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>158800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>156800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1082,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,42 +1115,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>734700</v>
+        <v>82700</v>
       </c>
       <c r="E21" s="3">
-        <v>-43400</v>
+        <v>743400</v>
       </c>
       <c r="F21" s="3">
-        <v>709100</v>
+        <v>-43700</v>
       </c>
       <c r="G21" s="3">
-        <v>452200</v>
+        <v>717400</v>
       </c>
       <c r="H21" s="3">
-        <v>210300</v>
+        <v>457600</v>
       </c>
       <c r="I21" s="3">
-        <v>350500</v>
+        <v>212800</v>
       </c>
       <c r="J21" s="3">
+        <v>354600</v>
+      </c>
+      <c r="K21" s="3">
         <v>465000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>316900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>309900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191900</v>
+        <v>-435500</v>
       </c>
       <c r="E23" s="3">
-        <v>-510000</v>
+        <v>194100</v>
       </c>
       <c r="F23" s="3">
-        <v>233300</v>
+        <v>-515800</v>
       </c>
       <c r="G23" s="3">
-        <v>140900</v>
+        <v>236000</v>
       </c>
       <c r="H23" s="3">
-        <v>8700</v>
+        <v>142500</v>
       </c>
       <c r="I23" s="3">
-        <v>159500</v>
+        <v>8800</v>
       </c>
       <c r="J23" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K23" s="3">
         <v>152400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>158800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>156800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54400</v>
+        <v>32300</v>
       </c>
       <c r="E24" s="3">
-        <v>67100</v>
+        <v>55000</v>
       </c>
       <c r="F24" s="3">
-        <v>62800</v>
+        <v>67800</v>
       </c>
       <c r="G24" s="3">
-        <v>31600</v>
+        <v>63500</v>
       </c>
       <c r="H24" s="3">
-        <v>23600</v>
+        <v>32000</v>
       </c>
       <c r="I24" s="3">
-        <v>40700</v>
+        <v>23900</v>
       </c>
       <c r="J24" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K24" s="3">
         <v>26200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>137500</v>
+        <v>-467800</v>
       </c>
       <c r="E26" s="3">
-        <v>-577000</v>
+        <v>139100</v>
       </c>
       <c r="F26" s="3">
-        <v>170600</v>
+        <v>-583600</v>
       </c>
       <c r="G26" s="3">
-        <v>109300</v>
+        <v>172500</v>
       </c>
       <c r="H26" s="3">
-        <v>-14800</v>
+        <v>110500</v>
       </c>
       <c r="I26" s="3">
-        <v>118900</v>
+        <v>-15000</v>
       </c>
       <c r="J26" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K26" s="3">
         <v>126100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>118800</v>
+        <v>-481400</v>
       </c>
       <c r="E27" s="3">
-        <v>-597100</v>
+        <v>120200</v>
       </c>
       <c r="F27" s="3">
-        <v>145900</v>
+        <v>-603900</v>
       </c>
       <c r="G27" s="3">
-        <v>95800</v>
+        <v>147500</v>
       </c>
       <c r="H27" s="3">
-        <v>-19100</v>
+        <v>96900</v>
       </c>
       <c r="I27" s="3">
-        <v>114500</v>
+        <v>-19400</v>
       </c>
       <c r="J27" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K27" s="3">
         <v>121700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>108700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,11 +1437,14 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>3900</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,9 +1511,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1478,42 +1547,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>118800</v>
+        <v>-481400</v>
       </c>
       <c r="E33" s="3">
-        <v>-597100</v>
+        <v>120200</v>
       </c>
       <c r="F33" s="3">
-        <v>145900</v>
+        <v>-603900</v>
       </c>
       <c r="G33" s="3">
-        <v>95800</v>
+        <v>147500</v>
       </c>
       <c r="H33" s="3">
-        <v>-19100</v>
+        <v>96900</v>
       </c>
       <c r="I33" s="3">
-        <v>114500</v>
+        <v>-19400</v>
       </c>
       <c r="J33" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K33" s="3">
         <v>121700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>118800</v>
+        <v>-481400</v>
       </c>
       <c r="E35" s="3">
-        <v>-597100</v>
+        <v>120200</v>
       </c>
       <c r="F35" s="3">
-        <v>145900</v>
+        <v>-603900</v>
       </c>
       <c r="G35" s="3">
-        <v>95800</v>
+        <v>147500</v>
       </c>
       <c r="H35" s="3">
-        <v>-19100</v>
+        <v>96900</v>
       </c>
       <c r="I35" s="3">
-        <v>114500</v>
+        <v>-19400</v>
       </c>
       <c r="J35" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K35" s="3">
         <v>121700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43343</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42978</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42613</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42247</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41882</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41517</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41152</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40786</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62800</v>
+        <v>35300</v>
       </c>
       <c r="E41" s="3">
-        <v>72200</v>
+        <v>63600</v>
       </c>
       <c r="F41" s="3">
-        <v>71300</v>
+        <v>73000</v>
       </c>
       <c r="G41" s="3">
-        <v>54300</v>
+        <v>72100</v>
       </c>
       <c r="H41" s="3">
-        <v>28500</v>
+        <v>54900</v>
       </c>
       <c r="I41" s="3">
-        <v>8800</v>
+        <v>28800</v>
       </c>
       <c r="J41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K41" s="3">
         <v>61900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,42 +1800,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>294200</v>
+        <v>229100</v>
       </c>
       <c r="E43" s="3">
-        <v>298400</v>
+        <v>297600</v>
       </c>
       <c r="F43" s="3">
-        <v>311900</v>
+        <v>301800</v>
       </c>
       <c r="G43" s="3">
-        <v>289100</v>
+        <v>315500</v>
       </c>
       <c r="H43" s="3">
-        <v>134700</v>
+        <v>292400</v>
       </c>
       <c r="I43" s="3">
-        <v>146700</v>
+        <v>136300</v>
       </c>
       <c r="J43" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K43" s="3">
         <v>296000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>136200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>137600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,174 +1872,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>13200</v>
       </c>
       <c r="E45" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="F45" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="G45" s="3">
-        <v>14300</v>
+        <v>16800</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="I45" s="3">
-        <v>9900</v>
+        <v>10700</v>
       </c>
       <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>372000</v>
+        <v>277600</v>
       </c>
       <c r="E46" s="3">
-        <v>386300</v>
+        <v>376200</v>
       </c>
       <c r="F46" s="3">
-        <v>399900</v>
+        <v>390700</v>
       </c>
       <c r="G46" s="3">
-        <v>357800</v>
+        <v>404500</v>
       </c>
       <c r="H46" s="3">
-        <v>173800</v>
+        <v>361900</v>
       </c>
       <c r="I46" s="3">
-        <v>165500</v>
+        <v>175800</v>
       </c>
       <c r="J46" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K46" s="3">
         <v>236000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>163900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>190900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19100</v>
+        <v>56000</v>
       </c>
       <c r="E47" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="F47" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="G47" s="3">
-        <v>26900</v>
+        <v>22100</v>
       </c>
       <c r="H47" s="3">
-        <v>32100</v>
+        <v>27200</v>
       </c>
       <c r="I47" s="3">
-        <v>28600</v>
+        <v>32400</v>
       </c>
       <c r="J47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K47" s="3">
         <v>127500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>98400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>172000</v>
+        <v>256900</v>
       </c>
       <c r="E48" s="3">
-        <v>176000</v>
+        <v>173900</v>
       </c>
       <c r="F48" s="3">
-        <v>197900</v>
+        <v>178000</v>
       </c>
       <c r="G48" s="3">
-        <v>214700</v>
+        <v>200200</v>
       </c>
       <c r="H48" s="3">
-        <v>105900</v>
+        <v>217200</v>
       </c>
       <c r="I48" s="3">
-        <v>109300</v>
+        <v>107100</v>
       </c>
       <c r="J48" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K48" s="3">
         <v>230300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>208400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2908500</v>
+        <v>2414700</v>
       </c>
       <c r="E49" s="3">
-        <v>3030300</v>
+        <v>2941800</v>
       </c>
       <c r="F49" s="3">
-        <v>3898700</v>
+        <v>3065100</v>
       </c>
       <c r="G49" s="3">
-        <v>3953300</v>
+        <v>3943400</v>
       </c>
       <c r="H49" s="3">
-        <v>1640100</v>
+        <v>3998700</v>
       </c>
       <c r="I49" s="3">
-        <v>1770100</v>
+        <v>1658900</v>
       </c>
       <c r="J49" s="3">
+        <v>1790400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1423700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1137600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1247400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84600</v>
+        <v>51600</v>
       </c>
       <c r="E52" s="3">
-        <v>103200</v>
+        <v>85600</v>
       </c>
       <c r="F52" s="3">
-        <v>99800</v>
+        <v>104400</v>
       </c>
       <c r="G52" s="3">
-        <v>84900</v>
+        <v>100900</v>
       </c>
       <c r="H52" s="3">
-        <v>51500</v>
+        <v>85900</v>
       </c>
       <c r="I52" s="3">
-        <v>45800</v>
+        <v>52000</v>
       </c>
       <c r="J52" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K52" s="3">
         <v>42600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3556000</v>
+        <v>3056900</v>
       </c>
       <c r="E54" s="3">
-        <v>3716400</v>
+        <v>3596800</v>
       </c>
       <c r="F54" s="3">
-        <v>4618200</v>
+        <v>3759000</v>
       </c>
       <c r="G54" s="3">
-        <v>4637600</v>
+        <v>4671100</v>
       </c>
       <c r="H54" s="3">
-        <v>2003300</v>
+        <v>4690800</v>
       </c>
       <c r="I54" s="3">
-        <v>2119300</v>
+        <v>2026300</v>
       </c>
       <c r="J54" s="3">
+        <v>2143600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1649400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1549100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1623700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>288500</v>
+        <v>283700</v>
       </c>
       <c r="E57" s="3">
-        <v>282200</v>
+        <v>291800</v>
       </c>
       <c r="F57" s="3">
-        <v>316400</v>
+        <v>285400</v>
       </c>
       <c r="G57" s="3">
-        <v>299400</v>
+        <v>320000</v>
       </c>
       <c r="H57" s="3">
-        <v>160600</v>
+        <v>302800</v>
       </c>
       <c r="I57" s="3">
-        <v>129700</v>
+        <v>162400</v>
       </c>
       <c r="J57" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K57" s="3">
         <v>187100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>120700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59200</v>
+        <v>69700</v>
       </c>
       <c r="E58" s="3">
-        <v>83400</v>
+        <v>59900</v>
       </c>
       <c r="F58" s="3">
-        <v>131300</v>
+        <v>84300</v>
       </c>
       <c r="G58" s="3">
-        <v>87500</v>
+        <v>132800</v>
       </c>
       <c r="H58" s="3">
-        <v>114200</v>
-      </c>
-      <c r="I58" s="3" t="s">
+        <v>88500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>115500</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45100</v>
+        <v>69400</v>
       </c>
       <c r="E59" s="3">
-        <v>32700</v>
+        <v>45600</v>
       </c>
       <c r="F59" s="3">
-        <v>12000</v>
+        <v>33100</v>
       </c>
       <c r="G59" s="3">
-        <v>17800</v>
+        <v>12200</v>
       </c>
       <c r="H59" s="3">
-        <v>6800</v>
+        <v>18000</v>
       </c>
       <c r="I59" s="3">
-        <v>4000</v>
+        <v>6900</v>
       </c>
       <c r="J59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K59" s="3">
         <v>18900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>392800</v>
+        <v>422900</v>
       </c>
       <c r="E60" s="3">
-        <v>398300</v>
+        <v>397300</v>
       </c>
       <c r="F60" s="3">
-        <v>459700</v>
+        <v>402900</v>
       </c>
       <c r="G60" s="3">
-        <v>404700</v>
+        <v>464900</v>
       </c>
       <c r="H60" s="3">
-        <v>281500</v>
+        <v>409300</v>
       </c>
       <c r="I60" s="3">
-        <v>133700</v>
+        <v>284800</v>
       </c>
       <c r="J60" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K60" s="3">
         <v>128200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>140100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>162900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1259900</v>
+        <v>1204100</v>
       </c>
       <c r="E61" s="3">
-        <v>1430700</v>
+        <v>1274400</v>
       </c>
       <c r="F61" s="3">
-        <v>1460600</v>
+        <v>1447200</v>
       </c>
       <c r="G61" s="3">
-        <v>1583800</v>
+        <v>1477300</v>
       </c>
       <c r="H61" s="3">
-        <v>495500</v>
+        <v>1602000</v>
       </c>
       <c r="I61" s="3">
-        <v>665400</v>
+        <v>501200</v>
       </c>
       <c r="J61" s="3">
+        <v>673000</v>
+      </c>
+      <c r="K61" s="3">
         <v>410200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>385700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>461500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>577300</v>
+        <v>622800</v>
       </c>
       <c r="E62" s="3">
-        <v>611100</v>
+        <v>583900</v>
       </c>
       <c r="F62" s="3">
-        <v>719500</v>
+        <v>618100</v>
       </c>
       <c r="G62" s="3">
-        <v>764300</v>
+        <v>727700</v>
       </c>
       <c r="H62" s="3">
-        <v>297800</v>
+        <v>773100</v>
       </c>
       <c r="I62" s="3">
-        <v>323100</v>
+        <v>301200</v>
       </c>
       <c r="J62" s="3">
+        <v>326800</v>
+      </c>
+      <c r="K62" s="3">
         <v>259400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>177700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>198000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2340800</v>
+        <v>2364200</v>
       </c>
       <c r="E66" s="3">
-        <v>2557700</v>
+        <v>2367600</v>
       </c>
       <c r="F66" s="3">
-        <v>2760600</v>
+        <v>2587000</v>
       </c>
       <c r="G66" s="3">
-        <v>2873500</v>
+        <v>2792300</v>
       </c>
       <c r="H66" s="3">
-        <v>1088000</v>
+        <v>2906400</v>
       </c>
       <c r="I66" s="3">
-        <v>1135300</v>
+        <v>1100500</v>
       </c>
       <c r="J66" s="3">
+        <v>1148400</v>
+      </c>
+      <c r="K66" s="3">
         <v>734100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>718900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>828100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-577500</v>
+        <v>-1097300</v>
       </c>
       <c r="E72" s="3">
-        <v>-652000</v>
+        <v>-584100</v>
       </c>
       <c r="F72" s="3">
-        <v>87100</v>
+        <v>-659500</v>
       </c>
       <c r="G72" s="3">
-        <v>108500</v>
+        <v>88100</v>
       </c>
       <c r="H72" s="3">
-        <v>145500</v>
+        <v>109700</v>
       </c>
       <c r="I72" s="3">
-        <v>238500</v>
+        <v>147200</v>
       </c>
       <c r="J72" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K72" s="3">
         <v>195200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>147700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>110400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1215300</v>
+        <v>692700</v>
       </c>
       <c r="E76" s="3">
-        <v>1158700</v>
+        <v>1229200</v>
       </c>
       <c r="F76" s="3">
-        <v>1857600</v>
+        <v>1172000</v>
       </c>
       <c r="G76" s="3">
-        <v>1764100</v>
+        <v>1878900</v>
       </c>
       <c r="H76" s="3">
+        <v>1784400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>925800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>995300</v>
+      </c>
+      <c r="K76" s="3">
         <v>915300</v>
       </c>
-      <c r="I76" s="3">
-        <v>984000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>915300</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>830100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>795600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43343</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42978</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42613</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42247</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41882</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41517</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41152</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40786</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>118800</v>
+        <v>-481400</v>
       </c>
       <c r="E81" s="3">
-        <v>-597100</v>
+        <v>120200</v>
       </c>
       <c r="F81" s="3">
-        <v>145900</v>
+        <v>-603900</v>
       </c>
       <c r="G81" s="3">
-        <v>95800</v>
+        <v>147500</v>
       </c>
       <c r="H81" s="3">
-        <v>-19100</v>
+        <v>96900</v>
       </c>
       <c r="I81" s="3">
-        <v>114500</v>
+        <v>-19400</v>
       </c>
       <c r="J81" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K81" s="3">
         <v>121700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>544000</v>
+        <v>519200</v>
       </c>
       <c r="E83" s="3">
-        <v>467600</v>
+        <v>550300</v>
       </c>
       <c r="F83" s="3">
-        <v>476800</v>
+        <v>472900</v>
       </c>
       <c r="G83" s="3">
-        <v>312000</v>
+        <v>482200</v>
       </c>
       <c r="H83" s="3">
-        <v>202000</v>
+        <v>315600</v>
       </c>
       <c r="I83" s="3">
-        <v>191400</v>
+        <v>204300</v>
       </c>
       <c r="J83" s="3">
+        <v>193600</v>
+      </c>
+      <c r="K83" s="3">
         <v>313300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>152400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>261500</v>
+        <v>241200</v>
       </c>
       <c r="E89" s="3">
-        <v>282300</v>
+        <v>264500</v>
       </c>
       <c r="F89" s="3">
-        <v>226900</v>
+        <v>285500</v>
       </c>
       <c r="G89" s="3">
-        <v>152400</v>
+        <v>229500</v>
       </c>
       <c r="H89" s="3">
-        <v>160100</v>
+        <v>154100</v>
       </c>
       <c r="I89" s="3">
-        <v>148000</v>
+        <v>161900</v>
       </c>
       <c r="J89" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K89" s="3">
         <v>119300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22900</v>
+        <v>-11800</v>
       </c>
       <c r="E91" s="3">
-        <v>-12300</v>
+        <v>-23100</v>
       </c>
       <c r="F91" s="3">
-        <v>-20500</v>
+        <v>-12400</v>
       </c>
       <c r="G91" s="3">
-        <v>-17200</v>
+        <v>-20800</v>
       </c>
       <c r="H91" s="3">
-        <v>-12700</v>
+        <v>-17400</v>
       </c>
       <c r="I91" s="3">
-        <v>-9100</v>
+        <v>-12800</v>
       </c>
       <c r="J91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23000</v>
+        <v>-14600</v>
       </c>
       <c r="E94" s="3">
-        <v>-19500</v>
+        <v>-23300</v>
       </c>
       <c r="F94" s="3">
-        <v>-15900</v>
+        <v>-19700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1262200</v>
+        <v>-16100</v>
       </c>
       <c r="H94" s="3">
-        <v>-22000</v>
+        <v>-1276700</v>
       </c>
       <c r="I94" s="3">
-        <v>-400500</v>
+        <v>-22300</v>
       </c>
       <c r="J94" s="3">
+        <v>-405100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>25500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-29000</v>
+        <v>-38800</v>
       </c>
       <c r="E96" s="3">
-        <v>-151300</v>
+        <v>-29400</v>
       </c>
       <c r="F96" s="3">
-        <v>-80700</v>
+        <v>-153000</v>
       </c>
       <c r="G96" s="3">
-        <v>-68300</v>
+        <v>-81600</v>
       </c>
       <c r="H96" s="3">
-        <v>-58000</v>
+        <v>-69100</v>
       </c>
       <c r="I96" s="3">
-        <v>-49800</v>
+        <v>-58700</v>
       </c>
       <c r="J96" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-43200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-247800</v>
+        <v>-254800</v>
       </c>
       <c r="E100" s="3">
-        <v>-262000</v>
+        <v>-250600</v>
       </c>
       <c r="F100" s="3">
-        <v>-194000</v>
+        <v>-265000</v>
       </c>
       <c r="G100" s="3">
-        <v>1135700</v>
+        <v>-196200</v>
       </c>
       <c r="H100" s="3">
-        <v>-118400</v>
+        <v>1148700</v>
       </c>
       <c r="I100" s="3">
-        <v>199500</v>
+        <v>-119800</v>
       </c>
       <c r="J100" s="3">
+        <v>201800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-61600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-123800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-113000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9300</v>
+        <v>-28200</v>
       </c>
       <c r="E102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
-        <v>17000</v>
-      </c>
       <c r="G102" s="3">
-        <v>25800</v>
+        <v>17200</v>
       </c>
       <c r="H102" s="3">
-        <v>19700</v>
+        <v>26100</v>
       </c>
       <c r="I102" s="3">
-        <v>-53000</v>
+        <v>19900</v>
       </c>
       <c r="J102" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="K102" s="3">
         <v>47200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1163400</v>
+        <v>1198400</v>
       </c>
       <c r="E8" s="3">
-        <v>1299100</v>
+        <v>1338200</v>
       </c>
       <c r="F8" s="3">
-        <v>1268200</v>
+        <v>1306400</v>
       </c>
       <c r="G8" s="3">
-        <v>1292500</v>
+        <v>1331500</v>
       </c>
       <c r="H8" s="3">
-        <v>901700</v>
+        <v>928900</v>
       </c>
       <c r="I8" s="3">
-        <v>627600</v>
+        <v>646600</v>
       </c>
       <c r="J8" s="3">
-        <v>641300</v>
+        <v>660600</v>
       </c>
       <c r="K8" s="3">
         <v>572000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>419800</v>
+        <v>432500</v>
       </c>
       <c r="E9" s="3">
-        <v>436700</v>
+        <v>449900</v>
       </c>
       <c r="F9" s="3">
-        <v>431000</v>
+        <v>444000</v>
       </c>
       <c r="G9" s="3">
-        <v>432900</v>
+        <v>445900</v>
       </c>
       <c r="H9" s="3">
-        <v>275900</v>
+        <v>284300</v>
       </c>
       <c r="I9" s="3">
-        <v>204900</v>
+        <v>211000</v>
       </c>
       <c r="J9" s="3">
-        <v>196400</v>
+        <v>202300</v>
       </c>
       <c r="K9" s="3">
         <v>175000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>743500</v>
+        <v>765900</v>
       </c>
       <c r="E10" s="3">
+        <v>888300</v>
+      </c>
+      <c r="F10" s="3">
         <v>862400</v>
       </c>
-      <c r="F10" s="3">
-        <v>837200</v>
-      </c>
       <c r="G10" s="3">
-        <v>859700</v>
+        <v>885600</v>
       </c>
       <c r="H10" s="3">
-        <v>625800</v>
+        <v>644600</v>
       </c>
       <c r="I10" s="3">
-        <v>422800</v>
+        <v>435500</v>
       </c>
       <c r="J10" s="3">
-        <v>444900</v>
+        <v>458300</v>
       </c>
       <c r="K10" s="3">
         <v>397000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>593600</v>
+        <v>611500</v>
       </c>
       <c r="E14" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="F14" s="3">
-        <v>793500</v>
+        <v>817400</v>
       </c>
       <c r="G14" s="3">
-        <v>28700</v>
+        <v>29500</v>
       </c>
       <c r="H14" s="3">
-        <v>24200</v>
+        <v>25000</v>
       </c>
       <c r="I14" s="3">
-        <v>154600</v>
+        <v>159300</v>
       </c>
       <c r="J14" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K14" s="3">
         <v>34400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>122100</v>
+        <v>125700</v>
       </c>
       <c r="E15" s="3">
-        <v>140400</v>
+        <v>144600</v>
       </c>
       <c r="F15" s="3">
-        <v>63000</v>
+        <v>64900</v>
       </c>
       <c r="G15" s="3">
-        <v>70600</v>
+        <v>72800</v>
       </c>
       <c r="H15" s="3">
-        <v>56900</v>
+        <v>58700</v>
       </c>
       <c r="I15" s="3">
-        <v>18500</v>
+        <v>19100</v>
       </c>
       <c r="J15" s="3">
-        <v>18500</v>
+        <v>19100</v>
       </c>
       <c r="K15" s="3">
         <v>20400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1598900</v>
+        <v>1647100</v>
       </c>
       <c r="E17" s="3">
-        <v>1105000</v>
+        <v>1138300</v>
       </c>
       <c r="F17" s="3">
-        <v>1784000</v>
+        <v>1837700</v>
       </c>
       <c r="G17" s="3">
-        <v>1056500</v>
+        <v>1088400</v>
       </c>
       <c r="H17" s="3">
-        <v>759200</v>
+        <v>782100</v>
       </c>
       <c r="I17" s="3">
-        <v>618800</v>
+        <v>637400</v>
       </c>
       <c r="J17" s="3">
-        <v>479900</v>
+        <v>494400</v>
       </c>
       <c r="K17" s="3">
         <v>419600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-435500</v>
+        <v>-448700</v>
       </c>
       <c r="E18" s="3">
-        <v>194100</v>
+        <v>199900</v>
       </c>
       <c r="F18" s="3">
-        <v>-515800</v>
+        <v>-531400</v>
       </c>
       <c r="G18" s="3">
-        <v>236000</v>
+        <v>243100</v>
       </c>
       <c r="H18" s="3">
-        <v>142500</v>
+        <v>146800</v>
       </c>
       <c r="I18" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="J18" s="3">
-        <v>161400</v>
+        <v>166200</v>
       </c>
       <c r="K18" s="3">
         <v>152400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>82700</v>
+        <v>87700</v>
       </c>
       <c r="E21" s="3">
-        <v>743400</v>
+        <v>768400</v>
       </c>
       <c r="F21" s="3">
-        <v>-43700</v>
+        <v>-42800</v>
       </c>
       <c r="G21" s="3">
-        <v>717400</v>
+        <v>741300</v>
       </c>
       <c r="H21" s="3">
-        <v>457600</v>
+        <v>472800</v>
       </c>
       <c r="I21" s="3">
-        <v>212800</v>
+        <v>220100</v>
       </c>
       <c r="J21" s="3">
-        <v>354600</v>
+        <v>366200</v>
       </c>
       <c r="K21" s="3">
         <v>465000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-435500</v>
+        <v>-448700</v>
       </c>
       <c r="E23" s="3">
-        <v>194100</v>
+        <v>199900</v>
       </c>
       <c r="F23" s="3">
-        <v>-515800</v>
+        <v>-531400</v>
       </c>
       <c r="G23" s="3">
-        <v>236000</v>
+        <v>243100</v>
       </c>
       <c r="H23" s="3">
-        <v>142500</v>
+        <v>146800</v>
       </c>
       <c r="I23" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="J23" s="3">
-        <v>161400</v>
+        <v>166200</v>
       </c>
       <c r="K23" s="3">
         <v>152400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="E24" s="3">
-        <v>55000</v>
+        <v>56700</v>
       </c>
       <c r="F24" s="3">
-        <v>67800</v>
+        <v>69900</v>
       </c>
       <c r="G24" s="3">
-        <v>63500</v>
+        <v>65400</v>
       </c>
       <c r="H24" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="I24" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="J24" s="3">
-        <v>41100</v>
+        <v>42400</v>
       </c>
       <c r="K24" s="3">
         <v>26200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-467800</v>
+        <v>-481900</v>
       </c>
       <c r="E26" s="3">
-        <v>139100</v>
+        <v>143300</v>
       </c>
       <c r="F26" s="3">
-        <v>-583600</v>
+        <v>-601200</v>
       </c>
       <c r="G26" s="3">
-        <v>172500</v>
+        <v>177700</v>
       </c>
       <c r="H26" s="3">
-        <v>110500</v>
+        <v>113800</v>
       </c>
       <c r="I26" s="3">
-        <v>-15000</v>
+        <v>-15500</v>
       </c>
       <c r="J26" s="3">
-        <v>120200</v>
+        <v>123800</v>
       </c>
       <c r="K26" s="3">
         <v>126100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-481400</v>
+        <v>-495900</v>
       </c>
       <c r="E27" s="3">
-        <v>120200</v>
+        <v>123800</v>
       </c>
       <c r="F27" s="3">
-        <v>-603900</v>
+        <v>-622100</v>
       </c>
       <c r="G27" s="3">
-        <v>147500</v>
+        <v>152000</v>
       </c>
       <c r="H27" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="I27" s="3">
-        <v>-19400</v>
+        <v>-19900</v>
       </c>
       <c r="J27" s="3">
-        <v>115800</v>
+        <v>119300</v>
       </c>
       <c r="K27" s="3">
         <v>121700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-481400</v>
+        <v>-495900</v>
       </c>
       <c r="E33" s="3">
-        <v>120200</v>
+        <v>123800</v>
       </c>
       <c r="F33" s="3">
-        <v>-603900</v>
+        <v>-622100</v>
       </c>
       <c r="G33" s="3">
-        <v>147500</v>
+        <v>152000</v>
       </c>
       <c r="H33" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="I33" s="3">
-        <v>-19400</v>
+        <v>-19900</v>
       </c>
       <c r="J33" s="3">
-        <v>115800</v>
+        <v>119300</v>
       </c>
       <c r="K33" s="3">
         <v>121700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-481400</v>
+        <v>-495900</v>
       </c>
       <c r="E35" s="3">
-        <v>120200</v>
+        <v>123800</v>
       </c>
       <c r="F35" s="3">
-        <v>-603900</v>
+        <v>-622100</v>
       </c>
       <c r="G35" s="3">
-        <v>147500</v>
+        <v>152000</v>
       </c>
       <c r="H35" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="I35" s="3">
-        <v>-19400</v>
+        <v>-19900</v>
       </c>
       <c r="J35" s="3">
-        <v>115800</v>
+        <v>119300</v>
       </c>
       <c r="K35" s="3">
         <v>121700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35300</v>
+        <v>36400</v>
       </c>
       <c r="E41" s="3">
-        <v>63600</v>
+        <v>65500</v>
       </c>
       <c r="F41" s="3">
-        <v>73000</v>
+        <v>75200</v>
       </c>
       <c r="G41" s="3">
-        <v>72100</v>
+        <v>74300</v>
       </c>
       <c r="H41" s="3">
-        <v>54900</v>
+        <v>56600</v>
       </c>
       <c r="I41" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="J41" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="K41" s="3">
         <v>61900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>229100</v>
+        <v>236000</v>
       </c>
       <c r="E43" s="3">
-        <v>297600</v>
+        <v>306600</v>
       </c>
       <c r="F43" s="3">
-        <v>301800</v>
+        <v>310900</v>
       </c>
       <c r="G43" s="3">
-        <v>315500</v>
+        <v>325000</v>
       </c>
       <c r="H43" s="3">
-        <v>292400</v>
+        <v>301200</v>
       </c>
       <c r="I43" s="3">
-        <v>136300</v>
+        <v>140400</v>
       </c>
       <c r="J43" s="3">
-        <v>148400</v>
+        <v>152900</v>
       </c>
       <c r="K43" s="3">
         <v>296000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="E45" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="F45" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="G45" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="I45" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="J45" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="K45" s="3">
         <v>12500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>277600</v>
+        <v>286000</v>
       </c>
       <c r="E46" s="3">
-        <v>376200</v>
+        <v>387600</v>
       </c>
       <c r="F46" s="3">
-        <v>390700</v>
+        <v>402500</v>
       </c>
       <c r="G46" s="3">
-        <v>404500</v>
+        <v>416700</v>
       </c>
       <c r="H46" s="3">
-        <v>361900</v>
+        <v>372800</v>
       </c>
       <c r="I46" s="3">
-        <v>175800</v>
+        <v>181100</v>
       </c>
       <c r="J46" s="3">
-        <v>167400</v>
+        <v>172400</v>
       </c>
       <c r="K46" s="3">
         <v>236000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56000</v>
+        <v>57700</v>
       </c>
       <c r="E47" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="F47" s="3">
-        <v>20800</v>
+        <v>21400</v>
       </c>
       <c r="G47" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="H47" s="3">
-        <v>27200</v>
+        <v>28000</v>
       </c>
       <c r="I47" s="3">
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="J47" s="3">
-        <v>29000</v>
+        <v>29800</v>
       </c>
       <c r="K47" s="3">
         <v>127500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>256900</v>
+        <v>264700</v>
       </c>
       <c r="E48" s="3">
-        <v>173900</v>
+        <v>179200</v>
       </c>
       <c r="F48" s="3">
-        <v>178000</v>
+        <v>183300</v>
       </c>
       <c r="G48" s="3">
-        <v>200200</v>
+        <v>206200</v>
       </c>
       <c r="H48" s="3">
-        <v>217200</v>
+        <v>223700</v>
       </c>
       <c r="I48" s="3">
-        <v>107100</v>
+        <v>110300</v>
       </c>
       <c r="J48" s="3">
-        <v>110600</v>
+        <v>113900</v>
       </c>
       <c r="K48" s="3">
         <v>230300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2414700</v>
+        <v>2487500</v>
       </c>
       <c r="E49" s="3">
-        <v>2941800</v>
+        <v>3030500</v>
       </c>
       <c r="F49" s="3">
-        <v>3065100</v>
+        <v>3157400</v>
       </c>
       <c r="G49" s="3">
-        <v>3943400</v>
+        <v>4062300</v>
       </c>
       <c r="H49" s="3">
-        <v>3998700</v>
+        <v>4119200</v>
       </c>
       <c r="I49" s="3">
-        <v>1658900</v>
+        <v>1708900</v>
       </c>
       <c r="J49" s="3">
-        <v>1790400</v>
+        <v>1844300</v>
       </c>
       <c r="K49" s="3">
         <v>1423700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51600</v>
+        <v>53200</v>
       </c>
       <c r="E52" s="3">
-        <v>85600</v>
+        <v>88100</v>
       </c>
       <c r="F52" s="3">
-        <v>104400</v>
+        <v>107500</v>
       </c>
       <c r="G52" s="3">
-        <v>100900</v>
+        <v>104000</v>
       </c>
       <c r="H52" s="3">
-        <v>85900</v>
+        <v>88500</v>
       </c>
       <c r="I52" s="3">
-        <v>52000</v>
+        <v>53600</v>
       </c>
       <c r="J52" s="3">
-        <v>46400</v>
+        <v>47800</v>
       </c>
       <c r="K52" s="3">
         <v>42600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3056900</v>
+        <v>3149000</v>
       </c>
       <c r="E54" s="3">
-        <v>3596800</v>
+        <v>3705200</v>
       </c>
       <c r="F54" s="3">
-        <v>3759000</v>
+        <v>3872300</v>
       </c>
       <c r="G54" s="3">
-        <v>4671100</v>
+        <v>4811900</v>
       </c>
       <c r="H54" s="3">
-        <v>4690800</v>
+        <v>4832200</v>
       </c>
       <c r="I54" s="3">
-        <v>2026300</v>
+        <v>2087300</v>
       </c>
       <c r="J54" s="3">
-        <v>2143600</v>
+        <v>2208200</v>
       </c>
       <c r="K54" s="3">
         <v>1649400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>283700</v>
+        <v>292300</v>
       </c>
       <c r="E57" s="3">
-        <v>291800</v>
+        <v>300600</v>
       </c>
       <c r="F57" s="3">
-        <v>285400</v>
+        <v>294000</v>
       </c>
       <c r="G57" s="3">
-        <v>320000</v>
+        <v>329600</v>
       </c>
       <c r="H57" s="3">
-        <v>302800</v>
+        <v>311900</v>
       </c>
       <c r="I57" s="3">
-        <v>162400</v>
+        <v>167300</v>
       </c>
       <c r="J57" s="3">
-        <v>131200</v>
+        <v>135100</v>
       </c>
       <c r="K57" s="3">
         <v>187100</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69700</v>
+        <v>71800</v>
       </c>
       <c r="E58" s="3">
-        <v>59900</v>
+        <v>61700</v>
       </c>
       <c r="F58" s="3">
-        <v>84300</v>
+        <v>86900</v>
       </c>
       <c r="G58" s="3">
-        <v>132800</v>
+        <v>136800</v>
       </c>
       <c r="H58" s="3">
-        <v>88500</v>
+        <v>91200</v>
       </c>
       <c r="I58" s="3">
-        <v>115500</v>
+        <v>119000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69400</v>
+        <v>71500</v>
       </c>
       <c r="E59" s="3">
-        <v>45600</v>
+        <v>47000</v>
       </c>
       <c r="F59" s="3">
-        <v>33100</v>
+        <v>34100</v>
       </c>
       <c r="G59" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="H59" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="I59" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="J59" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K59" s="3">
         <v>18900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>422900</v>
+        <v>435600</v>
       </c>
       <c r="E60" s="3">
-        <v>397300</v>
+        <v>409300</v>
       </c>
       <c r="F60" s="3">
-        <v>402900</v>
+        <v>415000</v>
       </c>
       <c r="G60" s="3">
-        <v>464900</v>
+        <v>478900</v>
       </c>
       <c r="H60" s="3">
-        <v>409300</v>
+        <v>421700</v>
       </c>
       <c r="I60" s="3">
-        <v>284800</v>
+        <v>293300</v>
       </c>
       <c r="J60" s="3">
-        <v>135300</v>
+        <v>139400</v>
       </c>
       <c r="K60" s="3">
         <v>128200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1204100</v>
+        <v>1240300</v>
       </c>
       <c r="E61" s="3">
-        <v>1274400</v>
+        <v>1312800</v>
       </c>
       <c r="F61" s="3">
-        <v>1447200</v>
+        <v>1490800</v>
       </c>
       <c r="G61" s="3">
-        <v>1477300</v>
+        <v>1521900</v>
       </c>
       <c r="H61" s="3">
-        <v>1602000</v>
+        <v>1650300</v>
       </c>
       <c r="I61" s="3">
-        <v>501200</v>
+        <v>516300</v>
       </c>
       <c r="J61" s="3">
-        <v>673000</v>
+        <v>693300</v>
       </c>
       <c r="K61" s="3">
         <v>410200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>622800</v>
+        <v>641600</v>
       </c>
       <c r="E62" s="3">
-        <v>583900</v>
+        <v>601500</v>
       </c>
       <c r="F62" s="3">
-        <v>618100</v>
+        <v>636800</v>
       </c>
       <c r="G62" s="3">
-        <v>727700</v>
+        <v>749600</v>
       </c>
       <c r="H62" s="3">
-        <v>773100</v>
+        <v>796400</v>
       </c>
       <c r="I62" s="3">
-        <v>301200</v>
+        <v>310300</v>
       </c>
       <c r="J62" s="3">
-        <v>326800</v>
+        <v>336600</v>
       </c>
       <c r="K62" s="3">
         <v>259400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2364200</v>
+        <v>2435400</v>
       </c>
       <c r="E66" s="3">
-        <v>2367600</v>
+        <v>2439000</v>
       </c>
       <c r="F66" s="3">
-        <v>2587000</v>
+        <v>2665000</v>
       </c>
       <c r="G66" s="3">
-        <v>2792300</v>
+        <v>2876400</v>
       </c>
       <c r="H66" s="3">
-        <v>2906400</v>
+        <v>2994000</v>
       </c>
       <c r="I66" s="3">
-        <v>1100500</v>
+        <v>1133600</v>
       </c>
       <c r="J66" s="3">
-        <v>1148400</v>
+        <v>1183000</v>
       </c>
       <c r="K66" s="3">
         <v>734100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1097300</v>
+        <v>-1130400</v>
       </c>
       <c r="E72" s="3">
-        <v>-584100</v>
+        <v>-601700</v>
       </c>
       <c r="F72" s="3">
-        <v>-659500</v>
+        <v>-679400</v>
       </c>
       <c r="G72" s="3">
-        <v>88100</v>
+        <v>90800</v>
       </c>
       <c r="H72" s="3">
-        <v>109700</v>
+        <v>113000</v>
       </c>
       <c r="I72" s="3">
-        <v>147200</v>
+        <v>151600</v>
       </c>
       <c r="J72" s="3">
-        <v>241200</v>
+        <v>248500</v>
       </c>
       <c r="K72" s="3">
         <v>195200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>692700</v>
+        <v>713600</v>
       </c>
       <c r="E76" s="3">
-        <v>1229200</v>
+        <v>1266200</v>
       </c>
       <c r="F76" s="3">
-        <v>1172000</v>
+        <v>1207300</v>
       </c>
       <c r="G76" s="3">
-        <v>1878900</v>
+        <v>1935500</v>
       </c>
       <c r="H76" s="3">
-        <v>1784400</v>
+        <v>1838200</v>
       </c>
       <c r="I76" s="3">
-        <v>925800</v>
+        <v>953700</v>
       </c>
       <c r="J76" s="3">
-        <v>995300</v>
+        <v>1025300</v>
       </c>
       <c r="K76" s="3">
         <v>915300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-481400</v>
+        <v>-495900</v>
       </c>
       <c r="E81" s="3">
-        <v>120200</v>
+        <v>123800</v>
       </c>
       <c r="F81" s="3">
-        <v>-603900</v>
+        <v>-622100</v>
       </c>
       <c r="G81" s="3">
-        <v>147500</v>
+        <v>152000</v>
       </c>
       <c r="H81" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="I81" s="3">
-        <v>-19400</v>
+        <v>-19900</v>
       </c>
       <c r="J81" s="3">
-        <v>115800</v>
+        <v>119300</v>
       </c>
       <c r="K81" s="3">
         <v>121700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>519200</v>
+        <v>534800</v>
       </c>
       <c r="E83" s="3">
-        <v>550300</v>
+        <v>566900</v>
       </c>
       <c r="F83" s="3">
-        <v>472900</v>
+        <v>487200</v>
       </c>
       <c r="G83" s="3">
-        <v>482200</v>
+        <v>496800</v>
       </c>
       <c r="H83" s="3">
-        <v>315600</v>
+        <v>325100</v>
       </c>
       <c r="I83" s="3">
-        <v>204300</v>
+        <v>210400</v>
       </c>
       <c r="J83" s="3">
-        <v>193600</v>
+        <v>199500</v>
       </c>
       <c r="K83" s="3">
         <v>313300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>241200</v>
+        <v>248400</v>
       </c>
       <c r="E89" s="3">
-        <v>264500</v>
+        <v>272400</v>
       </c>
       <c r="F89" s="3">
-        <v>285500</v>
+        <v>294100</v>
       </c>
       <c r="G89" s="3">
-        <v>229500</v>
+        <v>236400</v>
       </c>
       <c r="H89" s="3">
-        <v>154100</v>
+        <v>158800</v>
       </c>
       <c r="I89" s="3">
-        <v>161900</v>
+        <v>166800</v>
       </c>
       <c r="J89" s="3">
-        <v>149700</v>
+        <v>154200</v>
       </c>
       <c r="K89" s="3">
         <v>119300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="E91" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="F91" s="3">
-        <v>-12400</v>
+        <v>-12800</v>
       </c>
       <c r="G91" s="3">
-        <v>-20800</v>
+        <v>-21400</v>
       </c>
       <c r="H91" s="3">
-        <v>-17400</v>
+        <v>-17900</v>
       </c>
       <c r="I91" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="J91" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="K91" s="3">
         <v>-9900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14600</v>
+        <v>-15100</v>
       </c>
       <c r="E94" s="3">
-        <v>-23300</v>
+        <v>-24000</v>
       </c>
       <c r="F94" s="3">
-        <v>-19700</v>
+        <v>-20300</v>
       </c>
       <c r="G94" s="3">
-        <v>-16100</v>
+        <v>-16600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1276700</v>
+        <v>-1315200</v>
       </c>
       <c r="I94" s="3">
-        <v>-22300</v>
+        <v>-22900</v>
       </c>
       <c r="J94" s="3">
-        <v>-405100</v>
+        <v>-417300</v>
       </c>
       <c r="K94" s="3">
         <v>-10400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38800</v>
+        <v>-40000</v>
       </c>
       <c r="E96" s="3">
-        <v>-29400</v>
+        <v>-30300</v>
       </c>
       <c r="F96" s="3">
-        <v>-153000</v>
+        <v>-157700</v>
       </c>
       <c r="G96" s="3">
-        <v>-81600</v>
+        <v>-84100</v>
       </c>
       <c r="H96" s="3">
-        <v>-69100</v>
+        <v>-71100</v>
       </c>
       <c r="I96" s="3">
-        <v>-58700</v>
+        <v>-60500</v>
       </c>
       <c r="J96" s="3">
-        <v>-50400</v>
+        <v>-51900</v>
       </c>
       <c r="K96" s="3">
         <v>-43200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-254800</v>
+        <v>-262400</v>
       </c>
       <c r="E100" s="3">
-        <v>-250600</v>
+        <v>-258200</v>
       </c>
       <c r="F100" s="3">
-        <v>-265000</v>
+        <v>-273000</v>
       </c>
       <c r="G100" s="3">
-        <v>-196200</v>
+        <v>-202100</v>
       </c>
       <c r="H100" s="3">
-        <v>1148700</v>
+        <v>1183300</v>
       </c>
       <c r="I100" s="3">
-        <v>-119800</v>
+        <v>-123400</v>
       </c>
       <c r="J100" s="3">
-        <v>201800</v>
+        <v>207800</v>
       </c>
       <c r="K100" s="3">
         <v>-61600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28200</v>
+        <v>-29100</v>
       </c>
       <c r="E102" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="F102" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G102" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="H102" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="I102" s="3">
-        <v>19900</v>
+        <v>20500</v>
       </c>
       <c r="J102" s="3">
-        <v>-53600</v>
+        <v>-55300</v>
       </c>
       <c r="K102" s="3">
         <v>47200</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1198400</v>
+        <v>1252900</v>
       </c>
       <c r="E8" s="3">
-        <v>1338200</v>
+        <v>1399000</v>
       </c>
       <c r="F8" s="3">
-        <v>1306400</v>
+        <v>1365700</v>
       </c>
       <c r="G8" s="3">
-        <v>1331500</v>
+        <v>1392000</v>
       </c>
       <c r="H8" s="3">
-        <v>928900</v>
+        <v>971100</v>
       </c>
       <c r="I8" s="3">
-        <v>646600</v>
+        <v>675900</v>
       </c>
       <c r="J8" s="3">
-        <v>660600</v>
+        <v>690600</v>
       </c>
       <c r="K8" s="3">
         <v>572000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>432500</v>
+        <v>452100</v>
       </c>
       <c r="E9" s="3">
-        <v>449900</v>
+        <v>470300</v>
       </c>
       <c r="F9" s="3">
-        <v>444000</v>
+        <v>464100</v>
       </c>
       <c r="G9" s="3">
-        <v>445900</v>
+        <v>466200</v>
       </c>
       <c r="H9" s="3">
-        <v>284300</v>
+        <v>297200</v>
       </c>
       <c r="I9" s="3">
-        <v>211000</v>
+        <v>220600</v>
       </c>
       <c r="J9" s="3">
-        <v>202300</v>
+        <v>211500</v>
       </c>
       <c r="K9" s="3">
         <v>175000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>765900</v>
+        <v>800700</v>
       </c>
       <c r="E10" s="3">
-        <v>888300</v>
+        <v>928700</v>
       </c>
       <c r="F10" s="3">
-        <v>862400</v>
+        <v>901600</v>
       </c>
       <c r="G10" s="3">
-        <v>885600</v>
+        <v>925800</v>
       </c>
       <c r="H10" s="3">
-        <v>644600</v>
+        <v>673900</v>
       </c>
       <c r="I10" s="3">
-        <v>435500</v>
+        <v>455300</v>
       </c>
       <c r="J10" s="3">
-        <v>458300</v>
+        <v>479200</v>
       </c>
       <c r="K10" s="3">
         <v>397000</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>611500</v>
+        <v>639300</v>
       </c>
       <c r="E14" s="3">
-        <v>24700</v>
+        <v>25800</v>
       </c>
       <c r="F14" s="3">
-        <v>817400</v>
+        <v>854600</v>
       </c>
       <c r="G14" s="3">
-        <v>29500</v>
+        <v>30900</v>
       </c>
       <c r="H14" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="I14" s="3">
-        <v>159300</v>
+        <v>166500</v>
       </c>
       <c r="J14" s="3">
         <v>800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>125700</v>
+        <v>131400</v>
       </c>
       <c r="E15" s="3">
-        <v>144600</v>
+        <v>151200</v>
       </c>
       <c r="F15" s="3">
-        <v>64900</v>
+        <v>67900</v>
       </c>
       <c r="G15" s="3">
-        <v>72800</v>
+        <v>76100</v>
       </c>
       <c r="H15" s="3">
-        <v>58700</v>
+        <v>61300</v>
       </c>
       <c r="I15" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="J15" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="K15" s="3">
         <v>20400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1647100</v>
+        <v>1721900</v>
       </c>
       <c r="E17" s="3">
-        <v>1138300</v>
+        <v>1190000</v>
       </c>
       <c r="F17" s="3">
-        <v>1837700</v>
+        <v>1921200</v>
       </c>
       <c r="G17" s="3">
-        <v>1088400</v>
+        <v>1137800</v>
       </c>
       <c r="H17" s="3">
-        <v>782100</v>
+        <v>817600</v>
       </c>
       <c r="I17" s="3">
-        <v>637400</v>
+        <v>666400</v>
       </c>
       <c r="J17" s="3">
-        <v>494400</v>
+        <v>516800</v>
       </c>
       <c r="K17" s="3">
         <v>419600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-448700</v>
+        <v>-469000</v>
       </c>
       <c r="E18" s="3">
-        <v>199900</v>
+        <v>209000</v>
       </c>
       <c r="F18" s="3">
-        <v>-531400</v>
+        <v>-555500</v>
       </c>
       <c r="G18" s="3">
-        <v>243100</v>
+        <v>254200</v>
       </c>
       <c r="H18" s="3">
-        <v>146800</v>
+        <v>153500</v>
       </c>
       <c r="I18" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J18" s="3">
-        <v>166200</v>
+        <v>173800</v>
       </c>
       <c r="K18" s="3">
         <v>152400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>87700</v>
+        <v>91200</v>
       </c>
       <c r="E21" s="3">
-        <v>768400</v>
+        <v>802800</v>
       </c>
       <c r="F21" s="3">
-        <v>-42800</v>
+        <v>-45200</v>
       </c>
       <c r="G21" s="3">
-        <v>741300</v>
+        <v>774500</v>
       </c>
       <c r="H21" s="3">
-        <v>472800</v>
+        <v>494000</v>
       </c>
       <c r="I21" s="3">
-        <v>220100</v>
+        <v>229900</v>
       </c>
       <c r="J21" s="3">
-        <v>366200</v>
+        <v>382700</v>
       </c>
       <c r="K21" s="3">
         <v>465000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-448700</v>
+        <v>-469000</v>
       </c>
       <c r="E23" s="3">
-        <v>199900</v>
+        <v>209000</v>
       </c>
       <c r="F23" s="3">
-        <v>-531400</v>
+        <v>-555500</v>
       </c>
       <c r="G23" s="3">
-        <v>243100</v>
+        <v>254200</v>
       </c>
       <c r="H23" s="3">
-        <v>146800</v>
+        <v>153500</v>
       </c>
       <c r="I23" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J23" s="3">
-        <v>166200</v>
+        <v>173800</v>
       </c>
       <c r="K23" s="3">
         <v>152400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33300</v>
+        <v>34800</v>
       </c>
       <c r="E24" s="3">
-        <v>56700</v>
+        <v>59200</v>
       </c>
       <c r="F24" s="3">
-        <v>69900</v>
+        <v>73100</v>
       </c>
       <c r="G24" s="3">
-        <v>65400</v>
+        <v>68400</v>
       </c>
       <c r="H24" s="3">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="I24" s="3">
-        <v>24600</v>
+        <v>25700</v>
       </c>
       <c r="J24" s="3">
-        <v>42400</v>
+        <v>44300</v>
       </c>
       <c r="K24" s="3">
         <v>26200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-481900</v>
+        <v>-503800</v>
       </c>
       <c r="E26" s="3">
-        <v>143300</v>
+        <v>149800</v>
       </c>
       <c r="F26" s="3">
-        <v>-601200</v>
+        <v>-628600</v>
       </c>
       <c r="G26" s="3">
-        <v>177700</v>
+        <v>185800</v>
       </c>
       <c r="H26" s="3">
-        <v>113800</v>
+        <v>119000</v>
       </c>
       <c r="I26" s="3">
-        <v>-15500</v>
+        <v>-16200</v>
       </c>
       <c r="J26" s="3">
-        <v>123800</v>
+        <v>129500</v>
       </c>
       <c r="K26" s="3">
         <v>126100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-495900</v>
+        <v>-518500</v>
       </c>
       <c r="E27" s="3">
-        <v>123800</v>
+        <v>129400</v>
       </c>
       <c r="F27" s="3">
-        <v>-622100</v>
+        <v>-650400</v>
       </c>
       <c r="G27" s="3">
-        <v>152000</v>
+        <v>158900</v>
       </c>
       <c r="H27" s="3">
-        <v>99900</v>
+        <v>104400</v>
       </c>
       <c r="I27" s="3">
-        <v>-19900</v>
+        <v>-20900</v>
       </c>
       <c r="J27" s="3">
-        <v>119300</v>
+        <v>124700</v>
       </c>
       <c r="K27" s="3">
         <v>121700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-495900</v>
+        <v>-518500</v>
       </c>
       <c r="E33" s="3">
-        <v>123800</v>
+        <v>129400</v>
       </c>
       <c r="F33" s="3">
-        <v>-622100</v>
+        <v>-650400</v>
       </c>
       <c r="G33" s="3">
-        <v>152000</v>
+        <v>158900</v>
       </c>
       <c r="H33" s="3">
-        <v>99900</v>
+        <v>104400</v>
       </c>
       <c r="I33" s="3">
-        <v>-19900</v>
+        <v>-20900</v>
       </c>
       <c r="J33" s="3">
-        <v>119300</v>
+        <v>124700</v>
       </c>
       <c r="K33" s="3">
         <v>121700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-495900</v>
+        <v>-518500</v>
       </c>
       <c r="E35" s="3">
-        <v>123800</v>
+        <v>129400</v>
       </c>
       <c r="F35" s="3">
-        <v>-622100</v>
+        <v>-650400</v>
       </c>
       <c r="G35" s="3">
-        <v>152000</v>
+        <v>158900</v>
       </c>
       <c r="H35" s="3">
-        <v>99900</v>
+        <v>104400</v>
       </c>
       <c r="I35" s="3">
-        <v>-19900</v>
+        <v>-20900</v>
       </c>
       <c r="J35" s="3">
-        <v>119300</v>
+        <v>124700</v>
       </c>
       <c r="K35" s="3">
         <v>121700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36400</v>
+        <v>38100</v>
       </c>
       <c r="E41" s="3">
-        <v>65500</v>
+        <v>68500</v>
       </c>
       <c r="F41" s="3">
-        <v>75200</v>
+        <v>78600</v>
       </c>
       <c r="G41" s="3">
-        <v>74300</v>
+        <v>77700</v>
       </c>
       <c r="H41" s="3">
-        <v>56600</v>
+        <v>59200</v>
       </c>
       <c r="I41" s="3">
-        <v>29700</v>
+        <v>31000</v>
       </c>
       <c r="J41" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="K41" s="3">
         <v>61900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>236000</v>
+        <v>246700</v>
       </c>
       <c r="E43" s="3">
-        <v>306600</v>
+        <v>320500</v>
       </c>
       <c r="F43" s="3">
-        <v>310900</v>
+        <v>325000</v>
       </c>
       <c r="G43" s="3">
-        <v>325000</v>
+        <v>339800</v>
       </c>
       <c r="H43" s="3">
-        <v>301200</v>
+        <v>314900</v>
       </c>
       <c r="I43" s="3">
-        <v>140400</v>
+        <v>146800</v>
       </c>
       <c r="J43" s="3">
-        <v>152900</v>
+        <v>159800</v>
       </c>
       <c r="K43" s="3">
         <v>296000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="F45" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="G45" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="H45" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="I45" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="J45" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="K45" s="3">
         <v>12500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>286000</v>
+        <v>299000</v>
       </c>
       <c r="E46" s="3">
-        <v>387600</v>
+        <v>405200</v>
       </c>
       <c r="F46" s="3">
-        <v>402500</v>
+        <v>420800</v>
       </c>
       <c r="G46" s="3">
-        <v>416700</v>
+        <v>435600</v>
       </c>
       <c r="H46" s="3">
-        <v>372800</v>
+        <v>389700</v>
       </c>
       <c r="I46" s="3">
-        <v>181100</v>
+        <v>189300</v>
       </c>
       <c r="J46" s="3">
-        <v>172400</v>
+        <v>180200</v>
       </c>
       <c r="K46" s="3">
         <v>236000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57700</v>
+        <v>60300</v>
       </c>
       <c r="E47" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="F47" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="G47" s="3">
-        <v>22800</v>
+        <v>23800</v>
       </c>
       <c r="H47" s="3">
-        <v>28000</v>
+        <v>29300</v>
       </c>
       <c r="I47" s="3">
-        <v>33400</v>
+        <v>34900</v>
       </c>
       <c r="J47" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="K47" s="3">
         <v>127500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>264700</v>
+        <v>276700</v>
       </c>
       <c r="E48" s="3">
-        <v>179200</v>
+        <v>187300</v>
       </c>
       <c r="F48" s="3">
-        <v>183300</v>
+        <v>191700</v>
       </c>
       <c r="G48" s="3">
-        <v>206200</v>
+        <v>215600</v>
       </c>
       <c r="H48" s="3">
-        <v>223700</v>
+        <v>233900</v>
       </c>
       <c r="I48" s="3">
-        <v>110300</v>
+        <v>115400</v>
       </c>
       <c r="J48" s="3">
-        <v>113900</v>
+        <v>119100</v>
       </c>
       <c r="K48" s="3">
         <v>230300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2487500</v>
+        <v>2600500</v>
       </c>
       <c r="E49" s="3">
-        <v>3030500</v>
+        <v>3168200</v>
       </c>
       <c r="F49" s="3">
-        <v>3157400</v>
+        <v>3300900</v>
       </c>
       <c r="G49" s="3">
-        <v>4062300</v>
+        <v>4246800</v>
       </c>
       <c r="H49" s="3">
-        <v>4119200</v>
+        <v>4306400</v>
       </c>
       <c r="I49" s="3">
-        <v>1708900</v>
+        <v>1786500</v>
       </c>
       <c r="J49" s="3">
-        <v>1844300</v>
+        <v>1928100</v>
       </c>
       <c r="K49" s="3">
         <v>1423700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53200</v>
+        <v>55600</v>
       </c>
       <c r="E52" s="3">
-        <v>88100</v>
+        <v>92200</v>
       </c>
       <c r="F52" s="3">
-        <v>107500</v>
+        <v>112400</v>
       </c>
       <c r="G52" s="3">
-        <v>104000</v>
+        <v>108700</v>
       </c>
       <c r="H52" s="3">
-        <v>88500</v>
+        <v>92500</v>
       </c>
       <c r="I52" s="3">
-        <v>53600</v>
+        <v>56000</v>
       </c>
       <c r="J52" s="3">
-        <v>47800</v>
+        <v>49900</v>
       </c>
       <c r="K52" s="3">
         <v>42600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3149000</v>
+        <v>3292100</v>
       </c>
       <c r="E54" s="3">
-        <v>3705200</v>
+        <v>3873600</v>
       </c>
       <c r="F54" s="3">
-        <v>3872300</v>
+        <v>4048200</v>
       </c>
       <c r="G54" s="3">
-        <v>4811900</v>
+        <v>5030500</v>
       </c>
       <c r="H54" s="3">
-        <v>4832200</v>
+        <v>5051700</v>
       </c>
       <c r="I54" s="3">
-        <v>2087300</v>
+        <v>2182100</v>
       </c>
       <c r="J54" s="3">
-        <v>2208200</v>
+        <v>2308600</v>
       </c>
       <c r="K54" s="3">
         <v>1649400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>292300</v>
+        <v>305600</v>
       </c>
       <c r="E57" s="3">
-        <v>300600</v>
+        <v>314300</v>
       </c>
       <c r="F57" s="3">
-        <v>294000</v>
+        <v>307400</v>
       </c>
       <c r="G57" s="3">
-        <v>329600</v>
+        <v>344600</v>
       </c>
       <c r="H57" s="3">
-        <v>311900</v>
+        <v>326100</v>
       </c>
       <c r="I57" s="3">
-        <v>167300</v>
+        <v>174900</v>
       </c>
       <c r="J57" s="3">
-        <v>135100</v>
+        <v>141300</v>
       </c>
       <c r="K57" s="3">
         <v>187100</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71800</v>
+        <v>75100</v>
       </c>
       <c r="E58" s="3">
-        <v>61700</v>
+        <v>64500</v>
       </c>
       <c r="F58" s="3">
-        <v>86900</v>
+        <v>90800</v>
       </c>
       <c r="G58" s="3">
-        <v>136800</v>
+        <v>143000</v>
       </c>
       <c r="H58" s="3">
-        <v>91200</v>
+        <v>95300</v>
       </c>
       <c r="I58" s="3">
-        <v>119000</v>
+        <v>124400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71500</v>
+        <v>74700</v>
       </c>
       <c r="E59" s="3">
-        <v>47000</v>
+        <v>49100</v>
       </c>
       <c r="F59" s="3">
-        <v>34100</v>
+        <v>35600</v>
       </c>
       <c r="G59" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="H59" s="3">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="I59" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="J59" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K59" s="3">
         <v>18900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>435600</v>
+        <v>455400</v>
       </c>
       <c r="E60" s="3">
-        <v>409300</v>
+        <v>427900</v>
       </c>
       <c r="F60" s="3">
-        <v>415000</v>
+        <v>433900</v>
       </c>
       <c r="G60" s="3">
-        <v>478900</v>
+        <v>500700</v>
       </c>
       <c r="H60" s="3">
-        <v>421700</v>
+        <v>440800</v>
       </c>
       <c r="I60" s="3">
-        <v>293300</v>
+        <v>306700</v>
       </c>
       <c r="J60" s="3">
-        <v>139400</v>
+        <v>145700</v>
       </c>
       <c r="K60" s="3">
         <v>128200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1240300</v>
+        <v>1296700</v>
       </c>
       <c r="E61" s="3">
-        <v>1312800</v>
+        <v>1372400</v>
       </c>
       <c r="F61" s="3">
-        <v>1490800</v>
+        <v>1558500</v>
       </c>
       <c r="G61" s="3">
-        <v>1521900</v>
+        <v>1591000</v>
       </c>
       <c r="H61" s="3">
-        <v>1650300</v>
+        <v>1725300</v>
       </c>
       <c r="I61" s="3">
-        <v>516300</v>
+        <v>539700</v>
       </c>
       <c r="J61" s="3">
-        <v>693300</v>
+        <v>724800</v>
       </c>
       <c r="K61" s="3">
         <v>410200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>641600</v>
+        <v>670700</v>
       </c>
       <c r="E62" s="3">
-        <v>601500</v>
+        <v>628800</v>
       </c>
       <c r="F62" s="3">
-        <v>636800</v>
+        <v>665700</v>
       </c>
       <c r="G62" s="3">
-        <v>749600</v>
+        <v>783700</v>
       </c>
       <c r="H62" s="3">
-        <v>796400</v>
+        <v>832600</v>
       </c>
       <c r="I62" s="3">
-        <v>310300</v>
+        <v>324400</v>
       </c>
       <c r="J62" s="3">
-        <v>336600</v>
+        <v>351900</v>
       </c>
       <c r="K62" s="3">
         <v>259400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2435400</v>
+        <v>2546100</v>
       </c>
       <c r="E66" s="3">
-        <v>2439000</v>
+        <v>2549800</v>
       </c>
       <c r="F66" s="3">
-        <v>2665000</v>
+        <v>2786100</v>
       </c>
       <c r="G66" s="3">
-        <v>2876400</v>
+        <v>3007100</v>
       </c>
       <c r="H66" s="3">
-        <v>2994000</v>
+        <v>3130100</v>
       </c>
       <c r="I66" s="3">
-        <v>1133600</v>
+        <v>1185200</v>
       </c>
       <c r="J66" s="3">
-        <v>1183000</v>
+        <v>1236700</v>
       </c>
       <c r="K66" s="3">
         <v>734100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1130400</v>
+        <v>-1181800</v>
       </c>
       <c r="E72" s="3">
-        <v>-601700</v>
+        <v>-629000</v>
       </c>
       <c r="F72" s="3">
-        <v>-679400</v>
+        <v>-710200</v>
       </c>
       <c r="G72" s="3">
-        <v>90800</v>
+        <v>94900</v>
       </c>
       <c r="H72" s="3">
-        <v>113000</v>
+        <v>118100</v>
       </c>
       <c r="I72" s="3">
-        <v>151600</v>
+        <v>158500</v>
       </c>
       <c r="J72" s="3">
-        <v>248500</v>
+        <v>259800</v>
       </c>
       <c r="K72" s="3">
         <v>195200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>713600</v>
+        <v>746000</v>
       </c>
       <c r="E76" s="3">
-        <v>1266200</v>
+        <v>1323800</v>
       </c>
       <c r="F76" s="3">
-        <v>1207300</v>
+        <v>1262100</v>
       </c>
       <c r="G76" s="3">
-        <v>1935500</v>
+        <v>2023500</v>
       </c>
       <c r="H76" s="3">
-        <v>1838200</v>
+        <v>1921700</v>
       </c>
       <c r="I76" s="3">
-        <v>953700</v>
+        <v>997000</v>
       </c>
       <c r="J76" s="3">
-        <v>1025300</v>
+        <v>1071800</v>
       </c>
       <c r="K76" s="3">
         <v>915300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-495900</v>
+        <v>-518500</v>
       </c>
       <c r="E81" s="3">
-        <v>123800</v>
+        <v>129400</v>
       </c>
       <c r="F81" s="3">
-        <v>-622100</v>
+        <v>-650400</v>
       </c>
       <c r="G81" s="3">
-        <v>152000</v>
+        <v>158900</v>
       </c>
       <c r="H81" s="3">
-        <v>99900</v>
+        <v>104400</v>
       </c>
       <c r="I81" s="3">
-        <v>-19900</v>
+        <v>-20900</v>
       </c>
       <c r="J81" s="3">
-        <v>119300</v>
+        <v>124700</v>
       </c>
       <c r="K81" s="3">
         <v>121700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>534800</v>
+        <v>559100</v>
       </c>
       <c r="E83" s="3">
-        <v>566900</v>
+        <v>592600</v>
       </c>
       <c r="F83" s="3">
-        <v>487200</v>
+        <v>509300</v>
       </c>
       <c r="G83" s="3">
-        <v>496800</v>
+        <v>519300</v>
       </c>
       <c r="H83" s="3">
-        <v>325100</v>
+        <v>339900</v>
       </c>
       <c r="I83" s="3">
-        <v>210400</v>
+        <v>220000</v>
       </c>
       <c r="J83" s="3">
-        <v>199500</v>
+        <v>208500</v>
       </c>
       <c r="K83" s="3">
         <v>313300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>248400</v>
+        <v>259700</v>
       </c>
       <c r="E89" s="3">
-        <v>272400</v>
+        <v>284800</v>
       </c>
       <c r="F89" s="3">
-        <v>294100</v>
+        <v>307500</v>
       </c>
       <c r="G89" s="3">
-        <v>236400</v>
+        <v>247200</v>
       </c>
       <c r="H89" s="3">
-        <v>158800</v>
+        <v>166000</v>
       </c>
       <c r="I89" s="3">
-        <v>166800</v>
+        <v>174400</v>
       </c>
       <c r="J89" s="3">
-        <v>154200</v>
+        <v>161200</v>
       </c>
       <c r="K89" s="3">
         <v>119300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12200</v>
+        <v>-12800</v>
       </c>
       <c r="E91" s="3">
-        <v>-23800</v>
+        <v>-24900</v>
       </c>
       <c r="F91" s="3">
-        <v>-12800</v>
+        <v>-13400</v>
       </c>
       <c r="G91" s="3">
-        <v>-21400</v>
+        <v>-22400</v>
       </c>
       <c r="H91" s="3">
-        <v>-17900</v>
+        <v>-18700</v>
       </c>
       <c r="I91" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="J91" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="K91" s="3">
         <v>-9900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15100</v>
+        <v>-15800</v>
       </c>
       <c r="E94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1374900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-24000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1315200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-22900</v>
-      </c>
       <c r="J94" s="3">
-        <v>-417300</v>
+        <v>-436300</v>
       </c>
       <c r="K94" s="3">
         <v>-10400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40000</v>
+        <v>-41800</v>
       </c>
       <c r="E96" s="3">
-        <v>-30300</v>
+        <v>-31600</v>
       </c>
       <c r="F96" s="3">
-        <v>-157700</v>
+        <v>-164800</v>
       </c>
       <c r="G96" s="3">
-        <v>-84100</v>
+        <v>-87900</v>
       </c>
       <c r="H96" s="3">
-        <v>-71100</v>
+        <v>-74400</v>
       </c>
       <c r="I96" s="3">
-        <v>-60500</v>
+        <v>-63200</v>
       </c>
       <c r="J96" s="3">
-        <v>-51900</v>
+        <v>-54300</v>
       </c>
       <c r="K96" s="3">
         <v>-43200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-262400</v>
+        <v>-274400</v>
       </c>
       <c r="E100" s="3">
-        <v>-258200</v>
+        <v>-269900</v>
       </c>
       <c r="F100" s="3">
-        <v>-273000</v>
+        <v>-285400</v>
       </c>
       <c r="G100" s="3">
-        <v>-202100</v>
+        <v>-211300</v>
       </c>
       <c r="H100" s="3">
-        <v>1183300</v>
+        <v>1237100</v>
       </c>
       <c r="I100" s="3">
-        <v>-123400</v>
+        <v>-129000</v>
       </c>
       <c r="J100" s="3">
-        <v>207800</v>
+        <v>217300</v>
       </c>
       <c r="K100" s="3">
         <v>-61600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29100</v>
+        <v>-30400</v>
       </c>
       <c r="E102" s="3">
-        <v>-9700</v>
+        <v>-10100</v>
       </c>
       <c r="F102" s="3">
         <v>900</v>
       </c>
       <c r="G102" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="H102" s="3">
-        <v>26900</v>
+        <v>28100</v>
       </c>
       <c r="I102" s="3">
-        <v>20500</v>
+        <v>21400</v>
       </c>
       <c r="J102" s="3">
-        <v>-55300</v>
+        <v>-57800</v>
       </c>
       <c r="K102" s="3">
         <v>47200</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1252900</v>
+        <v>1178300</v>
       </c>
       <c r="E8" s="3">
-        <v>1399000</v>
+        <v>1315700</v>
       </c>
       <c r="F8" s="3">
-        <v>1365700</v>
+        <v>1284400</v>
       </c>
       <c r="G8" s="3">
-        <v>1392000</v>
+        <v>1309100</v>
       </c>
       <c r="H8" s="3">
-        <v>971100</v>
+        <v>913200</v>
       </c>
       <c r="I8" s="3">
-        <v>675900</v>
+        <v>635700</v>
       </c>
       <c r="J8" s="3">
-        <v>690600</v>
+        <v>649500</v>
       </c>
       <c r="K8" s="3">
         <v>572000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>452100</v>
+        <v>425200</v>
       </c>
       <c r="E9" s="3">
-        <v>470300</v>
+        <v>442300</v>
       </c>
       <c r="F9" s="3">
-        <v>464100</v>
+        <v>436500</v>
       </c>
       <c r="G9" s="3">
-        <v>466200</v>
+        <v>438400</v>
       </c>
       <c r="H9" s="3">
-        <v>297200</v>
+        <v>279500</v>
       </c>
       <c r="I9" s="3">
-        <v>220600</v>
+        <v>207500</v>
       </c>
       <c r="J9" s="3">
-        <v>211500</v>
+        <v>198900</v>
       </c>
       <c r="K9" s="3">
         <v>175000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800700</v>
+        <v>753100</v>
       </c>
       <c r="E10" s="3">
-        <v>928700</v>
+        <v>873400</v>
       </c>
       <c r="F10" s="3">
-        <v>901600</v>
+        <v>847900</v>
       </c>
       <c r="G10" s="3">
-        <v>925800</v>
+        <v>870700</v>
       </c>
       <c r="H10" s="3">
-        <v>673900</v>
+        <v>633800</v>
       </c>
       <c r="I10" s="3">
-        <v>455300</v>
+        <v>428200</v>
       </c>
       <c r="J10" s="3">
-        <v>479200</v>
+        <v>450600</v>
       </c>
       <c r="K10" s="3">
         <v>397000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>639300</v>
+        <v>601200</v>
       </c>
       <c r="E14" s="3">
-        <v>25800</v>
+        <v>24300</v>
       </c>
       <c r="F14" s="3">
-        <v>854600</v>
+        <v>803700</v>
       </c>
       <c r="G14" s="3">
-        <v>30900</v>
+        <v>29000</v>
       </c>
       <c r="H14" s="3">
-        <v>26100</v>
+        <v>24500</v>
       </c>
       <c r="I14" s="3">
-        <v>166500</v>
+        <v>156600</v>
       </c>
       <c r="J14" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K14" s="3">
         <v>34400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>131400</v>
+        <v>123600</v>
       </c>
       <c r="E15" s="3">
-        <v>151200</v>
+        <v>142200</v>
       </c>
       <c r="F15" s="3">
-        <v>67900</v>
+        <v>63800</v>
       </c>
       <c r="G15" s="3">
-        <v>76100</v>
+        <v>71500</v>
       </c>
       <c r="H15" s="3">
-        <v>61300</v>
+        <v>57700</v>
       </c>
       <c r="I15" s="3">
-        <v>19900</v>
+        <v>18800</v>
       </c>
       <c r="J15" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="K15" s="3">
         <v>20400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1721900</v>
+        <v>1619400</v>
       </c>
       <c r="E17" s="3">
-        <v>1190000</v>
+        <v>1119100</v>
       </c>
       <c r="F17" s="3">
-        <v>1921200</v>
+        <v>1806800</v>
       </c>
       <c r="G17" s="3">
-        <v>1137800</v>
+        <v>1070000</v>
       </c>
       <c r="H17" s="3">
-        <v>817600</v>
+        <v>768900</v>
       </c>
       <c r="I17" s="3">
-        <v>666400</v>
+        <v>626700</v>
       </c>
       <c r="J17" s="3">
-        <v>516800</v>
+        <v>486100</v>
       </c>
       <c r="K17" s="3">
         <v>419600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-469000</v>
+        <v>-441100</v>
       </c>
       <c r="E18" s="3">
-        <v>209000</v>
+        <v>196600</v>
       </c>
       <c r="F18" s="3">
-        <v>-555500</v>
+        <v>-522400</v>
       </c>
       <c r="G18" s="3">
-        <v>254200</v>
+        <v>239000</v>
       </c>
       <c r="H18" s="3">
-        <v>153500</v>
+        <v>144300</v>
       </c>
       <c r="I18" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J18" s="3">
-        <v>173800</v>
+        <v>163400</v>
       </c>
       <c r="K18" s="3">
         <v>152400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91200</v>
+        <v>91800</v>
       </c>
       <c r="E21" s="3">
-        <v>802800</v>
+        <v>761400</v>
       </c>
       <c r="F21" s="3">
-        <v>-45200</v>
+        <v>-36900</v>
       </c>
       <c r="G21" s="3">
-        <v>774500</v>
+        <v>734000</v>
       </c>
       <c r="H21" s="3">
-        <v>494000</v>
+        <v>468300</v>
       </c>
       <c r="I21" s="3">
-        <v>229900</v>
+        <v>218700</v>
       </c>
       <c r="J21" s="3">
-        <v>382700</v>
+        <v>362200</v>
       </c>
       <c r="K21" s="3">
         <v>465000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-469000</v>
+        <v>-441100</v>
       </c>
       <c r="E23" s="3">
-        <v>209000</v>
+        <v>196600</v>
       </c>
       <c r="F23" s="3">
-        <v>-555500</v>
+        <v>-522400</v>
       </c>
       <c r="G23" s="3">
-        <v>254200</v>
+        <v>239000</v>
       </c>
       <c r="H23" s="3">
-        <v>153500</v>
+        <v>144300</v>
       </c>
       <c r="I23" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J23" s="3">
-        <v>173800</v>
+        <v>163400</v>
       </c>
       <c r="K23" s="3">
         <v>152400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34800</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="3">
-        <v>59200</v>
+        <v>55700</v>
       </c>
       <c r="F24" s="3">
-        <v>73100</v>
+        <v>68700</v>
       </c>
       <c r="G24" s="3">
-        <v>68400</v>
+        <v>64300</v>
       </c>
       <c r="H24" s="3">
-        <v>34500</v>
+        <v>32400</v>
       </c>
       <c r="I24" s="3">
-        <v>25700</v>
+        <v>24200</v>
       </c>
       <c r="J24" s="3">
-        <v>44300</v>
+        <v>41700</v>
       </c>
       <c r="K24" s="3">
         <v>26200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-503800</v>
+        <v>-473800</v>
       </c>
       <c r="E26" s="3">
-        <v>149800</v>
+        <v>140900</v>
       </c>
       <c r="F26" s="3">
-        <v>-628600</v>
+        <v>-591100</v>
       </c>
       <c r="G26" s="3">
-        <v>185800</v>
+        <v>174700</v>
       </c>
       <c r="H26" s="3">
-        <v>119000</v>
+        <v>111900</v>
       </c>
       <c r="I26" s="3">
-        <v>-16200</v>
+        <v>-15200</v>
       </c>
       <c r="J26" s="3">
-        <v>129500</v>
+        <v>121800</v>
       </c>
       <c r="K26" s="3">
         <v>126100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-518500</v>
+        <v>-487600</v>
       </c>
       <c r="E27" s="3">
-        <v>129400</v>
+        <v>121700</v>
       </c>
       <c r="F27" s="3">
-        <v>-650400</v>
+        <v>-611700</v>
       </c>
       <c r="G27" s="3">
-        <v>158900</v>
+        <v>149400</v>
       </c>
       <c r="H27" s="3">
-        <v>104400</v>
+        <v>98200</v>
       </c>
       <c r="I27" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="J27" s="3">
-        <v>124700</v>
+        <v>117300</v>
       </c>
       <c r="K27" s="3">
         <v>121700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-518500</v>
+        <v>-487600</v>
       </c>
       <c r="E33" s="3">
-        <v>129400</v>
+        <v>121700</v>
       </c>
       <c r="F33" s="3">
-        <v>-650400</v>
+        <v>-611700</v>
       </c>
       <c r="G33" s="3">
-        <v>158900</v>
+        <v>149400</v>
       </c>
       <c r="H33" s="3">
-        <v>104400</v>
+        <v>98200</v>
       </c>
       <c r="I33" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="J33" s="3">
-        <v>124700</v>
+        <v>117300</v>
       </c>
       <c r="K33" s="3">
         <v>121700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-518500</v>
+        <v>-487600</v>
       </c>
       <c r="E35" s="3">
-        <v>129400</v>
+        <v>121700</v>
       </c>
       <c r="F35" s="3">
-        <v>-650400</v>
+        <v>-611700</v>
       </c>
       <c r="G35" s="3">
-        <v>158900</v>
+        <v>149400</v>
       </c>
       <c r="H35" s="3">
-        <v>104400</v>
+        <v>98200</v>
       </c>
       <c r="I35" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="J35" s="3">
-        <v>124700</v>
+        <v>117300</v>
       </c>
       <c r="K35" s="3">
         <v>121700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38100</v>
+        <v>35800</v>
       </c>
       <c r="E41" s="3">
-        <v>68500</v>
+        <v>64400</v>
       </c>
       <c r="F41" s="3">
-        <v>78600</v>
+        <v>73900</v>
       </c>
       <c r="G41" s="3">
-        <v>77700</v>
+        <v>73100</v>
       </c>
       <c r="H41" s="3">
-        <v>59200</v>
+        <v>55600</v>
       </c>
       <c r="I41" s="3">
-        <v>31000</v>
+        <v>29200</v>
       </c>
       <c r="J41" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="K41" s="3">
         <v>61900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>246700</v>
+        <v>232000</v>
       </c>
       <c r="E43" s="3">
-        <v>320500</v>
+        <v>301400</v>
       </c>
       <c r="F43" s="3">
-        <v>325000</v>
+        <v>305700</v>
       </c>
       <c r="G43" s="3">
-        <v>339800</v>
+        <v>319500</v>
       </c>
       <c r="H43" s="3">
-        <v>314900</v>
+        <v>296200</v>
       </c>
       <c r="I43" s="3">
-        <v>146800</v>
+        <v>138000</v>
       </c>
       <c r="J43" s="3">
-        <v>159800</v>
+        <v>150300</v>
       </c>
       <c r="K43" s="3">
         <v>296000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="E45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F45" s="3">
         <v>16200</v>
       </c>
-      <c r="F45" s="3">
-        <v>17200</v>
-      </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>17100</v>
       </c>
       <c r="H45" s="3">
-        <v>15600</v>
+        <v>14700</v>
       </c>
       <c r="I45" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="J45" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="K45" s="3">
         <v>12500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>299000</v>
+        <v>281100</v>
       </c>
       <c r="E46" s="3">
-        <v>405200</v>
+        <v>381000</v>
       </c>
       <c r="F46" s="3">
-        <v>420800</v>
+        <v>395700</v>
       </c>
       <c r="G46" s="3">
-        <v>435600</v>
+        <v>409600</v>
       </c>
       <c r="H46" s="3">
-        <v>389700</v>
+        <v>366500</v>
       </c>
       <c r="I46" s="3">
-        <v>189300</v>
+        <v>178000</v>
       </c>
       <c r="J46" s="3">
-        <v>180200</v>
+        <v>169500</v>
       </c>
       <c r="K46" s="3">
         <v>236000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="E47" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="F47" s="3">
+        <v>21100</v>
+      </c>
+      <c r="G47" s="3">
         <v>22400</v>
       </c>
-      <c r="G47" s="3">
-        <v>23800</v>
-      </c>
       <c r="H47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J47" s="3">
         <v>29300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>34900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>31200</v>
       </c>
       <c r="K47" s="3">
         <v>127500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>276700</v>
+        <v>260200</v>
       </c>
       <c r="E48" s="3">
-        <v>187300</v>
+        <v>176100</v>
       </c>
       <c r="F48" s="3">
-        <v>191700</v>
+        <v>180300</v>
       </c>
       <c r="G48" s="3">
-        <v>215600</v>
+        <v>202800</v>
       </c>
       <c r="H48" s="3">
-        <v>233900</v>
+        <v>219900</v>
       </c>
       <c r="I48" s="3">
-        <v>115400</v>
+        <v>108500</v>
       </c>
       <c r="J48" s="3">
-        <v>119100</v>
+        <v>112000</v>
       </c>
       <c r="K48" s="3">
         <v>230300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600500</v>
+        <v>2445600</v>
       </c>
       <c r="E49" s="3">
-        <v>3168200</v>
+        <v>2979500</v>
       </c>
       <c r="F49" s="3">
-        <v>3300900</v>
+        <v>3104300</v>
       </c>
       <c r="G49" s="3">
-        <v>4246800</v>
+        <v>3993900</v>
       </c>
       <c r="H49" s="3">
-        <v>4306400</v>
+        <v>4049900</v>
       </c>
       <c r="I49" s="3">
-        <v>1786500</v>
+        <v>1680100</v>
       </c>
       <c r="J49" s="3">
-        <v>1928100</v>
+        <v>1813300</v>
       </c>
       <c r="K49" s="3">
         <v>1423700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55600</v>
+        <v>52300</v>
       </c>
       <c r="E52" s="3">
-        <v>92200</v>
+        <v>86700</v>
       </c>
       <c r="F52" s="3">
-        <v>112400</v>
+        <v>105700</v>
       </c>
       <c r="G52" s="3">
-        <v>108700</v>
+        <v>102200</v>
       </c>
       <c r="H52" s="3">
-        <v>92500</v>
+        <v>87000</v>
       </c>
       <c r="I52" s="3">
-        <v>56000</v>
+        <v>52700</v>
       </c>
       <c r="J52" s="3">
-        <v>49900</v>
+        <v>47000</v>
       </c>
       <c r="K52" s="3">
         <v>42600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3292100</v>
+        <v>3096000</v>
       </c>
       <c r="E54" s="3">
-        <v>3873600</v>
+        <v>3642900</v>
       </c>
       <c r="F54" s="3">
-        <v>4048200</v>
+        <v>3807100</v>
       </c>
       <c r="G54" s="3">
-        <v>5030500</v>
+        <v>4730900</v>
       </c>
       <c r="H54" s="3">
-        <v>5051700</v>
+        <v>4750800</v>
       </c>
       <c r="I54" s="3">
-        <v>2182100</v>
+        <v>2052200</v>
       </c>
       <c r="J54" s="3">
-        <v>2308600</v>
+        <v>2171100</v>
       </c>
       <c r="K54" s="3">
         <v>1649400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>305600</v>
+        <v>287400</v>
       </c>
       <c r="E57" s="3">
-        <v>314300</v>
+        <v>295600</v>
       </c>
       <c r="F57" s="3">
-        <v>307400</v>
+        <v>289100</v>
       </c>
       <c r="G57" s="3">
-        <v>344600</v>
+        <v>324100</v>
       </c>
       <c r="H57" s="3">
-        <v>326100</v>
+        <v>306700</v>
       </c>
       <c r="I57" s="3">
-        <v>174900</v>
+        <v>164500</v>
       </c>
       <c r="J57" s="3">
-        <v>141300</v>
+        <v>132900</v>
       </c>
       <c r="K57" s="3">
         <v>187100</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>75100</v>
+        <v>70600</v>
       </c>
       <c r="E58" s="3">
-        <v>64500</v>
+        <v>60600</v>
       </c>
       <c r="F58" s="3">
-        <v>90800</v>
+        <v>85400</v>
       </c>
       <c r="G58" s="3">
-        <v>143000</v>
+        <v>134500</v>
       </c>
       <c r="H58" s="3">
-        <v>95300</v>
+        <v>89700</v>
       </c>
       <c r="I58" s="3">
-        <v>124400</v>
+        <v>117000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74700</v>
+        <v>70300</v>
       </c>
       <c r="E59" s="3">
-        <v>49100</v>
+        <v>46200</v>
       </c>
       <c r="F59" s="3">
-        <v>35600</v>
+        <v>33500</v>
       </c>
       <c r="G59" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="H59" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="I59" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="J59" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K59" s="3">
         <v>18900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>455400</v>
+        <v>428300</v>
       </c>
       <c r="E60" s="3">
-        <v>427900</v>
+        <v>402400</v>
       </c>
       <c r="F60" s="3">
-        <v>433900</v>
+        <v>408000</v>
       </c>
       <c r="G60" s="3">
-        <v>500700</v>
+        <v>470900</v>
       </c>
       <c r="H60" s="3">
-        <v>440800</v>
+        <v>414600</v>
       </c>
       <c r="I60" s="3">
-        <v>306700</v>
+        <v>288400</v>
       </c>
       <c r="J60" s="3">
-        <v>145700</v>
+        <v>137000</v>
       </c>
       <c r="K60" s="3">
         <v>128200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1296700</v>
+        <v>1219500</v>
       </c>
       <c r="E61" s="3">
-        <v>1372400</v>
+        <v>1290700</v>
       </c>
       <c r="F61" s="3">
-        <v>1558500</v>
+        <v>1465700</v>
       </c>
       <c r="G61" s="3">
-        <v>1591000</v>
+        <v>1496200</v>
       </c>
       <c r="H61" s="3">
-        <v>1725300</v>
+        <v>1622500</v>
       </c>
       <c r="I61" s="3">
-        <v>539700</v>
+        <v>507600</v>
       </c>
       <c r="J61" s="3">
-        <v>724800</v>
+        <v>681600</v>
       </c>
       <c r="K61" s="3">
         <v>410200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>670700</v>
+        <v>630800</v>
       </c>
       <c r="E62" s="3">
-        <v>628800</v>
+        <v>591400</v>
       </c>
       <c r="F62" s="3">
-        <v>665700</v>
+        <v>626100</v>
       </c>
       <c r="G62" s="3">
-        <v>783700</v>
+        <v>737000</v>
       </c>
       <c r="H62" s="3">
-        <v>832600</v>
+        <v>783000</v>
       </c>
       <c r="I62" s="3">
-        <v>324400</v>
+        <v>305100</v>
       </c>
       <c r="J62" s="3">
-        <v>351900</v>
+        <v>331000</v>
       </c>
       <c r="K62" s="3">
         <v>259400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2546100</v>
+        <v>2394400</v>
       </c>
       <c r="E66" s="3">
-        <v>2549800</v>
+        <v>2397900</v>
       </c>
       <c r="F66" s="3">
-        <v>2786100</v>
+        <v>2620100</v>
       </c>
       <c r="G66" s="3">
-        <v>3007100</v>
+        <v>2828000</v>
       </c>
       <c r="H66" s="3">
-        <v>3130100</v>
+        <v>2943600</v>
       </c>
       <c r="I66" s="3">
-        <v>1185200</v>
+        <v>1114600</v>
       </c>
       <c r="J66" s="3">
-        <v>1236700</v>
+        <v>1163100</v>
       </c>
       <c r="K66" s="3">
         <v>734100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1181800</v>
+        <v>-1111400</v>
       </c>
       <c r="E72" s="3">
-        <v>-629000</v>
+        <v>-591600</v>
       </c>
       <c r="F72" s="3">
-        <v>-710200</v>
+        <v>-667900</v>
       </c>
       <c r="G72" s="3">
-        <v>94900</v>
+        <v>89300</v>
       </c>
       <c r="H72" s="3">
-        <v>118100</v>
+        <v>111100</v>
       </c>
       <c r="I72" s="3">
-        <v>158500</v>
+        <v>149100</v>
       </c>
       <c r="J72" s="3">
-        <v>259800</v>
+        <v>244300</v>
       </c>
       <c r="K72" s="3">
         <v>195200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>746000</v>
+        <v>701600</v>
       </c>
       <c r="E76" s="3">
-        <v>1323800</v>
+        <v>1244900</v>
       </c>
       <c r="F76" s="3">
-        <v>1262100</v>
+        <v>1187000</v>
       </c>
       <c r="G76" s="3">
-        <v>2023500</v>
+        <v>1902900</v>
       </c>
       <c r="H76" s="3">
-        <v>1921700</v>
+        <v>1807200</v>
       </c>
       <c r="I76" s="3">
-        <v>997000</v>
+        <v>937600</v>
       </c>
       <c r="J76" s="3">
-        <v>1071800</v>
+        <v>1008000</v>
       </c>
       <c r="K76" s="3">
         <v>915300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-518500</v>
+        <v>-487600</v>
       </c>
       <c r="E81" s="3">
-        <v>129400</v>
+        <v>121700</v>
       </c>
       <c r="F81" s="3">
-        <v>-650400</v>
+        <v>-611700</v>
       </c>
       <c r="G81" s="3">
-        <v>158900</v>
+        <v>149400</v>
       </c>
       <c r="H81" s="3">
-        <v>104400</v>
+        <v>98200</v>
       </c>
       <c r="I81" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="J81" s="3">
-        <v>124700</v>
+        <v>117300</v>
       </c>
       <c r="K81" s="3">
         <v>121700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>559100</v>
+        <v>525800</v>
       </c>
       <c r="E83" s="3">
-        <v>592600</v>
+        <v>557300</v>
       </c>
       <c r="F83" s="3">
-        <v>509300</v>
+        <v>479000</v>
       </c>
       <c r="G83" s="3">
-        <v>519300</v>
+        <v>488400</v>
       </c>
       <c r="H83" s="3">
-        <v>339900</v>
+        <v>319600</v>
       </c>
       <c r="I83" s="3">
-        <v>220000</v>
+        <v>206900</v>
       </c>
       <c r="J83" s="3">
-        <v>208500</v>
+        <v>196100</v>
       </c>
       <c r="K83" s="3">
         <v>313300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>259700</v>
+        <v>244200</v>
       </c>
       <c r="E89" s="3">
-        <v>284800</v>
+        <v>267900</v>
       </c>
       <c r="F89" s="3">
-        <v>307500</v>
+        <v>289200</v>
       </c>
       <c r="G89" s="3">
-        <v>247200</v>
+        <v>232400</v>
       </c>
       <c r="H89" s="3">
-        <v>166000</v>
+        <v>156100</v>
       </c>
       <c r="I89" s="3">
-        <v>174400</v>
+        <v>164000</v>
       </c>
       <c r="J89" s="3">
-        <v>161200</v>
+        <v>151600</v>
       </c>
       <c r="K89" s="3">
         <v>119300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12800</v>
+        <v>-12000</v>
       </c>
       <c r="E91" s="3">
-        <v>-24900</v>
+        <v>-23400</v>
       </c>
       <c r="F91" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="G91" s="3">
-        <v>-22400</v>
+        <v>-21000</v>
       </c>
       <c r="H91" s="3">
-        <v>-18700</v>
+        <v>-17600</v>
       </c>
       <c r="I91" s="3">
-        <v>-13800</v>
+        <v>-13000</v>
       </c>
       <c r="J91" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="K91" s="3">
         <v>-9900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15800</v>
+        <v>-14800</v>
       </c>
       <c r="E94" s="3">
-        <v>-25000</v>
+        <v>-23600</v>
       </c>
       <c r="F94" s="3">
-        <v>-21200</v>
+        <v>-19900</v>
       </c>
       <c r="G94" s="3">
-        <v>-17300</v>
+        <v>-16300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1374900</v>
+        <v>-1293000</v>
       </c>
       <c r="I94" s="3">
-        <v>-24000</v>
+        <v>-22500</v>
       </c>
       <c r="J94" s="3">
-        <v>-436300</v>
+        <v>-410300</v>
       </c>
       <c r="K94" s="3">
         <v>-10400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41800</v>
+        <v>-39300</v>
       </c>
       <c r="E96" s="3">
-        <v>-31600</v>
+        <v>-29700</v>
       </c>
       <c r="F96" s="3">
-        <v>-164800</v>
+        <v>-155000</v>
       </c>
       <c r="G96" s="3">
-        <v>-87900</v>
+        <v>-82700</v>
       </c>
       <c r="H96" s="3">
-        <v>-74400</v>
+        <v>-69900</v>
       </c>
       <c r="I96" s="3">
-        <v>-63200</v>
+        <v>-59400</v>
       </c>
       <c r="J96" s="3">
-        <v>-54300</v>
+        <v>-51000</v>
       </c>
       <c r="K96" s="3">
         <v>-43200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-274400</v>
+        <v>-258000</v>
       </c>
       <c r="E100" s="3">
-        <v>-269900</v>
+        <v>-253800</v>
       </c>
       <c r="F100" s="3">
-        <v>-285400</v>
+        <v>-268400</v>
       </c>
       <c r="G100" s="3">
-        <v>-211300</v>
+        <v>-198700</v>
       </c>
       <c r="H100" s="3">
-        <v>1237100</v>
+        <v>1163400</v>
       </c>
       <c r="I100" s="3">
-        <v>-129000</v>
+        <v>-121300</v>
       </c>
       <c r="J100" s="3">
-        <v>217300</v>
+        <v>204300</v>
       </c>
       <c r="K100" s="3">
         <v>-61600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30400</v>
+        <v>-28600</v>
       </c>
       <c r="E102" s="3">
-        <v>-10100</v>
+        <v>-9500</v>
       </c>
       <c r="F102" s="3">
         <v>900</v>
       </c>
       <c r="G102" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="H102" s="3">
-        <v>28100</v>
+        <v>26500</v>
       </c>
       <c r="I102" s="3">
-        <v>21400</v>
+        <v>20100</v>
       </c>
       <c r="J102" s="3">
-        <v>-57800</v>
+        <v>-54300</v>
       </c>
       <c r="K102" s="3">
         <v>47200</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CJREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43343</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42978</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42613</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42247</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41882</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41517</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41152</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40786</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1178300</v>
+        <v>1211700</v>
       </c>
       <c r="E8" s="3">
-        <v>1315700</v>
+        <v>1186400</v>
       </c>
       <c r="F8" s="3">
-        <v>1284400</v>
+        <v>1324800</v>
       </c>
       <c r="G8" s="3">
-        <v>1309100</v>
+        <v>1293200</v>
       </c>
       <c r="H8" s="3">
-        <v>913200</v>
+        <v>1318100</v>
       </c>
       <c r="I8" s="3">
-        <v>635700</v>
+        <v>919500</v>
       </c>
       <c r="J8" s="3">
+        <v>640100</v>
+      </c>
+      <c r="K8" s="3">
         <v>649500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>572000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>626800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>634000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>425200</v>
+        <v>424200</v>
       </c>
       <c r="E9" s="3">
-        <v>442300</v>
+        <v>428100</v>
       </c>
       <c r="F9" s="3">
-        <v>436500</v>
+        <v>445300</v>
       </c>
       <c r="G9" s="3">
-        <v>438400</v>
+        <v>439500</v>
       </c>
       <c r="H9" s="3">
-        <v>279500</v>
+        <v>441400</v>
       </c>
       <c r="I9" s="3">
-        <v>207500</v>
+        <v>281400</v>
       </c>
       <c r="J9" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K9" s="3">
         <v>198900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>175000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>197700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>191200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>753100</v>
+        <v>787500</v>
       </c>
       <c r="E10" s="3">
-        <v>873400</v>
+        <v>758300</v>
       </c>
       <c r="F10" s="3">
-        <v>847900</v>
+        <v>879400</v>
       </c>
       <c r="G10" s="3">
-        <v>870700</v>
+        <v>853700</v>
       </c>
       <c r="H10" s="3">
-        <v>633800</v>
+        <v>876700</v>
       </c>
       <c r="I10" s="3">
-        <v>428200</v>
+        <v>638100</v>
       </c>
       <c r="J10" s="3">
+        <v>431200</v>
+      </c>
+      <c r="K10" s="3">
         <v>450600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>397000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>429100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>442700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>601200</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>24300</v>
+        <v>605300</v>
       </c>
       <c r="F14" s="3">
-        <v>803700</v>
+        <v>24500</v>
       </c>
       <c r="G14" s="3">
-        <v>29000</v>
+        <v>809200</v>
       </c>
       <c r="H14" s="3">
-        <v>24500</v>
+        <v>29200</v>
       </c>
       <c r="I14" s="3">
-        <v>156600</v>
+        <v>24700</v>
       </c>
       <c r="J14" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>123600</v>
+        <v>119500</v>
       </c>
       <c r="E15" s="3">
-        <v>142200</v>
+        <v>124500</v>
       </c>
       <c r="F15" s="3">
-        <v>63800</v>
+        <v>143200</v>
       </c>
       <c r="G15" s="3">
-        <v>71500</v>
+        <v>64300</v>
       </c>
       <c r="H15" s="3">
-        <v>57700</v>
+        <v>72000</v>
       </c>
       <c r="I15" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K15" s="3">
         <v>18800</v>
       </c>
-      <c r="J15" s="3">
-        <v>18800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>19100</v>
       </c>
       <c r="M15" s="3">
         <v>19100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1619400</v>
+        <v>1005000</v>
       </c>
       <c r="E17" s="3">
-        <v>1119100</v>
+        <v>1630500</v>
       </c>
       <c r="F17" s="3">
-        <v>1806800</v>
+        <v>1126800</v>
       </c>
       <c r="G17" s="3">
-        <v>1070000</v>
+        <v>1819300</v>
       </c>
       <c r="H17" s="3">
-        <v>768900</v>
+        <v>1077400</v>
       </c>
       <c r="I17" s="3">
-        <v>626700</v>
+        <v>774200</v>
       </c>
       <c r="J17" s="3">
+        <v>631000</v>
+      </c>
+      <c r="K17" s="3">
         <v>486100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>419600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>468000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>477200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-441100</v>
+        <v>206700</v>
       </c>
       <c r="E18" s="3">
-        <v>196600</v>
+        <v>-444200</v>
       </c>
       <c r="F18" s="3">
-        <v>-522400</v>
+        <v>197900</v>
       </c>
       <c r="G18" s="3">
-        <v>239000</v>
+        <v>-526000</v>
       </c>
       <c r="H18" s="3">
-        <v>144300</v>
+        <v>240700</v>
       </c>
       <c r="I18" s="3">
+        <v>145300</v>
+      </c>
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>163400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>158800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>156800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,8 +1115,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,45 +1151,51 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91800</v>
+        <v>722000</v>
       </c>
       <c r="E21" s="3">
-        <v>761400</v>
+        <v>83300</v>
       </c>
       <c r="F21" s="3">
-        <v>-36900</v>
+        <v>757000</v>
       </c>
       <c r="G21" s="3">
-        <v>734000</v>
+        <v>-45500</v>
       </c>
       <c r="H21" s="3">
-        <v>468300</v>
+        <v>730600</v>
       </c>
       <c r="I21" s="3">
-        <v>218700</v>
+        <v>466000</v>
       </c>
       <c r="J21" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K21" s="3">
         <v>362200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>465000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>316900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>309900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-441100</v>
+        <v>206700</v>
       </c>
       <c r="E23" s="3">
-        <v>196600</v>
+        <v>-444200</v>
       </c>
       <c r="F23" s="3">
-        <v>-522400</v>
+        <v>197900</v>
       </c>
       <c r="G23" s="3">
-        <v>239000</v>
+        <v>-526000</v>
       </c>
       <c r="H23" s="3">
-        <v>144300</v>
+        <v>240700</v>
       </c>
       <c r="I23" s="3">
+        <v>145300</v>
+      </c>
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>163400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>152400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>158800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>156800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32700</v>
+        <v>54000</v>
       </c>
       <c r="E24" s="3">
-        <v>55700</v>
+        <v>32900</v>
       </c>
       <c r="F24" s="3">
-        <v>68700</v>
+        <v>56100</v>
       </c>
       <c r="G24" s="3">
-        <v>64300</v>
+        <v>69200</v>
       </c>
       <c r="H24" s="3">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="I24" s="3">
-        <v>24200</v>
+        <v>32600</v>
       </c>
       <c r="J24" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K24" s="3">
         <v>41700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-473800</v>
+        <v>152700</v>
       </c>
       <c r="E26" s="3">
-        <v>140900</v>
+        <v>-477100</v>
       </c>
       <c r="F26" s="3">
-        <v>-591100</v>
+        <v>141800</v>
       </c>
       <c r="G26" s="3">
-        <v>174700</v>
+        <v>-595200</v>
       </c>
       <c r="H26" s="3">
-        <v>111900</v>
+        <v>175900</v>
       </c>
       <c r="I26" s="3">
-        <v>-15200</v>
+        <v>112700</v>
       </c>
       <c r="J26" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K26" s="3">
         <v>121800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>126100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>114300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-487600</v>
+        <v>135500</v>
       </c>
       <c r="E27" s="3">
+        <v>-490900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-615900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>150500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>117300</v>
+      </c>
+      <c r="L27" s="3">
         <v>121700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-611700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>149400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>98200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>117300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>121700</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>108700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1440,11 +1500,14 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>3900</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,9 +1580,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1550,45 +1619,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-487600</v>
+        <v>135500</v>
       </c>
       <c r="E33" s="3">
+        <v>-490900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-615900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>150500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>117300</v>
+      </c>
+      <c r="L33" s="3">
         <v>121700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-611700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>149400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>98200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>117300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>121700</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>110600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-487600</v>
+        <v>135500</v>
       </c>
       <c r="E35" s="3">
+        <v>-490900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-615900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>150500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>117300</v>
+      </c>
+      <c r="L35" s="3">
         <v>121700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-611700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>149400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>98200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>117300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>121700</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>110600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43343</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42978</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42613</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42247</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41882</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41517</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41152</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40786</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35800</v>
+        <v>34300</v>
       </c>
       <c r="E41" s="3">
-        <v>64400</v>
+        <v>36000</v>
       </c>
       <c r="F41" s="3">
-        <v>73900</v>
+        <v>64800</v>
       </c>
       <c r="G41" s="3">
-        <v>73100</v>
+        <v>74400</v>
       </c>
       <c r="H41" s="3">
-        <v>55600</v>
+        <v>73600</v>
       </c>
       <c r="I41" s="3">
-        <v>29200</v>
+        <v>56000</v>
       </c>
       <c r="J41" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,45 +1892,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>232000</v>
+        <v>260000</v>
       </c>
       <c r="E43" s="3">
-        <v>301400</v>
+        <v>233600</v>
       </c>
       <c r="F43" s="3">
-        <v>305700</v>
+        <v>303500</v>
       </c>
       <c r="G43" s="3">
-        <v>319500</v>
+        <v>307800</v>
       </c>
       <c r="H43" s="3">
-        <v>296200</v>
+        <v>321700</v>
       </c>
       <c r="I43" s="3">
-        <v>138000</v>
+        <v>298200</v>
       </c>
       <c r="J43" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K43" s="3">
         <v>150300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>296000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>136200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>137600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,189 +1970,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13300</v>
+        <v>18900</v>
       </c>
       <c r="E45" s="3">
-        <v>15200</v>
+        <v>13400</v>
       </c>
       <c r="F45" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="G45" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="H45" s="3">
-        <v>14700</v>
+        <v>17200</v>
       </c>
       <c r="I45" s="3">
-        <v>10800</v>
+        <v>14800</v>
       </c>
       <c r="J45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K45" s="3">
         <v>10200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>139600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>281100</v>
+        <v>313200</v>
       </c>
       <c r="E46" s="3">
-        <v>381000</v>
+        <v>283100</v>
       </c>
       <c r="F46" s="3">
-        <v>395700</v>
+        <v>383700</v>
       </c>
       <c r="G46" s="3">
-        <v>409600</v>
+        <v>398500</v>
       </c>
       <c r="H46" s="3">
-        <v>366500</v>
+        <v>412500</v>
       </c>
       <c r="I46" s="3">
-        <v>178000</v>
+        <v>369000</v>
       </c>
       <c r="J46" s="3">
+        <v>179200</v>
+      </c>
+      <c r="K46" s="3">
         <v>169500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>236000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>163900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>190900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56700</v>
+        <v>67400</v>
       </c>
       <c r="E47" s="3">
-        <v>19500</v>
+        <v>57100</v>
       </c>
       <c r="F47" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="G47" s="3">
-        <v>22400</v>
+        <v>21200</v>
       </c>
       <c r="H47" s="3">
-        <v>27600</v>
+        <v>22600</v>
       </c>
       <c r="I47" s="3">
-        <v>32800</v>
+        <v>27700</v>
       </c>
       <c r="J47" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K47" s="3">
         <v>29300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>127500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>98400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>103900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>260200</v>
+        <v>248300</v>
       </c>
       <c r="E48" s="3">
-        <v>176100</v>
+        <v>262000</v>
       </c>
       <c r="F48" s="3">
-        <v>180300</v>
+        <v>177400</v>
       </c>
       <c r="G48" s="3">
-        <v>202800</v>
+        <v>181500</v>
       </c>
       <c r="H48" s="3">
-        <v>219900</v>
+        <v>204200</v>
       </c>
       <c r="I48" s="3">
-        <v>108500</v>
+        <v>221500</v>
       </c>
       <c r="J48" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K48" s="3">
         <v>112000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>230300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>208400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2445600</v>
+        <v>2330200</v>
       </c>
       <c r="E49" s="3">
-        <v>2979500</v>
+        <v>2462500</v>
       </c>
       <c r="F49" s="3">
-        <v>3104300</v>
+        <v>3000000</v>
       </c>
       <c r="G49" s="3">
-        <v>3993900</v>
+        <v>3125700</v>
       </c>
       <c r="H49" s="3">
-        <v>4049900</v>
+        <v>4021400</v>
       </c>
       <c r="I49" s="3">
-        <v>1680100</v>
+        <v>4077800</v>
       </c>
       <c r="J49" s="3">
+        <v>1691700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1813300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1423700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1137600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1247400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52300</v>
+        <v>68600</v>
       </c>
       <c r="E52" s="3">
-        <v>86700</v>
+        <v>52700</v>
       </c>
       <c r="F52" s="3">
-        <v>105700</v>
+        <v>87300</v>
       </c>
       <c r="G52" s="3">
-        <v>102200</v>
+        <v>106500</v>
       </c>
       <c r="H52" s="3">
-        <v>87000</v>
+        <v>102900</v>
       </c>
       <c r="I52" s="3">
-        <v>52700</v>
+        <v>87600</v>
       </c>
       <c r="J52" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K52" s="3">
         <v>47000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3096000</v>
+        <v>3027600</v>
       </c>
       <c r="E54" s="3">
-        <v>3642900</v>
+        <v>3117300</v>
       </c>
       <c r="F54" s="3">
-        <v>3807100</v>
+        <v>3668000</v>
       </c>
       <c r="G54" s="3">
-        <v>4730900</v>
+        <v>3833400</v>
       </c>
       <c r="H54" s="3">
-        <v>4750800</v>
+        <v>4763600</v>
       </c>
       <c r="I54" s="3">
-        <v>2052200</v>
+        <v>4783600</v>
       </c>
       <c r="J54" s="3">
+        <v>2066300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2171100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1649400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1549100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1623700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>287400</v>
+        <v>338700</v>
       </c>
       <c r="E57" s="3">
-        <v>295600</v>
+        <v>289400</v>
       </c>
       <c r="F57" s="3">
-        <v>289100</v>
+        <v>297600</v>
       </c>
       <c r="G57" s="3">
-        <v>324100</v>
+        <v>291100</v>
       </c>
       <c r="H57" s="3">
-        <v>306700</v>
+        <v>326300</v>
       </c>
       <c r="I57" s="3">
-        <v>164500</v>
+        <v>308800</v>
       </c>
       <c r="J57" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K57" s="3">
         <v>132900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>187100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>120700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>70600</v>
+        <v>39300</v>
       </c>
       <c r="E58" s="3">
-        <v>60600</v>
+        <v>71100</v>
       </c>
       <c r="F58" s="3">
-        <v>85400</v>
+        <v>61100</v>
       </c>
       <c r="G58" s="3">
-        <v>134500</v>
+        <v>86000</v>
       </c>
       <c r="H58" s="3">
-        <v>89700</v>
+        <v>135400</v>
       </c>
       <c r="I58" s="3">
-        <v>117000</v>
-      </c>
-      <c r="J58" s="3" t="s">
+        <v>90300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>70300</v>
+        <v>55600</v>
       </c>
       <c r="E59" s="3">
-        <v>46200</v>
+        <v>70800</v>
       </c>
       <c r="F59" s="3">
-        <v>33500</v>
+        <v>46500</v>
       </c>
       <c r="G59" s="3">
-        <v>12300</v>
+        <v>33800</v>
       </c>
       <c r="H59" s="3">
-        <v>18200</v>
+        <v>12400</v>
       </c>
       <c r="I59" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>428300</v>
+        <v>433600</v>
       </c>
       <c r="E60" s="3">
-        <v>402400</v>
+        <v>431300</v>
       </c>
       <c r="F60" s="3">
-        <v>408000</v>
+        <v>405200</v>
       </c>
       <c r="G60" s="3">
-        <v>470900</v>
+        <v>410800</v>
       </c>
       <c r="H60" s="3">
-        <v>414600</v>
+        <v>474100</v>
       </c>
       <c r="I60" s="3">
-        <v>288400</v>
+        <v>417400</v>
       </c>
       <c r="J60" s="3">
+        <v>290400</v>
+      </c>
+      <c r="K60" s="3">
         <v>137000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>140100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>162900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1219500</v>
+        <v>1132600</v>
       </c>
       <c r="E61" s="3">
-        <v>1290700</v>
+        <v>1227900</v>
       </c>
       <c r="F61" s="3">
-        <v>1465700</v>
+        <v>1299600</v>
       </c>
       <c r="G61" s="3">
-        <v>1496200</v>
+        <v>1475800</v>
       </c>
       <c r="H61" s="3">
-        <v>1622500</v>
+        <v>1506600</v>
       </c>
       <c r="I61" s="3">
-        <v>507600</v>
+        <v>1633700</v>
       </c>
       <c r="J61" s="3">
+        <v>511100</v>
+      </c>
+      <c r="K61" s="3">
         <v>681600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>410200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>385700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>461500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>630800</v>
+        <v>503300</v>
       </c>
       <c r="E62" s="3">
-        <v>591400</v>
+        <v>635100</v>
       </c>
       <c r="F62" s="3">
-        <v>626100</v>
+        <v>595500</v>
       </c>
       <c r="G62" s="3">
-        <v>737000</v>
+        <v>630400</v>
       </c>
       <c r="H62" s="3">
-        <v>783000</v>
+        <v>742100</v>
       </c>
       <c r="I62" s="3">
-        <v>305100</v>
+        <v>788400</v>
       </c>
       <c r="J62" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K62" s="3">
         <v>331000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>259400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>177700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>198000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2394400</v>
+        <v>2189600</v>
       </c>
       <c r="E66" s="3">
-        <v>2397900</v>
+        <v>2410900</v>
       </c>
       <c r="F66" s="3">
-        <v>2620100</v>
+        <v>2414500</v>
       </c>
       <c r="G66" s="3">
-        <v>2828000</v>
+        <v>2638200</v>
       </c>
       <c r="H66" s="3">
-        <v>2943600</v>
+        <v>2847500</v>
       </c>
       <c r="I66" s="3">
-        <v>1114600</v>
+        <v>2963900</v>
       </c>
       <c r="J66" s="3">
+        <v>1122300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1163100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>734100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>718900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>828100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1111400</v>
+        <v>-1007100</v>
       </c>
       <c r="E72" s="3">
-        <v>-591600</v>
+        <v>-1119000</v>
       </c>
       <c r="F72" s="3">
-        <v>-667900</v>
+        <v>-595700</v>
       </c>
       <c r="G72" s="3">
-        <v>89300</v>
+        <v>-672500</v>
       </c>
       <c r="H72" s="3">
-        <v>111100</v>
+        <v>89900</v>
       </c>
       <c r="I72" s="3">
-        <v>149100</v>
+        <v>111900</v>
       </c>
       <c r="J72" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K72" s="3">
         <v>244300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>195200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>147700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>110400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>701600</v>
+        <v>838100</v>
       </c>
       <c r="E76" s="3">
-        <v>1244900</v>
+        <v>706400</v>
       </c>
       <c r="F76" s="3">
-        <v>1187000</v>
+        <v>1253500</v>
       </c>
       <c r="G76" s="3">
-        <v>1902900</v>
+        <v>1195200</v>
       </c>
       <c r="H76" s="3">
-        <v>1807200</v>
+        <v>1916100</v>
       </c>
       <c r="I76" s="3">
-        <v>937600</v>
+        <v>1819700</v>
       </c>
       <c r="J76" s="3">
+        <v>944100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1008000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>915300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>830100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>795600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43343</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42978</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42613</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42247</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41882</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41517</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41152</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40786</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-487600</v>
+        <v>135500</v>
       </c>
       <c r="E81" s="3">
+        <v>-490900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-615900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>150500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>117300</v>
+      </c>
+      <c r="L81" s="3">
         <v>121700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-611700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>149400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>98200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>117300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>121700</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>110600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>525800</v>
+        <v>517200</v>
       </c>
       <c r="E83" s="3">
-        <v>557300</v>
+        <v>529500</v>
       </c>
       <c r="F83" s="3">
-        <v>479000</v>
+        <v>561200</v>
       </c>
       <c r="G83" s="3">
-        <v>488400</v>
+        <v>482300</v>
       </c>
       <c r="H83" s="3">
-        <v>319600</v>
+        <v>491800</v>
       </c>
       <c r="I83" s="3">
-        <v>206900</v>
+        <v>321800</v>
       </c>
       <c r="J83" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K83" s="3">
         <v>196100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>313300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>152400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>244200</v>
+        <v>215500</v>
       </c>
       <c r="E89" s="3">
-        <v>267900</v>
+        <v>245900</v>
       </c>
       <c r="F89" s="3">
-        <v>289200</v>
+        <v>269700</v>
       </c>
       <c r="G89" s="3">
-        <v>232400</v>
+        <v>291200</v>
       </c>
       <c r="H89" s="3">
-        <v>156100</v>
+        <v>234000</v>
       </c>
       <c r="I89" s="3">
-        <v>164000</v>
+        <v>157200</v>
       </c>
       <c r="J89" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K89" s="3">
         <v>151600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>124300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-15400</v>
       </c>
       <c r="E91" s="3">
-        <v>-23400</v>
+        <v>-12100</v>
       </c>
       <c r="F91" s="3">
-        <v>-12600</v>
+        <v>-23600</v>
       </c>
       <c r="G91" s="3">
-        <v>-21000</v>
+        <v>-12700</v>
       </c>
       <c r="H91" s="3">
-        <v>-17600</v>
+        <v>-21200</v>
       </c>
       <c r="I91" s="3">
-        <v>-13000</v>
+        <v>-17700</v>
       </c>
       <c r="J91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14800</v>
+        <v>-23200</v>
       </c>
       <c r="E94" s="3">
-        <v>-23600</v>
+        <v>-14900</v>
       </c>
       <c r="F94" s="3">
-        <v>-19900</v>
+        <v>-23700</v>
       </c>
       <c r="G94" s="3">
-        <v>-16300</v>
+        <v>-20100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1293000</v>
+        <v>-16400</v>
       </c>
       <c r="I94" s="3">
-        <v>-22500</v>
+        <v>-1301900</v>
       </c>
       <c r="J94" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-410300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>25500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-39300</v>
+        <v>-39200</v>
       </c>
       <c r="E96" s="3">
-        <v>-29700</v>
+        <v>-39600</v>
       </c>
       <c r="F96" s="3">
-        <v>-155000</v>
+        <v>-29900</v>
       </c>
       <c r="G96" s="3">
-        <v>-82700</v>
+        <v>-156100</v>
       </c>
       <c r="H96" s="3">
-        <v>-69900</v>
+        <v>-83300</v>
       </c>
       <c r="I96" s="3">
-        <v>-59400</v>
+        <v>-70400</v>
       </c>
       <c r="J96" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-51000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-43200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-37800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-258000</v>
+        <v>-194100</v>
       </c>
       <c r="E100" s="3">
-        <v>-253800</v>
+        <v>-259800</v>
       </c>
       <c r="F100" s="3">
-        <v>-268400</v>
+        <v>-255600</v>
       </c>
       <c r="G100" s="3">
-        <v>-198700</v>
+        <v>-270200</v>
       </c>
       <c r="H100" s="3">
-        <v>1163400</v>
+        <v>-200100</v>
       </c>
       <c r="I100" s="3">
-        <v>-121300</v>
+        <v>1171400</v>
       </c>
       <c r="J100" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="K100" s="3">
         <v>204300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-61600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-123800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-113000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28600</v>
+        <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-9500</v>
+        <v>-28800</v>
       </c>
       <c r="F102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>17400</v>
-      </c>
       <c r="H102" s="3">
-        <v>26500</v>
+        <v>17500</v>
       </c>
       <c r="I102" s="3">
-        <v>20100</v>
+        <v>26600</v>
       </c>
       <c r="J102" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-54300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1211700</v>
+        <v>1211200</v>
       </c>
       <c r="E8" s="3">
-        <v>1186400</v>
+        <v>1185900</v>
       </c>
       <c r="F8" s="3">
-        <v>1324800</v>
+        <v>1324200</v>
       </c>
       <c r="G8" s="3">
-        <v>1293200</v>
+        <v>1292700</v>
       </c>
       <c r="H8" s="3">
-        <v>1318100</v>
+        <v>1317600</v>
       </c>
       <c r="I8" s="3">
-        <v>919500</v>
+        <v>919200</v>
       </c>
       <c r="J8" s="3">
-        <v>640100</v>
+        <v>639800</v>
       </c>
       <c r="K8" s="3">
         <v>649500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>424200</v>
+        <v>424100</v>
       </c>
       <c r="E9" s="3">
-        <v>428100</v>
+        <v>428000</v>
       </c>
       <c r="F9" s="3">
-        <v>445300</v>
+        <v>445200</v>
       </c>
       <c r="G9" s="3">
-        <v>439500</v>
+        <v>439300</v>
       </c>
       <c r="H9" s="3">
-        <v>441400</v>
+        <v>441200</v>
       </c>
       <c r="I9" s="3">
-        <v>281400</v>
+        <v>281300</v>
       </c>
       <c r="J9" s="3">
-        <v>208900</v>
+        <v>208800</v>
       </c>
       <c r="K9" s="3">
         <v>198900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>787500</v>
+        <v>787200</v>
       </c>
       <c r="E10" s="3">
-        <v>758300</v>
+        <v>758000</v>
       </c>
       <c r="F10" s="3">
-        <v>879400</v>
+        <v>879100</v>
       </c>
       <c r="G10" s="3">
-        <v>853700</v>
+        <v>853400</v>
       </c>
       <c r="H10" s="3">
-        <v>876700</v>
+        <v>876300</v>
       </c>
       <c r="I10" s="3">
-        <v>638100</v>
+        <v>637900</v>
       </c>
       <c r="J10" s="3">
-        <v>431200</v>
+        <v>431000</v>
       </c>
       <c r="K10" s="3">
         <v>450600</v>
@@ -938,13 +938,13 @@
         <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>605300</v>
+        <v>605100</v>
       </c>
       <c r="F14" s="3">
-        <v>24500</v>
+        <v>24400</v>
       </c>
       <c r="G14" s="3">
-        <v>809200</v>
+        <v>808900</v>
       </c>
       <c r="H14" s="3">
         <v>29200</v>
@@ -953,7 +953,7 @@
         <v>24700</v>
       </c>
       <c r="J14" s="3">
-        <v>157700</v>
+        <v>157600</v>
       </c>
       <c r="K14" s="3">
         <v>700</v>
@@ -977,19 +977,19 @@
         <v>119500</v>
       </c>
       <c r="E15" s="3">
-        <v>124500</v>
+        <v>124400</v>
       </c>
       <c r="F15" s="3">
-        <v>143200</v>
+        <v>143100</v>
       </c>
       <c r="G15" s="3">
-        <v>64300</v>
+        <v>64200</v>
       </c>
       <c r="H15" s="3">
         <v>72000</v>
       </c>
       <c r="I15" s="3">
-        <v>58100</v>
+        <v>58000</v>
       </c>
       <c r="J15" s="3">
         <v>18900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1005000</v>
+        <v>1004600</v>
       </c>
       <c r="E17" s="3">
-        <v>1630500</v>
+        <v>1629900</v>
       </c>
       <c r="F17" s="3">
-        <v>1126800</v>
+        <v>1126400</v>
       </c>
       <c r="G17" s="3">
-        <v>1819300</v>
+        <v>1818500</v>
       </c>
       <c r="H17" s="3">
-        <v>1077400</v>
+        <v>1077000</v>
       </c>
       <c r="I17" s="3">
-        <v>774200</v>
+        <v>773900</v>
       </c>
       <c r="J17" s="3">
-        <v>631000</v>
+        <v>630800</v>
       </c>
       <c r="K17" s="3">
         <v>486100</v>
@@ -1066,19 +1066,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>206700</v>
+        <v>206600</v>
       </c>
       <c r="E18" s="3">
-        <v>-444200</v>
+        <v>-444000</v>
       </c>
       <c r="F18" s="3">
-        <v>197900</v>
+        <v>197800</v>
       </c>
       <c r="G18" s="3">
-        <v>-526000</v>
+        <v>-525800</v>
       </c>
       <c r="H18" s="3">
-        <v>240700</v>
+        <v>240600</v>
       </c>
       <c r="I18" s="3">
         <v>145300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>722000</v>
+        <v>721200</v>
       </c>
       <c r="E21" s="3">
-        <v>83300</v>
+        <v>82800</v>
       </c>
       <c r="F21" s="3">
-        <v>757000</v>
+        <v>756100</v>
       </c>
       <c r="G21" s="3">
-        <v>-45500</v>
+        <v>-46000</v>
       </c>
       <c r="H21" s="3">
-        <v>730600</v>
+        <v>729800</v>
       </c>
       <c r="I21" s="3">
-        <v>466000</v>
+        <v>465500</v>
       </c>
       <c r="J21" s="3">
-        <v>216600</v>
+        <v>216300</v>
       </c>
       <c r="K21" s="3">
         <v>362200</v>
@@ -1239,19 +1239,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>206700</v>
+        <v>206600</v>
       </c>
       <c r="E23" s="3">
-        <v>-444200</v>
+        <v>-444000</v>
       </c>
       <c r="F23" s="3">
-        <v>197900</v>
+        <v>197800</v>
       </c>
       <c r="G23" s="3">
-        <v>-526000</v>
+        <v>-525800</v>
       </c>
       <c r="H23" s="3">
-        <v>240700</v>
+        <v>240600</v>
       </c>
       <c r="I23" s="3">
         <v>145300</v>
@@ -1290,7 +1290,7 @@
         <v>69200</v>
       </c>
       <c r="H24" s="3">
-        <v>64800</v>
+        <v>64700</v>
       </c>
       <c r="I24" s="3">
         <v>32600</v>
@@ -1359,13 +1359,13 @@
         <v>152700</v>
       </c>
       <c r="E26" s="3">
-        <v>-477100</v>
+        <v>-476900</v>
       </c>
       <c r="F26" s="3">
         <v>141800</v>
       </c>
       <c r="G26" s="3">
-        <v>-595200</v>
+        <v>-595000</v>
       </c>
       <c r="H26" s="3">
         <v>175900</v>
@@ -1395,22 +1395,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135500</v>
+        <v>135400</v>
       </c>
       <c r="E27" s="3">
-        <v>-490900</v>
+        <v>-490700</v>
       </c>
       <c r="F27" s="3">
         <v>122500</v>
       </c>
       <c r="G27" s="3">
-        <v>-615900</v>
+        <v>-615600</v>
       </c>
       <c r="H27" s="3">
-        <v>150500</v>
+        <v>150400</v>
       </c>
       <c r="I27" s="3">
-        <v>98900</v>
+        <v>98800</v>
       </c>
       <c r="J27" s="3">
         <v>-19700</v>
@@ -1629,22 +1629,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135500</v>
+        <v>135400</v>
       </c>
       <c r="E33" s="3">
-        <v>-490900</v>
+        <v>-490700</v>
       </c>
       <c r="F33" s="3">
         <v>122500</v>
       </c>
       <c r="G33" s="3">
-        <v>-615900</v>
+        <v>-615600</v>
       </c>
       <c r="H33" s="3">
-        <v>150500</v>
+        <v>150400</v>
       </c>
       <c r="I33" s="3">
-        <v>98900</v>
+        <v>98800</v>
       </c>
       <c r="J33" s="3">
         <v>-19700</v>
@@ -1707,22 +1707,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135500</v>
+        <v>135400</v>
       </c>
       <c r="E35" s="3">
-        <v>-490900</v>
+        <v>-490700</v>
       </c>
       <c r="F35" s="3">
         <v>122500</v>
       </c>
       <c r="G35" s="3">
-        <v>-615900</v>
+        <v>-615600</v>
       </c>
       <c r="H35" s="3">
-        <v>150500</v>
+        <v>150400</v>
       </c>
       <c r="I35" s="3">
-        <v>98900</v>
+        <v>98800</v>
       </c>
       <c r="J35" s="3">
         <v>-19700</v>
@@ -1836,7 +1836,7 @@
         <v>74400</v>
       </c>
       <c r="H41" s="3">
-        <v>73600</v>
+        <v>73500</v>
       </c>
       <c r="I41" s="3">
         <v>56000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>260000</v>
+        <v>259900</v>
       </c>
       <c r="E43" s="3">
-        <v>233600</v>
+        <v>233500</v>
       </c>
       <c r="F43" s="3">
-        <v>303500</v>
+        <v>303400</v>
       </c>
       <c r="G43" s="3">
-        <v>307800</v>
+        <v>307700</v>
       </c>
       <c r="H43" s="3">
-        <v>321700</v>
+        <v>321600</v>
       </c>
       <c r="I43" s="3">
-        <v>298200</v>
+        <v>298100</v>
       </c>
       <c r="J43" s="3">
-        <v>139000</v>
+        <v>138900</v>
       </c>
       <c r="K43" s="3">
         <v>150300</v>
@@ -1986,7 +1986,7 @@
         <v>13400</v>
       </c>
       <c r="F45" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="G45" s="3">
         <v>16300</v>
@@ -2019,22 +2019,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>313200</v>
+        <v>313100</v>
       </c>
       <c r="E46" s="3">
-        <v>283100</v>
+        <v>283000</v>
       </c>
       <c r="F46" s="3">
-        <v>383700</v>
+        <v>383500</v>
       </c>
       <c r="G46" s="3">
-        <v>398500</v>
+        <v>398300</v>
       </c>
       <c r="H46" s="3">
-        <v>412500</v>
+        <v>412300</v>
       </c>
       <c r="I46" s="3">
-        <v>369000</v>
+        <v>368900</v>
       </c>
       <c r="J46" s="3">
         <v>179200</v>
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67400</v>
+        <v>67300</v>
       </c>
       <c r="E47" s="3">
         <v>57100</v>
@@ -2070,7 +2070,7 @@
         <v>21200</v>
       </c>
       <c r="H47" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="I47" s="3">
         <v>27700</v>
@@ -2097,22 +2097,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>248300</v>
+        <v>248200</v>
       </c>
       <c r="E48" s="3">
-        <v>262000</v>
+        <v>261900</v>
       </c>
       <c r="F48" s="3">
-        <v>177400</v>
+        <v>177300</v>
       </c>
       <c r="G48" s="3">
-        <v>181500</v>
+        <v>181400</v>
       </c>
       <c r="H48" s="3">
-        <v>204200</v>
+        <v>204100</v>
       </c>
       <c r="I48" s="3">
-        <v>221500</v>
+        <v>221400</v>
       </c>
       <c r="J48" s="3">
         <v>109200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2330200</v>
+        <v>2329300</v>
       </c>
       <c r="E49" s="3">
-        <v>2462500</v>
+        <v>2461500</v>
       </c>
       <c r="F49" s="3">
-        <v>3000000</v>
+        <v>2998800</v>
       </c>
       <c r="G49" s="3">
-        <v>3125700</v>
+        <v>3124500</v>
       </c>
       <c r="H49" s="3">
-        <v>4021400</v>
+        <v>4019900</v>
       </c>
       <c r="I49" s="3">
-        <v>4077800</v>
+        <v>4076200</v>
       </c>
       <c r="J49" s="3">
-        <v>1691700</v>
+        <v>1691100</v>
       </c>
       <c r="K49" s="3">
         <v>1813300</v>
@@ -2256,22 +2256,22 @@
         <v>68600</v>
       </c>
       <c r="E52" s="3">
-        <v>52700</v>
+        <v>52600</v>
       </c>
       <c r="F52" s="3">
-        <v>87300</v>
+        <v>87200</v>
       </c>
       <c r="G52" s="3">
-        <v>106500</v>
+        <v>106400</v>
       </c>
       <c r="H52" s="3">
         <v>102900</v>
       </c>
       <c r="I52" s="3">
-        <v>87600</v>
+        <v>87500</v>
       </c>
       <c r="J52" s="3">
-        <v>53100</v>
+        <v>53000</v>
       </c>
       <c r="K52" s="3">
         <v>47000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3027600</v>
+        <v>3026400</v>
       </c>
       <c r="E54" s="3">
-        <v>3117300</v>
+        <v>3116100</v>
       </c>
       <c r="F54" s="3">
-        <v>3668000</v>
+        <v>3666500</v>
       </c>
       <c r="G54" s="3">
-        <v>3833400</v>
+        <v>3831800</v>
       </c>
       <c r="H54" s="3">
-        <v>4763600</v>
+        <v>4761700</v>
       </c>
       <c r="I54" s="3">
-        <v>4783600</v>
+        <v>4781700</v>
       </c>
       <c r="J54" s="3">
-        <v>2066300</v>
+        <v>2065500</v>
       </c>
       <c r="K54" s="3">
         <v>2171100</v>
@@ -2404,22 +2404,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>338700</v>
+        <v>338600</v>
       </c>
       <c r="E57" s="3">
-        <v>289400</v>
+        <v>289200</v>
       </c>
       <c r="F57" s="3">
-        <v>297600</v>
+        <v>297500</v>
       </c>
       <c r="G57" s="3">
-        <v>291100</v>
+        <v>291000</v>
       </c>
       <c r="H57" s="3">
-        <v>326300</v>
+        <v>326200</v>
       </c>
       <c r="I57" s="3">
-        <v>308800</v>
+        <v>308700</v>
       </c>
       <c r="J57" s="3">
         <v>165600</v>
@@ -2449,7 +2449,7 @@
         <v>71100</v>
       </c>
       <c r="F58" s="3">
-        <v>61100</v>
+        <v>61000</v>
       </c>
       <c r="G58" s="3">
         <v>86000</v>
@@ -2458,10 +2458,10 @@
         <v>135400</v>
       </c>
       <c r="I58" s="3">
-        <v>90300</v>
+        <v>90200</v>
       </c>
       <c r="J58" s="3">
-        <v>117800</v>
+        <v>117700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2485,13 +2485,13 @@
         <v>55600</v>
       </c>
       <c r="E59" s="3">
-        <v>70800</v>
+        <v>70700</v>
       </c>
       <c r="F59" s="3">
         <v>46500</v>
       </c>
       <c r="G59" s="3">
-        <v>33800</v>
+        <v>33700</v>
       </c>
       <c r="H59" s="3">
         <v>12400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>433600</v>
+        <v>433400</v>
       </c>
       <c r="E60" s="3">
-        <v>431300</v>
+        <v>431100</v>
       </c>
       <c r="F60" s="3">
-        <v>405200</v>
+        <v>405000</v>
       </c>
       <c r="G60" s="3">
-        <v>410800</v>
+        <v>410700</v>
       </c>
       <c r="H60" s="3">
-        <v>474100</v>
+        <v>473900</v>
       </c>
       <c r="I60" s="3">
-        <v>417400</v>
+        <v>417300</v>
       </c>
       <c r="J60" s="3">
-        <v>290400</v>
+        <v>290300</v>
       </c>
       <c r="K60" s="3">
         <v>137000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1132600</v>
+        <v>1132200</v>
       </c>
       <c r="E61" s="3">
-        <v>1227900</v>
+        <v>1227400</v>
       </c>
       <c r="F61" s="3">
-        <v>1299600</v>
+        <v>1299100</v>
       </c>
       <c r="G61" s="3">
-        <v>1475800</v>
+        <v>1475200</v>
       </c>
       <c r="H61" s="3">
-        <v>1506600</v>
+        <v>1506000</v>
       </c>
       <c r="I61" s="3">
-        <v>1633700</v>
+        <v>1633100</v>
       </c>
       <c r="J61" s="3">
-        <v>511100</v>
+        <v>510900</v>
       </c>
       <c r="K61" s="3">
         <v>681600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>503300</v>
+        <v>503100</v>
       </c>
       <c r="E62" s="3">
-        <v>635100</v>
+        <v>634900</v>
       </c>
       <c r="F62" s="3">
-        <v>595500</v>
+        <v>595200</v>
       </c>
       <c r="G62" s="3">
-        <v>630400</v>
+        <v>630100</v>
       </c>
       <c r="H62" s="3">
-        <v>742100</v>
+        <v>741800</v>
       </c>
       <c r="I62" s="3">
-        <v>788400</v>
+        <v>788100</v>
       </c>
       <c r="J62" s="3">
-        <v>307200</v>
+        <v>307100</v>
       </c>
       <c r="K62" s="3">
         <v>331000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2189600</v>
+        <v>2188700</v>
       </c>
       <c r="E66" s="3">
-        <v>2410900</v>
+        <v>2410000</v>
       </c>
       <c r="F66" s="3">
-        <v>2414500</v>
+        <v>2413500</v>
       </c>
       <c r="G66" s="3">
-        <v>2638200</v>
+        <v>2637200</v>
       </c>
       <c r="H66" s="3">
-        <v>2847500</v>
+        <v>2846400</v>
       </c>
       <c r="I66" s="3">
-        <v>2963900</v>
+        <v>2962800</v>
       </c>
       <c r="J66" s="3">
-        <v>1122300</v>
+        <v>1121800</v>
       </c>
       <c r="K66" s="3">
         <v>1163100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1007100</v>
+        <v>-1006700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1119000</v>
+        <v>-1118600</v>
       </c>
       <c r="F72" s="3">
-        <v>-595700</v>
+        <v>-595400</v>
       </c>
       <c r="G72" s="3">
-        <v>-672500</v>
+        <v>-672300</v>
       </c>
       <c r="H72" s="3">
-        <v>89900</v>
+        <v>89800</v>
       </c>
       <c r="I72" s="3">
-        <v>111900</v>
+        <v>111800</v>
       </c>
       <c r="J72" s="3">
-        <v>150100</v>
+        <v>150000</v>
       </c>
       <c r="K72" s="3">
         <v>244300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>838100</v>
+        <v>837700</v>
       </c>
       <c r="E76" s="3">
-        <v>706400</v>
+        <v>706100</v>
       </c>
       <c r="F76" s="3">
-        <v>1253500</v>
+        <v>1253000</v>
       </c>
       <c r="G76" s="3">
-        <v>1195200</v>
+        <v>1194700</v>
       </c>
       <c r="H76" s="3">
-        <v>1916100</v>
+        <v>1915300</v>
       </c>
       <c r="I76" s="3">
-        <v>1819700</v>
+        <v>1819000</v>
       </c>
       <c r="J76" s="3">
-        <v>944100</v>
+        <v>943700</v>
       </c>
       <c r="K76" s="3">
         <v>1008000</v>
@@ -3245,22 +3245,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135500</v>
+        <v>135400</v>
       </c>
       <c r="E81" s="3">
-        <v>-490900</v>
+        <v>-490700</v>
       </c>
       <c r="F81" s="3">
         <v>122500</v>
       </c>
       <c r="G81" s="3">
-        <v>-615900</v>
+        <v>-615600</v>
       </c>
       <c r="H81" s="3">
-        <v>150500</v>
+        <v>150400</v>
       </c>
       <c r="I81" s="3">
-        <v>98900</v>
+        <v>98800</v>
       </c>
       <c r="J81" s="3">
         <v>-19700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>517200</v>
+        <v>517000</v>
       </c>
       <c r="E83" s="3">
-        <v>529500</v>
+        <v>529200</v>
       </c>
       <c r="F83" s="3">
-        <v>561200</v>
+        <v>560900</v>
       </c>
       <c r="G83" s="3">
-        <v>482300</v>
+        <v>482100</v>
       </c>
       <c r="H83" s="3">
-        <v>491800</v>
+        <v>491600</v>
       </c>
       <c r="I83" s="3">
-        <v>321800</v>
+        <v>321700</v>
       </c>
       <c r="J83" s="3">
-        <v>208300</v>
+        <v>208200</v>
       </c>
       <c r="K83" s="3">
         <v>196100</v>
@@ -3535,22 +3535,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>215500</v>
+        <v>215400</v>
       </c>
       <c r="E89" s="3">
-        <v>245900</v>
+        <v>245800</v>
       </c>
       <c r="F89" s="3">
-        <v>269700</v>
+        <v>269600</v>
       </c>
       <c r="G89" s="3">
-        <v>291200</v>
+        <v>291100</v>
       </c>
       <c r="H89" s="3">
         <v>234000</v>
       </c>
       <c r="I89" s="3">
-        <v>157200</v>
+        <v>157100</v>
       </c>
       <c r="J89" s="3">
         <v>165100</v>
@@ -3591,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
         <v>-12100</v>
@@ -3600,7 +3600,7 @@
         <v>-23600</v>
       </c>
       <c r="G91" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="H91" s="3">
         <v>-21200</v>
@@ -3723,7 +3723,7 @@
         <v>-16400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1301900</v>
+        <v>-1301400</v>
       </c>
       <c r="J94" s="3">
         <v>-22700</v>
@@ -3773,10 +3773,10 @@
         <v>-29900</v>
       </c>
       <c r="G96" s="3">
-        <v>-156100</v>
+        <v>-156000</v>
       </c>
       <c r="H96" s="3">
-        <v>-83300</v>
+        <v>-83200</v>
       </c>
       <c r="I96" s="3">
         <v>-70400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-194100</v>
+        <v>-194000</v>
       </c>
       <c r="E100" s="3">
-        <v>-259800</v>
+        <v>-259700</v>
       </c>
       <c r="F100" s="3">
-        <v>-255600</v>
+        <v>-255500</v>
       </c>
       <c r="G100" s="3">
-        <v>-270200</v>
+        <v>-270100</v>
       </c>
       <c r="H100" s="3">
-        <v>-200100</v>
+        <v>-200000</v>
       </c>
       <c r="I100" s="3">
-        <v>1171400</v>
+        <v>1170900</v>
       </c>
       <c r="J100" s="3">
-        <v>-122200</v>
+        <v>-122100</v>
       </c>
       <c r="K100" s="3">
         <v>204300</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1211200</v>
+        <v>1183300</v>
       </c>
       <c r="E8" s="3">
-        <v>1185900</v>
+        <v>1158600</v>
       </c>
       <c r="F8" s="3">
-        <v>1324200</v>
+        <v>1293700</v>
       </c>
       <c r="G8" s="3">
-        <v>1292700</v>
+        <v>1262900</v>
       </c>
       <c r="H8" s="3">
-        <v>1317600</v>
+        <v>1287200</v>
       </c>
       <c r="I8" s="3">
-        <v>919200</v>
+        <v>898000</v>
       </c>
       <c r="J8" s="3">
-        <v>639800</v>
+        <v>625100</v>
       </c>
       <c r="K8" s="3">
         <v>649500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>424100</v>
+        <v>414300</v>
       </c>
       <c r="E9" s="3">
-        <v>428000</v>
+        <v>418100</v>
       </c>
       <c r="F9" s="3">
-        <v>445200</v>
+        <v>434900</v>
       </c>
       <c r="G9" s="3">
-        <v>439300</v>
+        <v>429200</v>
       </c>
       <c r="H9" s="3">
-        <v>441200</v>
+        <v>431100</v>
       </c>
       <c r="I9" s="3">
-        <v>281300</v>
+        <v>274800</v>
       </c>
       <c r="J9" s="3">
-        <v>208800</v>
+        <v>204000</v>
       </c>
       <c r="K9" s="3">
         <v>198900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>787200</v>
+        <v>769000</v>
       </c>
       <c r="E10" s="3">
-        <v>758000</v>
+        <v>740500</v>
       </c>
       <c r="F10" s="3">
-        <v>879100</v>
+        <v>858800</v>
       </c>
       <c r="G10" s="3">
-        <v>853400</v>
+        <v>833700</v>
       </c>
       <c r="H10" s="3">
-        <v>876300</v>
+        <v>856100</v>
       </c>
       <c r="I10" s="3">
-        <v>637900</v>
+        <v>623200</v>
       </c>
       <c r="J10" s="3">
-        <v>431000</v>
+        <v>421000</v>
       </c>
       <c r="K10" s="3">
         <v>450600</v>
@@ -938,22 +938,22 @@
         <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>605100</v>
+        <v>591100</v>
       </c>
       <c r="F14" s="3">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="G14" s="3">
-        <v>808900</v>
+        <v>790200</v>
       </c>
       <c r="H14" s="3">
-        <v>29200</v>
+        <v>28500</v>
       </c>
       <c r="I14" s="3">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="J14" s="3">
-        <v>157600</v>
+        <v>154000</v>
       </c>
       <c r="K14" s="3">
         <v>700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>119500</v>
+        <v>116700</v>
       </c>
       <c r="E15" s="3">
-        <v>124400</v>
+        <v>121600</v>
       </c>
       <c r="F15" s="3">
-        <v>143100</v>
+        <v>139800</v>
       </c>
       <c r="G15" s="3">
-        <v>64200</v>
+        <v>62800</v>
       </c>
       <c r="H15" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="I15" s="3">
-        <v>58000</v>
+        <v>56700</v>
       </c>
       <c r="J15" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="K15" s="3">
         <v>18800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1004600</v>
+        <v>981400</v>
       </c>
       <c r="E17" s="3">
-        <v>1629900</v>
+        <v>1592300</v>
       </c>
       <c r="F17" s="3">
-        <v>1126400</v>
+        <v>1100400</v>
       </c>
       <c r="G17" s="3">
-        <v>1818500</v>
+        <v>1776600</v>
       </c>
       <c r="H17" s="3">
-        <v>1077000</v>
+        <v>1052200</v>
       </c>
       <c r="I17" s="3">
-        <v>773900</v>
+        <v>756000</v>
       </c>
       <c r="J17" s="3">
-        <v>630800</v>
+        <v>616200</v>
       </c>
       <c r="K17" s="3">
         <v>486100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>206600</v>
+        <v>201900</v>
       </c>
       <c r="E18" s="3">
-        <v>-444000</v>
+        <v>-433700</v>
       </c>
       <c r="F18" s="3">
-        <v>197800</v>
+        <v>193300</v>
       </c>
       <c r="G18" s="3">
-        <v>-525800</v>
+        <v>-513700</v>
       </c>
       <c r="H18" s="3">
-        <v>240600</v>
+        <v>235000</v>
       </c>
       <c r="I18" s="3">
-        <v>145300</v>
+        <v>141900</v>
       </c>
       <c r="J18" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="K18" s="3">
         <v>163400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>721200</v>
+        <v>708900</v>
       </c>
       <c r="E21" s="3">
-        <v>82800</v>
+        <v>85300</v>
       </c>
       <c r="F21" s="3">
-        <v>756100</v>
+        <v>743400</v>
       </c>
       <c r="G21" s="3">
-        <v>-46000</v>
+        <v>-40800</v>
       </c>
       <c r="H21" s="3">
-        <v>729800</v>
+        <v>717200</v>
       </c>
       <c r="I21" s="3">
-        <v>465500</v>
+        <v>457500</v>
       </c>
       <c r="J21" s="3">
-        <v>216300</v>
+        <v>213000</v>
       </c>
       <c r="K21" s="3">
         <v>362200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>206600</v>
+        <v>201900</v>
       </c>
       <c r="E23" s="3">
-        <v>-444000</v>
+        <v>-433700</v>
       </c>
       <c r="F23" s="3">
-        <v>197800</v>
+        <v>193300</v>
       </c>
       <c r="G23" s="3">
-        <v>-525800</v>
+        <v>-513700</v>
       </c>
       <c r="H23" s="3">
-        <v>240600</v>
+        <v>235000</v>
       </c>
       <c r="I23" s="3">
-        <v>145300</v>
+        <v>141900</v>
       </c>
       <c r="J23" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="K23" s="3">
         <v>163400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54000</v>
+        <v>52700</v>
       </c>
       <c r="E24" s="3">
-        <v>32900</v>
+        <v>32200</v>
       </c>
       <c r="F24" s="3">
-        <v>56100</v>
+        <v>54800</v>
       </c>
       <c r="G24" s="3">
-        <v>69200</v>
+        <v>67600</v>
       </c>
       <c r="H24" s="3">
-        <v>64700</v>
+        <v>63200</v>
       </c>
       <c r="I24" s="3">
-        <v>32600</v>
+        <v>31900</v>
       </c>
       <c r="J24" s="3">
-        <v>24300</v>
+        <v>23800</v>
       </c>
       <c r="K24" s="3">
         <v>41700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>152700</v>
+        <v>149200</v>
       </c>
       <c r="E26" s="3">
-        <v>-476900</v>
+        <v>-465900</v>
       </c>
       <c r="F26" s="3">
-        <v>141800</v>
+        <v>138500</v>
       </c>
       <c r="G26" s="3">
-        <v>-595000</v>
+        <v>-581200</v>
       </c>
       <c r="H26" s="3">
-        <v>175900</v>
+        <v>171800</v>
       </c>
       <c r="I26" s="3">
-        <v>112700</v>
+        <v>110100</v>
       </c>
       <c r="J26" s="3">
-        <v>-15300</v>
+        <v>-14900</v>
       </c>
       <c r="K26" s="3">
         <v>121800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135400</v>
+        <v>132300</v>
       </c>
       <c r="E27" s="3">
-        <v>-490700</v>
+        <v>-479400</v>
       </c>
       <c r="F27" s="3">
-        <v>122500</v>
+        <v>119700</v>
       </c>
       <c r="G27" s="3">
-        <v>-615600</v>
+        <v>-601400</v>
       </c>
       <c r="H27" s="3">
-        <v>150400</v>
+        <v>146900</v>
       </c>
       <c r="I27" s="3">
-        <v>98800</v>
+        <v>96500</v>
       </c>
       <c r="J27" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="K27" s="3">
         <v>117300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135400</v>
+        <v>132300</v>
       </c>
       <c r="E33" s="3">
-        <v>-490700</v>
+        <v>-479400</v>
       </c>
       <c r="F33" s="3">
-        <v>122500</v>
+        <v>119700</v>
       </c>
       <c r="G33" s="3">
-        <v>-615600</v>
+        <v>-601400</v>
       </c>
       <c r="H33" s="3">
-        <v>150400</v>
+        <v>146900</v>
       </c>
       <c r="I33" s="3">
-        <v>98800</v>
+        <v>96500</v>
       </c>
       <c r="J33" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="K33" s="3">
         <v>117300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135400</v>
+        <v>132300</v>
       </c>
       <c r="E35" s="3">
-        <v>-490700</v>
+        <v>-479400</v>
       </c>
       <c r="F35" s="3">
-        <v>122500</v>
+        <v>119700</v>
       </c>
       <c r="G35" s="3">
-        <v>-615600</v>
+        <v>-601400</v>
       </c>
       <c r="H35" s="3">
-        <v>150400</v>
+        <v>146900</v>
       </c>
       <c r="I35" s="3">
-        <v>98800</v>
+        <v>96500</v>
       </c>
       <c r="J35" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="K35" s="3">
         <v>117300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34300</v>
+        <v>33500</v>
       </c>
       <c r="E41" s="3">
-        <v>36000</v>
+        <v>35200</v>
       </c>
       <c r="F41" s="3">
-        <v>64800</v>
+        <v>63300</v>
       </c>
       <c r="G41" s="3">
-        <v>74400</v>
+        <v>72700</v>
       </c>
       <c r="H41" s="3">
-        <v>73500</v>
+        <v>71800</v>
       </c>
       <c r="I41" s="3">
-        <v>56000</v>
+        <v>54700</v>
       </c>
       <c r="J41" s="3">
-        <v>29400</v>
+        <v>28700</v>
       </c>
       <c r="K41" s="3">
         <v>9000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>259900</v>
+        <v>253900</v>
       </c>
       <c r="E43" s="3">
-        <v>233500</v>
+        <v>228100</v>
       </c>
       <c r="F43" s="3">
-        <v>303400</v>
+        <v>296400</v>
       </c>
       <c r="G43" s="3">
-        <v>307700</v>
+        <v>300600</v>
       </c>
       <c r="H43" s="3">
-        <v>321600</v>
+        <v>314200</v>
       </c>
       <c r="I43" s="3">
-        <v>298100</v>
+        <v>291200</v>
       </c>
       <c r="J43" s="3">
-        <v>138900</v>
+        <v>135700</v>
       </c>
       <c r="K43" s="3">
         <v>150300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="E45" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="F45" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="G45" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="H45" s="3">
-        <v>17200</v>
+        <v>16800</v>
       </c>
       <c r="I45" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="J45" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="K45" s="3">
         <v>10200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>313100</v>
+        <v>305900</v>
       </c>
       <c r="E46" s="3">
-        <v>283000</v>
+        <v>276400</v>
       </c>
       <c r="F46" s="3">
-        <v>383500</v>
+        <v>374700</v>
       </c>
       <c r="G46" s="3">
-        <v>398300</v>
+        <v>389100</v>
       </c>
       <c r="H46" s="3">
-        <v>412300</v>
+        <v>402800</v>
       </c>
       <c r="I46" s="3">
-        <v>368900</v>
+        <v>360400</v>
       </c>
       <c r="J46" s="3">
-        <v>179200</v>
+        <v>175000</v>
       </c>
       <c r="K46" s="3">
         <v>169500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67300</v>
+        <v>65800</v>
       </c>
       <c r="E47" s="3">
-        <v>57100</v>
+        <v>55800</v>
       </c>
       <c r="F47" s="3">
-        <v>19700</v>
+        <v>19200</v>
       </c>
       <c r="G47" s="3">
-        <v>21200</v>
+        <v>20700</v>
       </c>
       <c r="H47" s="3">
-        <v>22500</v>
+        <v>22000</v>
       </c>
       <c r="I47" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="J47" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="K47" s="3">
         <v>29300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>248200</v>
+        <v>242400</v>
       </c>
       <c r="E48" s="3">
-        <v>261900</v>
+        <v>255900</v>
       </c>
       <c r="F48" s="3">
-        <v>177300</v>
+        <v>173200</v>
       </c>
       <c r="G48" s="3">
-        <v>181400</v>
+        <v>177200</v>
       </c>
       <c r="H48" s="3">
-        <v>204100</v>
+        <v>199400</v>
       </c>
       <c r="I48" s="3">
-        <v>221400</v>
+        <v>216300</v>
       </c>
       <c r="J48" s="3">
-        <v>109200</v>
+        <v>106700</v>
       </c>
       <c r="K48" s="3">
         <v>112000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2329300</v>
+        <v>2275500</v>
       </c>
       <c r="E49" s="3">
-        <v>2461500</v>
+        <v>2404700</v>
       </c>
       <c r="F49" s="3">
-        <v>2998800</v>
+        <v>2929700</v>
       </c>
       <c r="G49" s="3">
-        <v>3124500</v>
+        <v>3052400</v>
       </c>
       <c r="H49" s="3">
-        <v>4019900</v>
+        <v>3927100</v>
       </c>
       <c r="I49" s="3">
-        <v>4076200</v>
+        <v>3982200</v>
       </c>
       <c r="J49" s="3">
-        <v>1691100</v>
+        <v>1652000</v>
       </c>
       <c r="K49" s="3">
         <v>1813300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="E52" s="3">
-        <v>52600</v>
+        <v>51400</v>
       </c>
       <c r="F52" s="3">
-        <v>87200</v>
+        <v>85200</v>
       </c>
       <c r="G52" s="3">
-        <v>106400</v>
+        <v>104000</v>
       </c>
       <c r="H52" s="3">
-        <v>102900</v>
+        <v>100500</v>
       </c>
       <c r="I52" s="3">
-        <v>87500</v>
+        <v>85500</v>
       </c>
       <c r="J52" s="3">
-        <v>53000</v>
+        <v>51800</v>
       </c>
       <c r="K52" s="3">
         <v>47000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3026400</v>
+        <v>2956600</v>
       </c>
       <c r="E54" s="3">
-        <v>3116100</v>
+        <v>3044200</v>
       </c>
       <c r="F54" s="3">
-        <v>3666500</v>
+        <v>3582000</v>
       </c>
       <c r="G54" s="3">
-        <v>3831800</v>
+        <v>3743500</v>
       </c>
       <c r="H54" s="3">
-        <v>4761700</v>
+        <v>4651900</v>
       </c>
       <c r="I54" s="3">
-        <v>4781700</v>
+        <v>4671400</v>
       </c>
       <c r="J54" s="3">
-        <v>2065500</v>
+        <v>2017900</v>
       </c>
       <c r="K54" s="3">
         <v>2171100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>338600</v>
+        <v>330800</v>
       </c>
       <c r="E57" s="3">
-        <v>289200</v>
+        <v>282600</v>
       </c>
       <c r="F57" s="3">
-        <v>297500</v>
+        <v>290600</v>
       </c>
       <c r="G57" s="3">
-        <v>291000</v>
+        <v>284300</v>
       </c>
       <c r="H57" s="3">
-        <v>326200</v>
+        <v>318700</v>
       </c>
       <c r="I57" s="3">
-        <v>308700</v>
+        <v>301600</v>
       </c>
       <c r="J57" s="3">
-        <v>165600</v>
+        <v>161700</v>
       </c>
       <c r="K57" s="3">
         <v>132900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39300</v>
+        <v>38400</v>
       </c>
       <c r="E58" s="3">
-        <v>71100</v>
+        <v>69500</v>
       </c>
       <c r="F58" s="3">
-        <v>61000</v>
+        <v>59600</v>
       </c>
       <c r="G58" s="3">
-        <v>86000</v>
+        <v>84000</v>
       </c>
       <c r="H58" s="3">
-        <v>135400</v>
+        <v>132200</v>
       </c>
       <c r="I58" s="3">
-        <v>90200</v>
+        <v>88200</v>
       </c>
       <c r="J58" s="3">
-        <v>117700</v>
+        <v>115000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55600</v>
+        <v>54300</v>
       </c>
       <c r="E59" s="3">
-        <v>70700</v>
+        <v>69100</v>
       </c>
       <c r="F59" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="G59" s="3">
-        <v>33700</v>
+        <v>33000</v>
       </c>
       <c r="H59" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="I59" s="3">
-        <v>18300</v>
+        <v>17900</v>
       </c>
       <c r="J59" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="K59" s="3">
         <v>4100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>433400</v>
+        <v>423500</v>
       </c>
       <c r="E60" s="3">
-        <v>431100</v>
+        <v>421100</v>
       </c>
       <c r="F60" s="3">
-        <v>405000</v>
+        <v>395700</v>
       </c>
       <c r="G60" s="3">
-        <v>410700</v>
+        <v>401200</v>
       </c>
       <c r="H60" s="3">
-        <v>473900</v>
+        <v>463000</v>
       </c>
       <c r="I60" s="3">
-        <v>417300</v>
+        <v>407700</v>
       </c>
       <c r="J60" s="3">
-        <v>290300</v>
+        <v>283600</v>
       </c>
       <c r="K60" s="3">
         <v>137000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1132200</v>
+        <v>1106100</v>
       </c>
       <c r="E61" s="3">
-        <v>1227400</v>
+        <v>1199100</v>
       </c>
       <c r="F61" s="3">
-        <v>1299100</v>
+        <v>1269100</v>
       </c>
       <c r="G61" s="3">
-        <v>1475200</v>
+        <v>1441200</v>
       </c>
       <c r="H61" s="3">
-        <v>1506000</v>
+        <v>1471200</v>
       </c>
       <c r="I61" s="3">
-        <v>1633100</v>
+        <v>1595400</v>
       </c>
       <c r="J61" s="3">
-        <v>510900</v>
+        <v>499100</v>
       </c>
       <c r="K61" s="3">
         <v>681600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>503100</v>
+        <v>491500</v>
       </c>
       <c r="E62" s="3">
-        <v>634900</v>
+        <v>620300</v>
       </c>
       <c r="F62" s="3">
-        <v>595200</v>
+        <v>581500</v>
       </c>
       <c r="G62" s="3">
-        <v>630100</v>
+        <v>615600</v>
       </c>
       <c r="H62" s="3">
-        <v>741800</v>
+        <v>724700</v>
       </c>
       <c r="I62" s="3">
-        <v>788100</v>
+        <v>769900</v>
       </c>
       <c r="J62" s="3">
-        <v>307100</v>
+        <v>300000</v>
       </c>
       <c r="K62" s="3">
         <v>331000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2188700</v>
+        <v>2138200</v>
       </c>
       <c r="E66" s="3">
-        <v>2410000</v>
+        <v>2354400</v>
       </c>
       <c r="F66" s="3">
-        <v>2413500</v>
+        <v>2357900</v>
       </c>
       <c r="G66" s="3">
-        <v>2637200</v>
+        <v>2576300</v>
       </c>
       <c r="H66" s="3">
-        <v>2846400</v>
+        <v>2780700</v>
       </c>
       <c r="I66" s="3">
-        <v>2962800</v>
+        <v>2894400</v>
       </c>
       <c r="J66" s="3">
-        <v>1121800</v>
+        <v>1095900</v>
       </c>
       <c r="K66" s="3">
         <v>1163100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1006700</v>
+        <v>-983500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1118600</v>
+        <v>-1092800</v>
       </c>
       <c r="F72" s="3">
-        <v>-595400</v>
+        <v>-581700</v>
       </c>
       <c r="G72" s="3">
-        <v>-672300</v>
+        <v>-656800</v>
       </c>
       <c r="H72" s="3">
-        <v>89800</v>
+        <v>87800</v>
       </c>
       <c r="I72" s="3">
-        <v>111800</v>
+        <v>109200</v>
       </c>
       <c r="J72" s="3">
-        <v>150000</v>
+        <v>146600</v>
       </c>
       <c r="K72" s="3">
         <v>244300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>837700</v>
+        <v>818400</v>
       </c>
       <c r="E76" s="3">
-        <v>706100</v>
+        <v>689800</v>
       </c>
       <c r="F76" s="3">
-        <v>1253000</v>
+        <v>1224100</v>
       </c>
       <c r="G76" s="3">
-        <v>1194700</v>
+        <v>1167100</v>
       </c>
       <c r="H76" s="3">
-        <v>1915300</v>
+        <v>1871100</v>
       </c>
       <c r="I76" s="3">
-        <v>1819000</v>
+        <v>1777000</v>
       </c>
       <c r="J76" s="3">
-        <v>943700</v>
+        <v>921900</v>
       </c>
       <c r="K76" s="3">
         <v>1008000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135400</v>
+        <v>132300</v>
       </c>
       <c r="E81" s="3">
-        <v>-490700</v>
+        <v>-479400</v>
       </c>
       <c r="F81" s="3">
-        <v>122500</v>
+        <v>119700</v>
       </c>
       <c r="G81" s="3">
-        <v>-615600</v>
+        <v>-601400</v>
       </c>
       <c r="H81" s="3">
-        <v>150400</v>
+        <v>146900</v>
       </c>
       <c r="I81" s="3">
-        <v>98800</v>
+        <v>96500</v>
       </c>
       <c r="J81" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="K81" s="3">
         <v>117300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E83" s="3">
         <v>517000</v>
       </c>
-      <c r="E83" s="3">
-        <v>529200</v>
-      </c>
       <c r="F83" s="3">
-        <v>560900</v>
+        <v>548000</v>
       </c>
       <c r="G83" s="3">
-        <v>482100</v>
+        <v>471000</v>
       </c>
       <c r="H83" s="3">
-        <v>491600</v>
+        <v>480200</v>
       </c>
       <c r="I83" s="3">
-        <v>321700</v>
+        <v>314300</v>
       </c>
       <c r="J83" s="3">
-        <v>208200</v>
+        <v>203400</v>
       </c>
       <c r="K83" s="3">
         <v>196100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>215400</v>
+        <v>210400</v>
       </c>
       <c r="E89" s="3">
-        <v>245800</v>
+        <v>240200</v>
       </c>
       <c r="F89" s="3">
-        <v>269600</v>
+        <v>263400</v>
       </c>
       <c r="G89" s="3">
-        <v>291100</v>
+        <v>284400</v>
       </c>
       <c r="H89" s="3">
-        <v>234000</v>
+        <v>228600</v>
       </c>
       <c r="I89" s="3">
-        <v>157100</v>
+        <v>153500</v>
       </c>
       <c r="J89" s="3">
-        <v>165100</v>
+        <v>161300</v>
       </c>
       <c r="K89" s="3">
         <v>151600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12100</v>
+        <v>-11800</v>
       </c>
       <c r="F91" s="3">
-        <v>-23600</v>
+        <v>-23000</v>
       </c>
       <c r="G91" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="H91" s="3">
-        <v>-21200</v>
+        <v>-20700</v>
       </c>
       <c r="I91" s="3">
-        <v>-17700</v>
+        <v>-17300</v>
       </c>
       <c r="J91" s="3">
-        <v>-13100</v>
+        <v>-12800</v>
       </c>
       <c r="K91" s="3">
         <v>-9300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-23700</v>
-      </c>
       <c r="G94" s="3">
-        <v>-20100</v>
+        <v>-19600</v>
       </c>
       <c r="H94" s="3">
-        <v>-16400</v>
+        <v>-16000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1301400</v>
+        <v>-1271400</v>
       </c>
       <c r="J94" s="3">
-        <v>-22700</v>
+        <v>-22200</v>
       </c>
       <c r="K94" s="3">
         <v>-410300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-39200</v>
+        <v>-38300</v>
       </c>
       <c r="E96" s="3">
-        <v>-39600</v>
+        <v>-38600</v>
       </c>
       <c r="F96" s="3">
-        <v>-29900</v>
+        <v>-29200</v>
       </c>
       <c r="G96" s="3">
-        <v>-156000</v>
+        <v>-152400</v>
       </c>
       <c r="H96" s="3">
-        <v>-83200</v>
+        <v>-81300</v>
       </c>
       <c r="I96" s="3">
-        <v>-70400</v>
+        <v>-68800</v>
       </c>
       <c r="J96" s="3">
-        <v>-59800</v>
+        <v>-58400</v>
       </c>
       <c r="K96" s="3">
         <v>-51000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-194000</v>
+        <v>-189500</v>
       </c>
       <c r="E100" s="3">
-        <v>-259700</v>
+        <v>-253700</v>
       </c>
       <c r="F100" s="3">
-        <v>-255500</v>
+        <v>-249600</v>
       </c>
       <c r="G100" s="3">
-        <v>-270100</v>
+        <v>-263900</v>
       </c>
       <c r="H100" s="3">
-        <v>-200000</v>
+        <v>-195400</v>
       </c>
       <c r="I100" s="3">
-        <v>1170900</v>
+        <v>1143900</v>
       </c>
       <c r="J100" s="3">
-        <v>-122100</v>
+        <v>-119300</v>
       </c>
       <c r="K100" s="3">
         <v>204300</v>
@@ -4001,22 +4001,22 @@
         <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-28800</v>
+        <v>-28100</v>
       </c>
       <c r="F102" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="G102" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H102" s="3">
-        <v>17500</v>
+        <v>17100</v>
       </c>
       <c r="I102" s="3">
-        <v>26600</v>
+        <v>26000</v>
       </c>
       <c r="J102" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="K102" s="3">
         <v>-54300</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1183300</v>
+        <v>1194300</v>
       </c>
       <c r="E8" s="3">
-        <v>1158600</v>
+        <v>1169300</v>
       </c>
       <c r="F8" s="3">
-        <v>1293700</v>
+        <v>1305700</v>
       </c>
       <c r="G8" s="3">
-        <v>1262900</v>
+        <v>1274600</v>
       </c>
       <c r="H8" s="3">
-        <v>1287200</v>
+        <v>1299100</v>
       </c>
       <c r="I8" s="3">
-        <v>898000</v>
+        <v>906300</v>
       </c>
       <c r="J8" s="3">
-        <v>625100</v>
+        <v>630800</v>
       </c>
       <c r="K8" s="3">
         <v>649500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>414300</v>
+        <v>418100</v>
       </c>
       <c r="E9" s="3">
-        <v>418100</v>
+        <v>422000</v>
       </c>
       <c r="F9" s="3">
-        <v>434900</v>
+        <v>438900</v>
       </c>
       <c r="G9" s="3">
-        <v>429200</v>
+        <v>433200</v>
       </c>
       <c r="H9" s="3">
-        <v>431100</v>
+        <v>435100</v>
       </c>
       <c r="I9" s="3">
-        <v>274800</v>
+        <v>277300</v>
       </c>
       <c r="J9" s="3">
-        <v>204000</v>
+        <v>205900</v>
       </c>
       <c r="K9" s="3">
         <v>198900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>769000</v>
+        <v>776100</v>
       </c>
       <c r="E10" s="3">
-        <v>740500</v>
+        <v>747300</v>
       </c>
       <c r="F10" s="3">
-        <v>858800</v>
+        <v>866800</v>
       </c>
       <c r="G10" s="3">
-        <v>833700</v>
+        <v>841500</v>
       </c>
       <c r="H10" s="3">
-        <v>856100</v>
+        <v>864100</v>
       </c>
       <c r="I10" s="3">
-        <v>623200</v>
+        <v>629000</v>
       </c>
       <c r="J10" s="3">
-        <v>421000</v>
+        <v>424900</v>
       </c>
       <c r="K10" s="3">
         <v>450600</v>
@@ -938,22 +938,22 @@
         <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>591100</v>
+        <v>596600</v>
       </c>
       <c r="F14" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="G14" s="3">
-        <v>790200</v>
+        <v>797600</v>
       </c>
       <c r="H14" s="3">
-        <v>28500</v>
+        <v>28800</v>
       </c>
       <c r="I14" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="J14" s="3">
-        <v>154000</v>
+        <v>155400</v>
       </c>
       <c r="K14" s="3">
         <v>700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>116700</v>
+        <v>117800</v>
       </c>
       <c r="E15" s="3">
-        <v>121600</v>
+        <v>122700</v>
       </c>
       <c r="F15" s="3">
-        <v>139800</v>
+        <v>141100</v>
       </c>
       <c r="G15" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="H15" s="3">
-        <v>70300</v>
+        <v>71000</v>
       </c>
       <c r="I15" s="3">
-        <v>56700</v>
+        <v>57200</v>
       </c>
       <c r="J15" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="K15" s="3">
         <v>18800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>981400</v>
+        <v>990500</v>
       </c>
       <c r="E17" s="3">
-        <v>1592300</v>
+        <v>1607100</v>
       </c>
       <c r="F17" s="3">
-        <v>1100400</v>
+        <v>1110600</v>
       </c>
       <c r="G17" s="3">
-        <v>1776600</v>
+        <v>1793100</v>
       </c>
       <c r="H17" s="3">
-        <v>1052200</v>
+        <v>1061900</v>
       </c>
       <c r="I17" s="3">
-        <v>756000</v>
+        <v>763100</v>
       </c>
       <c r="J17" s="3">
-        <v>616200</v>
+        <v>622000</v>
       </c>
       <c r="K17" s="3">
         <v>486100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>201900</v>
+        <v>203800</v>
       </c>
       <c r="E18" s="3">
-        <v>-433700</v>
+        <v>-437800</v>
       </c>
       <c r="F18" s="3">
-        <v>193300</v>
+        <v>195100</v>
       </c>
       <c r="G18" s="3">
-        <v>-513700</v>
+        <v>-518400</v>
       </c>
       <c r="H18" s="3">
-        <v>235000</v>
+        <v>237200</v>
       </c>
       <c r="I18" s="3">
-        <v>141900</v>
+        <v>143200</v>
       </c>
       <c r="J18" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="K18" s="3">
         <v>163400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>708900</v>
+        <v>711900</v>
       </c>
       <c r="E21" s="3">
-        <v>85300</v>
+        <v>82400</v>
       </c>
       <c r="F21" s="3">
-        <v>743400</v>
+        <v>746400</v>
       </c>
       <c r="G21" s="3">
-        <v>-40800</v>
+        <v>-44600</v>
       </c>
       <c r="H21" s="3">
-        <v>717200</v>
+        <v>720400</v>
       </c>
       <c r="I21" s="3">
-        <v>457500</v>
+        <v>459500</v>
       </c>
       <c r="J21" s="3">
-        <v>213000</v>
+        <v>213600</v>
       </c>
       <c r="K21" s="3">
         <v>362200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>201900</v>
+        <v>203800</v>
       </c>
       <c r="E23" s="3">
-        <v>-433700</v>
+        <v>-437800</v>
       </c>
       <c r="F23" s="3">
-        <v>193300</v>
+        <v>195100</v>
       </c>
       <c r="G23" s="3">
-        <v>-513700</v>
+        <v>-518400</v>
       </c>
       <c r="H23" s="3">
-        <v>235000</v>
+        <v>237200</v>
       </c>
       <c r="I23" s="3">
-        <v>141900</v>
+        <v>143200</v>
       </c>
       <c r="J23" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="K23" s="3">
         <v>163400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52700</v>
+        <v>53200</v>
       </c>
       <c r="E24" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>55300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>63800</v>
+      </c>
+      <c r="I24" s="3">
         <v>32200</v>
       </c>
-      <c r="F24" s="3">
-        <v>54800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>67600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>63200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>31900</v>
-      </c>
       <c r="J24" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="K24" s="3">
         <v>41700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149200</v>
+        <v>150600</v>
       </c>
       <c r="E26" s="3">
-        <v>-465900</v>
+        <v>-470200</v>
       </c>
       <c r="F26" s="3">
-        <v>138500</v>
+        <v>139800</v>
       </c>
       <c r="G26" s="3">
-        <v>-581200</v>
+        <v>-586600</v>
       </c>
       <c r="H26" s="3">
-        <v>171800</v>
+        <v>173400</v>
       </c>
       <c r="I26" s="3">
-        <v>110100</v>
+        <v>111100</v>
       </c>
       <c r="J26" s="3">
-        <v>-14900</v>
+        <v>-15100</v>
       </c>
       <c r="K26" s="3">
         <v>121800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132300</v>
+        <v>133500</v>
       </c>
       <c r="E27" s="3">
-        <v>-479400</v>
+        <v>-483900</v>
       </c>
       <c r="F27" s="3">
-        <v>119700</v>
+        <v>120800</v>
       </c>
       <c r="G27" s="3">
-        <v>-601400</v>
+        <v>-607000</v>
       </c>
       <c r="H27" s="3">
-        <v>146900</v>
+        <v>148300</v>
       </c>
       <c r="I27" s="3">
-        <v>96500</v>
+        <v>97400</v>
       </c>
       <c r="J27" s="3">
-        <v>-19300</v>
+        <v>-19500</v>
       </c>
       <c r="K27" s="3">
         <v>117300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132300</v>
+        <v>133500</v>
       </c>
       <c r="E33" s="3">
-        <v>-479400</v>
+        <v>-483900</v>
       </c>
       <c r="F33" s="3">
-        <v>119700</v>
+        <v>120800</v>
       </c>
       <c r="G33" s="3">
-        <v>-601400</v>
+        <v>-607000</v>
       </c>
       <c r="H33" s="3">
-        <v>146900</v>
+        <v>148300</v>
       </c>
       <c r="I33" s="3">
-        <v>96500</v>
+        <v>97400</v>
       </c>
       <c r="J33" s="3">
-        <v>-19300</v>
+        <v>-19500</v>
       </c>
       <c r="K33" s="3">
         <v>117300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132300</v>
+        <v>133500</v>
       </c>
       <c r="E35" s="3">
-        <v>-479400</v>
+        <v>-483900</v>
       </c>
       <c r="F35" s="3">
-        <v>119700</v>
+        <v>120800</v>
       </c>
       <c r="G35" s="3">
-        <v>-601400</v>
+        <v>-607000</v>
       </c>
       <c r="H35" s="3">
-        <v>146900</v>
+        <v>148300</v>
       </c>
       <c r="I35" s="3">
-        <v>96500</v>
+        <v>97400</v>
       </c>
       <c r="J35" s="3">
-        <v>-19300</v>
+        <v>-19500</v>
       </c>
       <c r="K35" s="3">
         <v>117300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33500</v>
+        <v>33800</v>
       </c>
       <c r="E41" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="F41" s="3">
-        <v>63300</v>
+        <v>63900</v>
       </c>
       <c r="G41" s="3">
-        <v>72700</v>
+        <v>73400</v>
       </c>
       <c r="H41" s="3">
-        <v>71800</v>
+        <v>72500</v>
       </c>
       <c r="I41" s="3">
-        <v>54700</v>
+        <v>55200</v>
       </c>
       <c r="J41" s="3">
-        <v>28700</v>
+        <v>29000</v>
       </c>
       <c r="K41" s="3">
         <v>9000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>253900</v>
+        <v>256300</v>
       </c>
       <c r="E43" s="3">
-        <v>228100</v>
+        <v>230300</v>
       </c>
       <c r="F43" s="3">
-        <v>296400</v>
+        <v>299100</v>
       </c>
       <c r="G43" s="3">
-        <v>300600</v>
+        <v>303400</v>
       </c>
       <c r="H43" s="3">
-        <v>314200</v>
+        <v>317100</v>
       </c>
       <c r="I43" s="3">
-        <v>291200</v>
+        <v>293900</v>
       </c>
       <c r="J43" s="3">
-        <v>135700</v>
+        <v>137000</v>
       </c>
       <c r="K43" s="3">
         <v>150300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F45" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="G45" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="H45" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="I45" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="J45" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="K45" s="3">
         <v>10200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>305900</v>
+        <v>308700</v>
       </c>
       <c r="E46" s="3">
-        <v>276400</v>
+        <v>279000</v>
       </c>
       <c r="F46" s="3">
-        <v>374700</v>
+        <v>378200</v>
       </c>
       <c r="G46" s="3">
-        <v>389100</v>
+        <v>392700</v>
       </c>
       <c r="H46" s="3">
-        <v>402800</v>
+        <v>406500</v>
       </c>
       <c r="I46" s="3">
-        <v>360400</v>
+        <v>363700</v>
       </c>
       <c r="J46" s="3">
-        <v>175000</v>
+        <v>176700</v>
       </c>
       <c r="K46" s="3">
         <v>169500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65800</v>
+        <v>66400</v>
       </c>
       <c r="E47" s="3">
-        <v>55800</v>
+        <v>56300</v>
       </c>
       <c r="F47" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="G47" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="H47" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="I47" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="J47" s="3">
-        <v>32300</v>
+        <v>32600</v>
       </c>
       <c r="K47" s="3">
         <v>29300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>242400</v>
+        <v>244700</v>
       </c>
       <c r="E48" s="3">
-        <v>255900</v>
+        <v>258200</v>
       </c>
       <c r="F48" s="3">
-        <v>173200</v>
+        <v>174800</v>
       </c>
       <c r="G48" s="3">
-        <v>177200</v>
+        <v>178900</v>
       </c>
       <c r="H48" s="3">
-        <v>199400</v>
+        <v>201200</v>
       </c>
       <c r="I48" s="3">
-        <v>216300</v>
+        <v>218300</v>
       </c>
       <c r="J48" s="3">
-        <v>106700</v>
+        <v>107700</v>
       </c>
       <c r="K48" s="3">
         <v>112000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2275500</v>
+        <v>2296600</v>
       </c>
       <c r="E49" s="3">
-        <v>2404700</v>
+        <v>2427000</v>
       </c>
       <c r="F49" s="3">
-        <v>2929700</v>
+        <v>2956800</v>
       </c>
       <c r="G49" s="3">
-        <v>3052400</v>
+        <v>3080700</v>
       </c>
       <c r="H49" s="3">
-        <v>3927100</v>
+        <v>3963600</v>
       </c>
       <c r="I49" s="3">
-        <v>3982200</v>
+        <v>4019100</v>
       </c>
       <c r="J49" s="3">
-        <v>1652000</v>
+        <v>1667400</v>
       </c>
       <c r="K49" s="3">
         <v>1813300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67000</v>
+        <v>67600</v>
       </c>
       <c r="E52" s="3">
-        <v>51400</v>
+        <v>51900</v>
       </c>
       <c r="F52" s="3">
-        <v>85200</v>
+        <v>86000</v>
       </c>
       <c r="G52" s="3">
-        <v>104000</v>
+        <v>104900</v>
       </c>
       <c r="H52" s="3">
-        <v>100500</v>
+        <v>101400</v>
       </c>
       <c r="I52" s="3">
-        <v>85500</v>
+        <v>86300</v>
       </c>
       <c r="J52" s="3">
-        <v>51800</v>
+        <v>52300</v>
       </c>
       <c r="K52" s="3">
         <v>47000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2956600</v>
+        <v>2984100</v>
       </c>
       <c r="E54" s="3">
-        <v>3044200</v>
+        <v>3072500</v>
       </c>
       <c r="F54" s="3">
-        <v>3582000</v>
+        <v>3615200</v>
       </c>
       <c r="G54" s="3">
-        <v>3743500</v>
+        <v>3778200</v>
       </c>
       <c r="H54" s="3">
-        <v>4651900</v>
+        <v>4695000</v>
       </c>
       <c r="I54" s="3">
-        <v>4671400</v>
+        <v>4714800</v>
       </c>
       <c r="J54" s="3">
-        <v>2017900</v>
+        <v>2036600</v>
       </c>
       <c r="K54" s="3">
         <v>2171100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>330800</v>
+        <v>333900</v>
       </c>
       <c r="E57" s="3">
-        <v>282600</v>
+        <v>285200</v>
       </c>
       <c r="F57" s="3">
-        <v>290600</v>
+        <v>293300</v>
       </c>
       <c r="G57" s="3">
-        <v>284300</v>
+        <v>286900</v>
       </c>
       <c r="H57" s="3">
-        <v>318700</v>
+        <v>321600</v>
       </c>
       <c r="I57" s="3">
-        <v>301600</v>
+        <v>304400</v>
       </c>
       <c r="J57" s="3">
-        <v>161700</v>
+        <v>163200</v>
       </c>
       <c r="K57" s="3">
         <v>132900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38400</v>
+        <v>38700</v>
       </c>
       <c r="E58" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="F58" s="3">
-        <v>59600</v>
+        <v>60200</v>
       </c>
       <c r="G58" s="3">
-        <v>84000</v>
+        <v>84700</v>
       </c>
       <c r="H58" s="3">
-        <v>132200</v>
+        <v>133500</v>
       </c>
       <c r="I58" s="3">
-        <v>88200</v>
+        <v>89000</v>
       </c>
       <c r="J58" s="3">
-        <v>115000</v>
+        <v>116100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54300</v>
+        <v>54800</v>
       </c>
       <c r="E59" s="3">
-        <v>69100</v>
+        <v>69800</v>
       </c>
       <c r="F59" s="3">
-        <v>45400</v>
+        <v>45900</v>
       </c>
       <c r="G59" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="H59" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="I59" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="J59" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K59" s="3">
         <v>4100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>423500</v>
+        <v>427400</v>
       </c>
       <c r="E60" s="3">
-        <v>421100</v>
+        <v>425100</v>
       </c>
       <c r="F60" s="3">
-        <v>395700</v>
+        <v>399400</v>
       </c>
       <c r="G60" s="3">
-        <v>401200</v>
+        <v>404900</v>
       </c>
       <c r="H60" s="3">
-        <v>463000</v>
+        <v>467300</v>
       </c>
       <c r="I60" s="3">
-        <v>407700</v>
+        <v>411400</v>
       </c>
       <c r="J60" s="3">
-        <v>283600</v>
+        <v>286200</v>
       </c>
       <c r="K60" s="3">
         <v>137000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1106100</v>
+        <v>1116300</v>
       </c>
       <c r="E61" s="3">
-        <v>1199100</v>
+        <v>1210200</v>
       </c>
       <c r="F61" s="3">
-        <v>1269100</v>
+        <v>1280900</v>
       </c>
       <c r="G61" s="3">
-        <v>1441200</v>
+        <v>1454500</v>
       </c>
       <c r="H61" s="3">
-        <v>1471200</v>
+        <v>1484900</v>
       </c>
       <c r="I61" s="3">
-        <v>1595400</v>
+        <v>1610200</v>
       </c>
       <c r="J61" s="3">
-        <v>499100</v>
+        <v>503700</v>
       </c>
       <c r="K61" s="3">
         <v>681600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>491500</v>
+        <v>496100</v>
       </c>
       <c r="E62" s="3">
-        <v>620300</v>
+        <v>626000</v>
       </c>
       <c r="F62" s="3">
-        <v>581500</v>
+        <v>586900</v>
       </c>
       <c r="G62" s="3">
-        <v>615600</v>
+        <v>621300</v>
       </c>
       <c r="H62" s="3">
-        <v>724700</v>
+        <v>731400</v>
       </c>
       <c r="I62" s="3">
-        <v>769900</v>
+        <v>777100</v>
       </c>
       <c r="J62" s="3">
-        <v>300000</v>
+        <v>302800</v>
       </c>
       <c r="K62" s="3">
         <v>331000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2138200</v>
+        <v>2158100</v>
       </c>
       <c r="E66" s="3">
-        <v>2354400</v>
+        <v>2376200</v>
       </c>
       <c r="F66" s="3">
-        <v>2357900</v>
+        <v>2379700</v>
       </c>
       <c r="G66" s="3">
-        <v>2576300</v>
+        <v>2600200</v>
       </c>
       <c r="H66" s="3">
-        <v>2780700</v>
+        <v>2806500</v>
       </c>
       <c r="I66" s="3">
-        <v>2894400</v>
+        <v>2921300</v>
       </c>
       <c r="J66" s="3">
-        <v>1095900</v>
+        <v>1106100</v>
       </c>
       <c r="K66" s="3">
         <v>1163100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-983500</v>
+        <v>-992600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1092800</v>
+        <v>-1102900</v>
       </c>
       <c r="F72" s="3">
-        <v>-581700</v>
+        <v>-587100</v>
       </c>
       <c r="G72" s="3">
-        <v>-656800</v>
+        <v>-662800</v>
       </c>
       <c r="H72" s="3">
-        <v>87800</v>
+        <v>88600</v>
       </c>
       <c r="I72" s="3">
-        <v>109200</v>
+        <v>110300</v>
       </c>
       <c r="J72" s="3">
-        <v>146600</v>
+        <v>147900</v>
       </c>
       <c r="K72" s="3">
         <v>244300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>818400</v>
+        <v>826000</v>
       </c>
       <c r="E76" s="3">
-        <v>689800</v>
+        <v>696200</v>
       </c>
       <c r="F76" s="3">
-        <v>1224100</v>
+        <v>1235500</v>
       </c>
       <c r="G76" s="3">
-        <v>1167100</v>
+        <v>1177900</v>
       </c>
       <c r="H76" s="3">
-        <v>1871100</v>
+        <v>1888500</v>
       </c>
       <c r="I76" s="3">
-        <v>1777000</v>
+        <v>1793500</v>
       </c>
       <c r="J76" s="3">
-        <v>921900</v>
+        <v>930500</v>
       </c>
       <c r="K76" s="3">
         <v>1008000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132300</v>
+        <v>133500</v>
       </c>
       <c r="E81" s="3">
-        <v>-479400</v>
+        <v>-483900</v>
       </c>
       <c r="F81" s="3">
-        <v>119700</v>
+        <v>120800</v>
       </c>
       <c r="G81" s="3">
-        <v>-601400</v>
+        <v>-607000</v>
       </c>
       <c r="H81" s="3">
-        <v>146900</v>
+        <v>148300</v>
       </c>
       <c r="I81" s="3">
-        <v>96500</v>
+        <v>97400</v>
       </c>
       <c r="J81" s="3">
-        <v>-19300</v>
+        <v>-19500</v>
       </c>
       <c r="K81" s="3">
         <v>117300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>505000</v>
+        <v>509700</v>
       </c>
       <c r="E83" s="3">
-        <v>517000</v>
+        <v>521800</v>
       </c>
       <c r="F83" s="3">
-        <v>548000</v>
+        <v>553100</v>
       </c>
       <c r="G83" s="3">
-        <v>471000</v>
+        <v>475400</v>
       </c>
       <c r="H83" s="3">
-        <v>480200</v>
+        <v>484700</v>
       </c>
       <c r="I83" s="3">
-        <v>314300</v>
+        <v>317200</v>
       </c>
       <c r="J83" s="3">
-        <v>203400</v>
+        <v>205300</v>
       </c>
       <c r="K83" s="3">
         <v>196100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>210400</v>
+        <v>212400</v>
       </c>
       <c r="E89" s="3">
-        <v>240200</v>
+        <v>242400</v>
       </c>
       <c r="F89" s="3">
-        <v>263400</v>
+        <v>265800</v>
       </c>
       <c r="G89" s="3">
-        <v>284400</v>
+        <v>287000</v>
       </c>
       <c r="H89" s="3">
-        <v>228600</v>
+        <v>230700</v>
       </c>
       <c r="I89" s="3">
-        <v>153500</v>
+        <v>154900</v>
       </c>
       <c r="J89" s="3">
-        <v>161300</v>
+        <v>162800</v>
       </c>
       <c r="K89" s="3">
         <v>151600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="E91" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="F91" s="3">
-        <v>-23000</v>
+        <v>-23300</v>
       </c>
       <c r="G91" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="H91" s="3">
-        <v>-20700</v>
+        <v>-20900</v>
       </c>
       <c r="I91" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J91" s="3">
-        <v>-12800</v>
+        <v>-12900</v>
       </c>
       <c r="K91" s="3">
         <v>-9300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="E94" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="F94" s="3">
-        <v>-23200</v>
+        <v>-23400</v>
       </c>
       <c r="G94" s="3">
-        <v>-19600</v>
+        <v>-19800</v>
       </c>
       <c r="H94" s="3">
-        <v>-16000</v>
+        <v>-16200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1271400</v>
+        <v>-1283200</v>
       </c>
       <c r="J94" s="3">
-        <v>-22200</v>
+        <v>-22400</v>
       </c>
       <c r="K94" s="3">
         <v>-410300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38300</v>
+        <v>-38700</v>
       </c>
       <c r="E96" s="3">
-        <v>-38600</v>
+        <v>-39000</v>
       </c>
       <c r="F96" s="3">
-        <v>-29200</v>
+        <v>-29500</v>
       </c>
       <c r="G96" s="3">
-        <v>-152400</v>
+        <v>-153800</v>
       </c>
       <c r="H96" s="3">
-        <v>-81300</v>
+        <v>-82100</v>
       </c>
       <c r="I96" s="3">
-        <v>-68800</v>
+        <v>-69400</v>
       </c>
       <c r="J96" s="3">
-        <v>-58400</v>
+        <v>-59000</v>
       </c>
       <c r="K96" s="3">
         <v>-51000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-189500</v>
+        <v>-191300</v>
       </c>
       <c r="E100" s="3">
-        <v>-253700</v>
+        <v>-256100</v>
       </c>
       <c r="F100" s="3">
-        <v>-249600</v>
+        <v>-251900</v>
       </c>
       <c r="G100" s="3">
-        <v>-263900</v>
+        <v>-266300</v>
       </c>
       <c r="H100" s="3">
-        <v>-195400</v>
+        <v>-197200</v>
       </c>
       <c r="I100" s="3">
-        <v>1143900</v>
+        <v>1154500</v>
       </c>
       <c r="J100" s="3">
-        <v>-119300</v>
+        <v>-120400</v>
       </c>
       <c r="K100" s="3">
         <v>204300</v>
@@ -4001,22 +4001,22 @@
         <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-28100</v>
+        <v>-28400</v>
       </c>
       <c r="F102" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="G102" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H102" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="I102" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="J102" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="K102" s="3">
         <v>-54300</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>CJREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43343</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42978</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42613</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42247</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41882</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41517</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41152</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40786</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1194300</v>
+        <v>1200300</v>
       </c>
       <c r="E8" s="3">
-        <v>1169300</v>
+        <v>1158900</v>
       </c>
       <c r="F8" s="3">
-        <v>1305700</v>
+        <v>1134700</v>
       </c>
       <c r="G8" s="3">
-        <v>1274600</v>
+        <v>1267100</v>
       </c>
       <c r="H8" s="3">
-        <v>1299100</v>
+        <v>1236900</v>
       </c>
       <c r="I8" s="3">
-        <v>906300</v>
+        <v>1260700</v>
       </c>
       <c r="J8" s="3">
+        <v>879500</v>
+      </c>
+      <c r="K8" s="3">
         <v>630800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>649500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>572000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>626800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>634000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>418100</v>
+        <v>471000</v>
       </c>
       <c r="E9" s="3">
-        <v>422000</v>
+        <v>405800</v>
       </c>
       <c r="F9" s="3">
-        <v>438900</v>
+        <v>409500</v>
       </c>
       <c r="G9" s="3">
-        <v>433200</v>
+        <v>425900</v>
       </c>
       <c r="H9" s="3">
-        <v>435100</v>
+        <v>420400</v>
       </c>
       <c r="I9" s="3">
-        <v>277300</v>
+        <v>422200</v>
       </c>
       <c r="J9" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K9" s="3">
         <v>205900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>198900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>175000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>197700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>191200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>776100</v>
+        <v>729400</v>
       </c>
       <c r="E10" s="3">
-        <v>747300</v>
+        <v>753200</v>
       </c>
       <c r="F10" s="3">
-        <v>866800</v>
+        <v>725200</v>
       </c>
       <c r="G10" s="3">
-        <v>841500</v>
+        <v>841100</v>
       </c>
       <c r="H10" s="3">
-        <v>864100</v>
+        <v>816600</v>
       </c>
       <c r="I10" s="3">
-        <v>629000</v>
+        <v>838500</v>
       </c>
       <c r="J10" s="3">
+        <v>610400</v>
+      </c>
+      <c r="K10" s="3">
         <v>424900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>450600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>397000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>429100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>442700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>596600</v>
-      </c>
       <c r="F14" s="3">
-        <v>24100</v>
+        <v>579000</v>
       </c>
       <c r="G14" s="3">
-        <v>797600</v>
+        <v>23400</v>
       </c>
       <c r="H14" s="3">
-        <v>28800</v>
+        <v>774000</v>
       </c>
       <c r="I14" s="3">
-        <v>24400</v>
+        <v>28000</v>
       </c>
       <c r="J14" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K14" s="3">
         <v>155400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>34400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,38 +999,41 @@
         <v>117800</v>
       </c>
       <c r="E15" s="3">
-        <v>122700</v>
+        <v>114300</v>
       </c>
       <c r="F15" s="3">
-        <v>141100</v>
+        <v>119000</v>
       </c>
       <c r="G15" s="3">
-        <v>63300</v>
+        <v>136900</v>
       </c>
       <c r="H15" s="3">
-        <v>71000</v>
+        <v>61500</v>
       </c>
       <c r="I15" s="3">
-        <v>57200</v>
+        <v>68900</v>
       </c>
       <c r="J15" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K15" s="3">
         <v>18600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>19100</v>
       </c>
       <c r="N15" s="3">
         <v>19100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>990500</v>
+        <v>1344400</v>
       </c>
       <c r="E17" s="3">
-        <v>1607100</v>
+        <v>961200</v>
       </c>
       <c r="F17" s="3">
-        <v>1110600</v>
+        <v>1559500</v>
       </c>
       <c r="G17" s="3">
-        <v>1793100</v>
+        <v>1077800</v>
       </c>
       <c r="H17" s="3">
-        <v>1061900</v>
+        <v>1740000</v>
       </c>
       <c r="I17" s="3">
-        <v>763100</v>
+        <v>1030500</v>
       </c>
       <c r="J17" s="3">
+        <v>740500</v>
+      </c>
+      <c r="K17" s="3">
         <v>622000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>486100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>419600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>468000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>477200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>203800</v>
+        <v>-144100</v>
       </c>
       <c r="E18" s="3">
-        <v>-437800</v>
+        <v>197700</v>
       </c>
       <c r="F18" s="3">
-        <v>195100</v>
+        <v>-424800</v>
       </c>
       <c r="G18" s="3">
-        <v>-518400</v>
+        <v>189300</v>
       </c>
       <c r="H18" s="3">
-        <v>237200</v>
+        <v>-503100</v>
       </c>
       <c r="I18" s="3">
-        <v>143200</v>
+        <v>230200</v>
       </c>
       <c r="J18" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>163400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>158800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>156800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,8 +1148,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,48 +1187,54 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>711900</v>
+        <v>403500</v>
       </c>
       <c r="E21" s="3">
-        <v>82400</v>
+        <v>684800</v>
       </c>
       <c r="F21" s="3">
-        <v>746400</v>
+        <v>73800</v>
       </c>
       <c r="G21" s="3">
-        <v>-44600</v>
+        <v>717800</v>
       </c>
       <c r="H21" s="3">
-        <v>720400</v>
+        <v>-48900</v>
       </c>
       <c r="I21" s="3">
-        <v>459500</v>
+        <v>693300</v>
       </c>
       <c r="J21" s="3">
+        <v>442100</v>
+      </c>
+      <c r="K21" s="3">
         <v>213600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>362200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>465000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>316900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>309900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>203800</v>
+        <v>-144100</v>
       </c>
       <c r="E23" s="3">
-        <v>-437800</v>
+        <v>197700</v>
       </c>
       <c r="F23" s="3">
-        <v>195100</v>
+        <v>-424800</v>
       </c>
       <c r="G23" s="3">
-        <v>-518400</v>
+        <v>189300</v>
       </c>
       <c r="H23" s="3">
-        <v>237200</v>
+        <v>-503100</v>
       </c>
       <c r="I23" s="3">
-        <v>143200</v>
+        <v>230200</v>
       </c>
       <c r="J23" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K23" s="3">
         <v>8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>163400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>152400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>158800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>156800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53200</v>
+        <v>30300</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>51600</v>
       </c>
       <c r="F24" s="3">
-        <v>55300</v>
+        <v>31500</v>
       </c>
       <c r="G24" s="3">
-        <v>68200</v>
+        <v>53600</v>
       </c>
       <c r="H24" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="I24" s="3">
-        <v>32200</v>
+        <v>61900</v>
       </c>
       <c r="J24" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K24" s="3">
         <v>24000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150600</v>
+        <v>-174400</v>
       </c>
       <c r="E26" s="3">
-        <v>-470200</v>
+        <v>146100</v>
       </c>
       <c r="F26" s="3">
-        <v>139800</v>
+        <v>-456300</v>
       </c>
       <c r="G26" s="3">
-        <v>-586600</v>
+        <v>135700</v>
       </c>
       <c r="H26" s="3">
-        <v>173400</v>
+        <v>-569300</v>
       </c>
       <c r="I26" s="3">
-        <v>111100</v>
+        <v>168300</v>
       </c>
       <c r="J26" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>126100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>133500</v>
+        <v>-184000</v>
       </c>
       <c r="E27" s="3">
-        <v>-483900</v>
+        <v>129600</v>
       </c>
       <c r="F27" s="3">
-        <v>120800</v>
+        <v>-469600</v>
       </c>
       <c r="G27" s="3">
-        <v>-607000</v>
+        <v>117200</v>
       </c>
       <c r="H27" s="3">
-        <v>148300</v>
+        <v>-589100</v>
       </c>
       <c r="I27" s="3">
-        <v>97400</v>
+        <v>143900</v>
       </c>
       <c r="J27" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-19500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>117300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>121700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>110600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>108700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,11 +1563,14 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3900</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,9 +1649,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1622,48 +1691,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>133500</v>
+        <v>-184000</v>
       </c>
       <c r="E33" s="3">
-        <v>-483900</v>
+        <v>129600</v>
       </c>
       <c r="F33" s="3">
-        <v>120800</v>
+        <v>-469600</v>
       </c>
       <c r="G33" s="3">
-        <v>-607000</v>
+        <v>117200</v>
       </c>
       <c r="H33" s="3">
-        <v>148300</v>
+        <v>-589100</v>
       </c>
       <c r="I33" s="3">
-        <v>97400</v>
+        <v>143900</v>
       </c>
       <c r="J33" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-19500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>121700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>110600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>133500</v>
+        <v>-184000</v>
       </c>
       <c r="E35" s="3">
-        <v>-483900</v>
+        <v>129600</v>
       </c>
       <c r="F35" s="3">
-        <v>120800</v>
+        <v>-469600</v>
       </c>
       <c r="G35" s="3">
-        <v>-607000</v>
+        <v>117200</v>
       </c>
       <c r="H35" s="3">
-        <v>148300</v>
+        <v>-589100</v>
       </c>
       <c r="I35" s="3">
-        <v>97400</v>
+        <v>143900</v>
       </c>
       <c r="J35" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-19500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>121700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>110600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43343</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42978</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42613</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42247</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41882</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41517</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41152</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40786</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33800</v>
+        <v>41200</v>
       </c>
       <c r="E41" s="3">
-        <v>35500</v>
+        <v>32800</v>
       </c>
       <c r="F41" s="3">
-        <v>63900</v>
+        <v>34500</v>
       </c>
       <c r="G41" s="3">
-        <v>73400</v>
+        <v>62000</v>
       </c>
       <c r="H41" s="3">
-        <v>72500</v>
+        <v>71200</v>
       </c>
       <c r="I41" s="3">
-        <v>55200</v>
+        <v>70400</v>
       </c>
       <c r="J41" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K41" s="3">
         <v>29000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,48 +1984,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>256300</v>
+        <v>246400</v>
       </c>
       <c r="E43" s="3">
-        <v>230300</v>
+        <v>248700</v>
       </c>
       <c r="F43" s="3">
-        <v>299100</v>
+        <v>223400</v>
       </c>
       <c r="G43" s="3">
-        <v>303400</v>
+        <v>290300</v>
       </c>
       <c r="H43" s="3">
-        <v>317100</v>
+        <v>294400</v>
       </c>
       <c r="I43" s="3">
-        <v>293900</v>
+        <v>307700</v>
       </c>
       <c r="J43" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K43" s="3">
         <v>137000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>150300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>296000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>136200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>137600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,204 +2068,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18700</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>13200</v>
+        <v>18100</v>
       </c>
       <c r="F45" s="3">
-        <v>15100</v>
+        <v>12800</v>
       </c>
       <c r="G45" s="3">
-        <v>16000</v>
+        <v>14700</v>
       </c>
       <c r="H45" s="3">
-        <v>16900</v>
+        <v>15600</v>
       </c>
       <c r="I45" s="3">
-        <v>14600</v>
+        <v>16400</v>
       </c>
       <c r="J45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>139600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>308700</v>
+        <v>303700</v>
       </c>
       <c r="E46" s="3">
-        <v>279000</v>
+        <v>299600</v>
       </c>
       <c r="F46" s="3">
-        <v>378200</v>
+        <v>270800</v>
       </c>
       <c r="G46" s="3">
-        <v>392700</v>
+        <v>367000</v>
       </c>
       <c r="H46" s="3">
-        <v>406500</v>
+        <v>381100</v>
       </c>
       <c r="I46" s="3">
-        <v>363700</v>
+        <v>394500</v>
       </c>
       <c r="J46" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K46" s="3">
         <v>176700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>236000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>163900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>190900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66400</v>
+        <v>47800</v>
       </c>
       <c r="E47" s="3">
-        <v>56300</v>
+        <v>64400</v>
       </c>
       <c r="F47" s="3">
-        <v>19400</v>
+        <v>54600</v>
       </c>
       <c r="G47" s="3">
-        <v>20900</v>
+        <v>18800</v>
       </c>
       <c r="H47" s="3">
-        <v>22200</v>
+        <v>20300</v>
       </c>
       <c r="I47" s="3">
-        <v>27300</v>
+        <v>21600</v>
       </c>
       <c r="J47" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K47" s="3">
         <v>32600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>127500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>98400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>244700</v>
+        <v>220800</v>
       </c>
       <c r="E48" s="3">
-        <v>258200</v>
+        <v>237400</v>
       </c>
       <c r="F48" s="3">
-        <v>174800</v>
+        <v>250600</v>
       </c>
       <c r="G48" s="3">
-        <v>178900</v>
+        <v>169600</v>
       </c>
       <c r="H48" s="3">
-        <v>201200</v>
+        <v>173600</v>
       </c>
       <c r="I48" s="3">
-        <v>218300</v>
+        <v>195300</v>
       </c>
       <c r="J48" s="3">
+        <v>211800</v>
+      </c>
+      <c r="K48" s="3">
         <v>107700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>112000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>230300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>121700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>208400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2296600</v>
+        <v>1995000</v>
       </c>
       <c r="E49" s="3">
-        <v>2427000</v>
+        <v>2228700</v>
       </c>
       <c r="F49" s="3">
-        <v>2956800</v>
+        <v>2355200</v>
       </c>
       <c r="G49" s="3">
-        <v>3080700</v>
+        <v>2869400</v>
       </c>
       <c r="H49" s="3">
-        <v>3963600</v>
+        <v>2989600</v>
       </c>
       <c r="I49" s="3">
-        <v>4019100</v>
+        <v>3846300</v>
       </c>
       <c r="J49" s="3">
+        <v>3900200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1667400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1813300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1423700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1137600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1247400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67600</v>
+        <v>62600</v>
       </c>
       <c r="E52" s="3">
-        <v>51900</v>
+        <v>65600</v>
       </c>
       <c r="F52" s="3">
-        <v>86000</v>
+        <v>50400</v>
       </c>
       <c r="G52" s="3">
-        <v>104900</v>
+        <v>83500</v>
       </c>
       <c r="H52" s="3">
-        <v>101400</v>
+        <v>101800</v>
       </c>
       <c r="I52" s="3">
-        <v>86300</v>
+        <v>98400</v>
       </c>
       <c r="J52" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K52" s="3">
         <v>52300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>42600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2984100</v>
+        <v>2629900</v>
       </c>
       <c r="E54" s="3">
-        <v>3072500</v>
+        <v>2895800</v>
       </c>
       <c r="F54" s="3">
-        <v>3615200</v>
+        <v>2981600</v>
       </c>
       <c r="G54" s="3">
-        <v>3778200</v>
+        <v>3508200</v>
       </c>
       <c r="H54" s="3">
-        <v>4695000</v>
+        <v>3666400</v>
       </c>
       <c r="I54" s="3">
-        <v>4714800</v>
+        <v>4556100</v>
       </c>
       <c r="J54" s="3">
+        <v>4575300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2036600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2171100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1649400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1549100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1623700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>333900</v>
+        <v>336800</v>
       </c>
       <c r="E57" s="3">
-        <v>285200</v>
+        <v>324000</v>
       </c>
       <c r="F57" s="3">
-        <v>293300</v>
+        <v>276800</v>
       </c>
       <c r="G57" s="3">
-        <v>286900</v>
+        <v>284700</v>
       </c>
       <c r="H57" s="3">
-        <v>321600</v>
+        <v>278400</v>
       </c>
       <c r="I57" s="3">
-        <v>304400</v>
+        <v>312100</v>
       </c>
       <c r="J57" s="3">
+        <v>295400</v>
+      </c>
+      <c r="K57" s="3">
         <v>163200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>132900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>187100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38700</v>
+        <v>22700</v>
       </c>
       <c r="E58" s="3">
-        <v>70100</v>
+        <v>37600</v>
       </c>
       <c r="F58" s="3">
-        <v>60200</v>
+        <v>68000</v>
       </c>
       <c r="G58" s="3">
-        <v>84700</v>
+        <v>58400</v>
       </c>
       <c r="H58" s="3">
-        <v>133500</v>
+        <v>82200</v>
       </c>
       <c r="I58" s="3">
-        <v>89000</v>
+        <v>129500</v>
       </c>
       <c r="J58" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K58" s="3">
         <v>116100</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54800</v>
+        <v>54200</v>
       </c>
       <c r="E59" s="3">
-        <v>69800</v>
+        <v>53200</v>
       </c>
       <c r="F59" s="3">
-        <v>45900</v>
+        <v>67700</v>
       </c>
       <c r="G59" s="3">
-        <v>33300</v>
+        <v>44500</v>
       </c>
       <c r="H59" s="3">
-        <v>12200</v>
+        <v>32300</v>
       </c>
       <c r="I59" s="3">
-        <v>18100</v>
+        <v>11900</v>
       </c>
       <c r="J59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>427400</v>
+        <v>413700</v>
       </c>
       <c r="E60" s="3">
-        <v>425100</v>
+        <v>414700</v>
       </c>
       <c r="F60" s="3">
-        <v>399400</v>
+        <v>412500</v>
       </c>
       <c r="G60" s="3">
-        <v>404900</v>
+        <v>387600</v>
       </c>
       <c r="H60" s="3">
-        <v>467300</v>
+        <v>392900</v>
       </c>
       <c r="I60" s="3">
-        <v>411400</v>
+        <v>453500</v>
       </c>
       <c r="J60" s="3">
+        <v>399300</v>
+      </c>
+      <c r="K60" s="3">
         <v>286200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>137000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>140100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>162900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1116300</v>
+        <v>1025500</v>
       </c>
       <c r="E61" s="3">
-        <v>1210200</v>
+        <v>1083300</v>
       </c>
       <c r="F61" s="3">
-        <v>1280900</v>
+        <v>1174400</v>
       </c>
       <c r="G61" s="3">
-        <v>1454500</v>
+        <v>1243000</v>
       </c>
       <c r="H61" s="3">
-        <v>1484900</v>
+        <v>1411500</v>
       </c>
       <c r="I61" s="3">
-        <v>1610200</v>
+        <v>1441000</v>
       </c>
       <c r="J61" s="3">
+        <v>1562600</v>
+      </c>
+      <c r="K61" s="3">
         <v>503700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>681600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>410200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>385700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>461500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>496100</v>
+        <v>511800</v>
       </c>
       <c r="E62" s="3">
-        <v>626000</v>
+        <v>481400</v>
       </c>
       <c r="F62" s="3">
-        <v>586900</v>
+        <v>607500</v>
       </c>
       <c r="G62" s="3">
-        <v>621300</v>
+        <v>569500</v>
       </c>
       <c r="H62" s="3">
-        <v>731400</v>
+        <v>602900</v>
       </c>
       <c r="I62" s="3">
-        <v>777100</v>
+        <v>709800</v>
       </c>
       <c r="J62" s="3">
+        <v>754100</v>
+      </c>
+      <c r="K62" s="3">
         <v>302800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>259400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>177700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>198000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2158100</v>
+        <v>2065200</v>
       </c>
       <c r="E66" s="3">
-        <v>2376200</v>
+        <v>2094200</v>
       </c>
       <c r="F66" s="3">
-        <v>2379700</v>
+        <v>2305900</v>
       </c>
       <c r="G66" s="3">
-        <v>2600200</v>
+        <v>2309300</v>
       </c>
       <c r="H66" s="3">
-        <v>2806500</v>
+        <v>2523300</v>
       </c>
       <c r="I66" s="3">
-        <v>2921300</v>
+        <v>2723500</v>
       </c>
       <c r="J66" s="3">
+        <v>2834800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1106100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1163100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>734100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>718900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>828100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-992600</v>
+        <v>-1182100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1102900</v>
+        <v>-963300</v>
       </c>
       <c r="F72" s="3">
-        <v>-587100</v>
+        <v>-1070300</v>
       </c>
       <c r="G72" s="3">
-        <v>-662800</v>
+        <v>-569700</v>
       </c>
       <c r="H72" s="3">
-        <v>88600</v>
+        <v>-643200</v>
       </c>
       <c r="I72" s="3">
-        <v>110300</v>
+        <v>86000</v>
       </c>
       <c r="J72" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K72" s="3">
         <v>147900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>244300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>195200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>147700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>110400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>826000</v>
+        <v>564700</v>
       </c>
       <c r="E76" s="3">
-        <v>696200</v>
+        <v>801600</v>
       </c>
       <c r="F76" s="3">
-        <v>1235500</v>
+        <v>675600</v>
       </c>
       <c r="G76" s="3">
-        <v>1177900</v>
+        <v>1198900</v>
       </c>
       <c r="H76" s="3">
-        <v>1888500</v>
+        <v>1143100</v>
       </c>
       <c r="I76" s="3">
-        <v>1793500</v>
+        <v>1832600</v>
       </c>
       <c r="J76" s="3">
+        <v>1740400</v>
+      </c>
+      <c r="K76" s="3">
         <v>930500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1008000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>915300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>830100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>795600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43343</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42978</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42613</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42247</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41882</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41517</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41152</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40786</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>133500</v>
+        <v>-184000</v>
       </c>
       <c r="E81" s="3">
-        <v>-483900</v>
+        <v>129600</v>
       </c>
       <c r="F81" s="3">
-        <v>120800</v>
+        <v>-469600</v>
       </c>
       <c r="G81" s="3">
-        <v>-607000</v>
+        <v>117200</v>
       </c>
       <c r="H81" s="3">
-        <v>148300</v>
+        <v>-589100</v>
       </c>
       <c r="I81" s="3">
-        <v>97400</v>
+        <v>143900</v>
       </c>
       <c r="J81" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-19500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>121700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>110600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>509700</v>
+        <v>556100</v>
       </c>
       <c r="E83" s="3">
-        <v>521800</v>
+        <v>494700</v>
       </c>
       <c r="F83" s="3">
-        <v>553100</v>
+        <v>506400</v>
       </c>
       <c r="G83" s="3">
-        <v>475400</v>
+        <v>536700</v>
       </c>
       <c r="H83" s="3">
-        <v>484700</v>
+        <v>461300</v>
       </c>
       <c r="I83" s="3">
-        <v>317200</v>
+        <v>470400</v>
       </c>
       <c r="J83" s="3">
+        <v>307800</v>
+      </c>
+      <c r="K83" s="3">
         <v>205300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>196100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>313300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>152400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>212400</v>
+        <v>162800</v>
       </c>
       <c r="E89" s="3">
-        <v>242400</v>
+        <v>206100</v>
       </c>
       <c r="F89" s="3">
-        <v>265800</v>
+        <v>235200</v>
       </c>
       <c r="G89" s="3">
-        <v>287000</v>
+        <v>258000</v>
       </c>
       <c r="H89" s="3">
-        <v>230700</v>
+        <v>278500</v>
       </c>
       <c r="I89" s="3">
-        <v>154900</v>
+        <v>223900</v>
       </c>
       <c r="J89" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K89" s="3">
         <v>162800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>151600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>124300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15100</v>
+        <v>-13400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11900</v>
+        <v>-14700</v>
       </c>
       <c r="F91" s="3">
-        <v>-23300</v>
+        <v>-11600</v>
       </c>
       <c r="G91" s="3">
-        <v>-12500</v>
+        <v>-22600</v>
       </c>
       <c r="H91" s="3">
-        <v>-20900</v>
+        <v>-12100</v>
       </c>
       <c r="I91" s="3">
-        <v>-17400</v>
+        <v>-20300</v>
       </c>
       <c r="J91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22800</v>
+        <v>18900</v>
       </c>
       <c r="E94" s="3">
-        <v>-14700</v>
+        <v>-22200</v>
       </c>
       <c r="F94" s="3">
-        <v>-23400</v>
+        <v>-14300</v>
       </c>
       <c r="G94" s="3">
-        <v>-19800</v>
+        <v>-22700</v>
       </c>
       <c r="H94" s="3">
-        <v>-16200</v>
+        <v>-19200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1283200</v>
+        <v>-15700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1245200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-410300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>25500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38700</v>
+        <v>-37200</v>
       </c>
       <c r="E96" s="3">
-        <v>-39000</v>
+        <v>-37500</v>
       </c>
       <c r="F96" s="3">
-        <v>-29500</v>
+        <v>-37800</v>
       </c>
       <c r="G96" s="3">
-        <v>-153800</v>
+        <v>-28600</v>
       </c>
       <c r="H96" s="3">
-        <v>-82100</v>
+        <v>-149300</v>
       </c>
       <c r="I96" s="3">
-        <v>-69400</v>
+        <v>-79600</v>
       </c>
       <c r="J96" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-59000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-43200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-37800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-35000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-191300</v>
+        <v>-173300</v>
       </c>
       <c r="E100" s="3">
-        <v>-256100</v>
+        <v>-185600</v>
       </c>
       <c r="F100" s="3">
-        <v>-251900</v>
+        <v>-248500</v>
       </c>
       <c r="G100" s="3">
-        <v>-266300</v>
+        <v>-244500</v>
       </c>
       <c r="H100" s="3">
-        <v>-197200</v>
+        <v>-258500</v>
       </c>
       <c r="I100" s="3">
-        <v>1154500</v>
+        <v>-191400</v>
       </c>
       <c r="J100" s="3">
+        <v>1120400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-120400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>204300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-61600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-123800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-28400</v>
-      </c>
       <c r="F102" s="3">
-        <v>-9500</v>
+        <v>-27500</v>
       </c>
       <c r="G102" s="3">
-        <v>900</v>
+        <v>-9200</v>
       </c>
       <c r="H102" s="3">
-        <v>17300</v>
+        <v>800</v>
       </c>
       <c r="I102" s="3">
-        <v>26300</v>
+        <v>16800</v>
       </c>
       <c r="J102" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K102" s="3">
         <v>20000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-54300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1200300</v>
+        <v>1156100</v>
       </c>
       <c r="E8" s="3">
-        <v>1158900</v>
+        <v>1116300</v>
       </c>
       <c r="F8" s="3">
-        <v>1134700</v>
+        <v>1093000</v>
       </c>
       <c r="G8" s="3">
-        <v>1267100</v>
+        <v>1220400</v>
       </c>
       <c r="H8" s="3">
-        <v>1236900</v>
+        <v>1191400</v>
       </c>
       <c r="I8" s="3">
-        <v>1260700</v>
+        <v>1214300</v>
       </c>
       <c r="J8" s="3">
-        <v>879500</v>
+        <v>847100</v>
       </c>
       <c r="K8" s="3">
         <v>630800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>471000</v>
+        <v>453600</v>
       </c>
       <c r="E9" s="3">
-        <v>405800</v>
+        <v>390800</v>
       </c>
       <c r="F9" s="3">
-        <v>409500</v>
+        <v>394400</v>
       </c>
       <c r="G9" s="3">
-        <v>425900</v>
+        <v>410300</v>
       </c>
       <c r="H9" s="3">
-        <v>420400</v>
+        <v>404900</v>
       </c>
       <c r="I9" s="3">
-        <v>422200</v>
+        <v>406700</v>
       </c>
       <c r="J9" s="3">
-        <v>269100</v>
+        <v>259200</v>
       </c>
       <c r="K9" s="3">
         <v>205900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>729400</v>
+        <v>702500</v>
       </c>
       <c r="E10" s="3">
-        <v>753200</v>
+        <v>725500</v>
       </c>
       <c r="F10" s="3">
-        <v>725200</v>
+        <v>698500</v>
       </c>
       <c r="G10" s="3">
-        <v>841100</v>
+        <v>810200</v>
       </c>
       <c r="H10" s="3">
-        <v>816600</v>
+        <v>786500</v>
       </c>
       <c r="I10" s="3">
-        <v>838500</v>
+        <v>807600</v>
       </c>
       <c r="J10" s="3">
-        <v>610400</v>
+        <v>587900</v>
       </c>
       <c r="K10" s="3">
         <v>424900</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>267900</v>
+        <v>258100</v>
       </c>
       <c r="E14" s="3">
         <v>-300</v>
       </c>
       <c r="F14" s="3">
-        <v>579000</v>
+        <v>557700</v>
       </c>
       <c r="G14" s="3">
-        <v>23400</v>
+        <v>22500</v>
       </c>
       <c r="H14" s="3">
-        <v>774000</v>
+        <v>745500</v>
       </c>
       <c r="I14" s="3">
-        <v>28000</v>
+        <v>26900</v>
       </c>
       <c r="J14" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="K14" s="3">
         <v>155400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>117800</v>
+        <v>113500</v>
       </c>
       <c r="E15" s="3">
-        <v>114300</v>
+        <v>110100</v>
       </c>
       <c r="F15" s="3">
-        <v>119000</v>
+        <v>114700</v>
       </c>
       <c r="G15" s="3">
-        <v>136900</v>
+        <v>131900</v>
       </c>
       <c r="H15" s="3">
-        <v>61500</v>
+        <v>59200</v>
       </c>
       <c r="I15" s="3">
-        <v>68900</v>
+        <v>66400</v>
       </c>
       <c r="J15" s="3">
-        <v>55500</v>
+        <v>53500</v>
       </c>
       <c r="K15" s="3">
         <v>18600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1344400</v>
+        <v>1294900</v>
       </c>
       <c r="E17" s="3">
-        <v>961200</v>
+        <v>925800</v>
       </c>
       <c r="F17" s="3">
-        <v>1559500</v>
+        <v>1502100</v>
       </c>
       <c r="G17" s="3">
-        <v>1077800</v>
+        <v>1038100</v>
       </c>
       <c r="H17" s="3">
-        <v>1740000</v>
+        <v>1676000</v>
       </c>
       <c r="I17" s="3">
-        <v>1030500</v>
+        <v>992600</v>
       </c>
       <c r="J17" s="3">
-        <v>740500</v>
+        <v>713200</v>
       </c>
       <c r="K17" s="3">
         <v>622000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-144100</v>
+        <v>-138800</v>
       </c>
       <c r="E18" s="3">
-        <v>197700</v>
+        <v>190400</v>
       </c>
       <c r="F18" s="3">
-        <v>-424800</v>
+        <v>-409200</v>
       </c>
       <c r="G18" s="3">
-        <v>189300</v>
+        <v>182300</v>
       </c>
       <c r="H18" s="3">
-        <v>-503100</v>
+        <v>-484600</v>
       </c>
       <c r="I18" s="3">
-        <v>230200</v>
+        <v>221700</v>
       </c>
       <c r="J18" s="3">
-        <v>139000</v>
+        <v>133900</v>
       </c>
       <c r="K18" s="3">
         <v>8900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>403500</v>
+        <v>397800</v>
       </c>
       <c r="E21" s="3">
-        <v>684800</v>
+        <v>667700</v>
       </c>
       <c r="F21" s="3">
-        <v>73800</v>
+        <v>79400</v>
       </c>
       <c r="G21" s="3">
-        <v>717800</v>
+        <v>700200</v>
       </c>
       <c r="H21" s="3">
-        <v>-48900</v>
+        <v>-39500</v>
       </c>
       <c r="I21" s="3">
-        <v>693300</v>
+        <v>675500</v>
       </c>
       <c r="J21" s="3">
-        <v>442100</v>
+        <v>430900</v>
       </c>
       <c r="K21" s="3">
         <v>213600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-144100</v>
+        <v>-138800</v>
       </c>
       <c r="E23" s="3">
-        <v>197700</v>
+        <v>190400</v>
       </c>
       <c r="F23" s="3">
-        <v>-424800</v>
+        <v>-409200</v>
       </c>
       <c r="G23" s="3">
-        <v>189300</v>
+        <v>182300</v>
       </c>
       <c r="H23" s="3">
-        <v>-503100</v>
+        <v>-484600</v>
       </c>
       <c r="I23" s="3">
-        <v>230200</v>
+        <v>221700</v>
       </c>
       <c r="J23" s="3">
-        <v>139000</v>
+        <v>133900</v>
       </c>
       <c r="K23" s="3">
         <v>8900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>49700</v>
+      </c>
+      <c r="F24" s="3">
         <v>30300</v>
       </c>
-      <c r="E24" s="3">
-        <v>51600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>31500</v>
-      </c>
       <c r="G24" s="3">
-        <v>53600</v>
+        <v>51700</v>
       </c>
       <c r="H24" s="3">
-        <v>66200</v>
+        <v>63700</v>
       </c>
       <c r="I24" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="J24" s="3">
-        <v>31200</v>
+        <v>30100</v>
       </c>
       <c r="K24" s="3">
         <v>24000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-174400</v>
+        <v>-168000</v>
       </c>
       <c r="E26" s="3">
-        <v>146100</v>
+        <v>140700</v>
       </c>
       <c r="F26" s="3">
-        <v>-456300</v>
+        <v>-439500</v>
       </c>
       <c r="G26" s="3">
-        <v>135700</v>
+        <v>130700</v>
       </c>
       <c r="H26" s="3">
-        <v>-569300</v>
+        <v>-548300</v>
       </c>
       <c r="I26" s="3">
-        <v>168300</v>
+        <v>162100</v>
       </c>
       <c r="J26" s="3">
-        <v>107800</v>
+        <v>103800</v>
       </c>
       <c r="K26" s="3">
         <v>-15100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-184000</v>
+        <v>-177200</v>
       </c>
       <c r="E27" s="3">
-        <v>129600</v>
+        <v>124800</v>
       </c>
       <c r="F27" s="3">
-        <v>-469600</v>
+        <v>-452300</v>
       </c>
       <c r="G27" s="3">
-        <v>117200</v>
+        <v>112900</v>
       </c>
       <c r="H27" s="3">
-        <v>-589100</v>
+        <v>-567400</v>
       </c>
       <c r="I27" s="3">
-        <v>143900</v>
+        <v>138600</v>
       </c>
       <c r="J27" s="3">
-        <v>94600</v>
+        <v>91100</v>
       </c>
       <c r="K27" s="3">
         <v>-19500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-184000</v>
+        <v>-177200</v>
       </c>
       <c r="E33" s="3">
-        <v>129600</v>
+        <v>124800</v>
       </c>
       <c r="F33" s="3">
-        <v>-469600</v>
+        <v>-452300</v>
       </c>
       <c r="G33" s="3">
-        <v>117200</v>
+        <v>112900</v>
       </c>
       <c r="H33" s="3">
-        <v>-589100</v>
+        <v>-567400</v>
       </c>
       <c r="I33" s="3">
-        <v>143900</v>
+        <v>138600</v>
       </c>
       <c r="J33" s="3">
-        <v>94600</v>
+        <v>91100</v>
       </c>
       <c r="K33" s="3">
         <v>-19500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-184000</v>
+        <v>-177200</v>
       </c>
       <c r="E35" s="3">
-        <v>129600</v>
+        <v>124800</v>
       </c>
       <c r="F35" s="3">
-        <v>-469600</v>
+        <v>-452300</v>
       </c>
       <c r="G35" s="3">
-        <v>117200</v>
+        <v>112900</v>
       </c>
       <c r="H35" s="3">
-        <v>-589100</v>
+        <v>-567400</v>
       </c>
       <c r="I35" s="3">
-        <v>143900</v>
+        <v>138600</v>
       </c>
       <c r="J35" s="3">
-        <v>94600</v>
+        <v>91100</v>
       </c>
       <c r="K35" s="3">
         <v>-19500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41200</v>
+        <v>39700</v>
       </c>
       <c r="E41" s="3">
-        <v>32800</v>
+        <v>31600</v>
       </c>
       <c r="F41" s="3">
-        <v>34500</v>
+        <v>33200</v>
       </c>
       <c r="G41" s="3">
-        <v>62000</v>
+        <v>59700</v>
       </c>
       <c r="H41" s="3">
-        <v>71200</v>
+        <v>68600</v>
       </c>
       <c r="I41" s="3">
-        <v>70400</v>
+        <v>67800</v>
       </c>
       <c r="J41" s="3">
-        <v>53600</v>
+        <v>51600</v>
       </c>
       <c r="K41" s="3">
         <v>29000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>246400</v>
+        <v>237400</v>
       </c>
       <c r="E43" s="3">
-        <v>248700</v>
+        <v>239500</v>
       </c>
       <c r="F43" s="3">
-        <v>223400</v>
+        <v>215200</v>
       </c>
       <c r="G43" s="3">
-        <v>290300</v>
+        <v>279600</v>
       </c>
       <c r="H43" s="3">
-        <v>294400</v>
+        <v>283500</v>
       </c>
       <c r="I43" s="3">
-        <v>307700</v>
+        <v>296400</v>
       </c>
       <c r="J43" s="3">
-        <v>285200</v>
+        <v>274700</v>
       </c>
       <c r="K43" s="3">
         <v>137000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="E45" s="3">
-        <v>18100</v>
+        <v>17400</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="G45" s="3">
-        <v>14700</v>
+        <v>14100</v>
       </c>
       <c r="H45" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="I45" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="J45" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>303700</v>
+        <v>292600</v>
       </c>
       <c r="E46" s="3">
-        <v>299600</v>
+        <v>288500</v>
       </c>
       <c r="F46" s="3">
-        <v>270800</v>
+        <v>260800</v>
       </c>
       <c r="G46" s="3">
-        <v>367000</v>
+        <v>353500</v>
       </c>
       <c r="H46" s="3">
-        <v>381100</v>
+        <v>367100</v>
       </c>
       <c r="I46" s="3">
-        <v>394500</v>
+        <v>380000</v>
       </c>
       <c r="J46" s="3">
-        <v>352900</v>
+        <v>340000</v>
       </c>
       <c r="K46" s="3">
         <v>176700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47800</v>
+        <v>46000</v>
       </c>
       <c r="E47" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="F47" s="3">
-        <v>54600</v>
+        <v>52600</v>
       </c>
       <c r="G47" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H47" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="I47" s="3">
-        <v>21600</v>
+        <v>20800</v>
       </c>
       <c r="J47" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="K47" s="3">
         <v>32600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>220800</v>
+        <v>212600</v>
       </c>
       <c r="E48" s="3">
-        <v>237400</v>
+        <v>228700</v>
       </c>
       <c r="F48" s="3">
-        <v>250600</v>
+        <v>241400</v>
       </c>
       <c r="G48" s="3">
-        <v>169600</v>
+        <v>163400</v>
       </c>
       <c r="H48" s="3">
-        <v>173600</v>
+        <v>167200</v>
       </c>
       <c r="I48" s="3">
-        <v>195300</v>
+        <v>188100</v>
       </c>
       <c r="J48" s="3">
-        <v>211800</v>
+        <v>204000</v>
       </c>
       <c r="K48" s="3">
         <v>107700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1995000</v>
+        <v>1921600</v>
       </c>
       <c r="E49" s="3">
-        <v>2228700</v>
+        <v>2146700</v>
       </c>
       <c r="F49" s="3">
-        <v>2355200</v>
+        <v>2268500</v>
       </c>
       <c r="G49" s="3">
-        <v>2869400</v>
+        <v>2763700</v>
       </c>
       <c r="H49" s="3">
-        <v>2989600</v>
+        <v>2879500</v>
       </c>
       <c r="I49" s="3">
-        <v>3846300</v>
+        <v>3704700</v>
       </c>
       <c r="J49" s="3">
-        <v>3900200</v>
+        <v>3756600</v>
       </c>
       <c r="K49" s="3">
         <v>1667400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62600</v>
+        <v>60300</v>
       </c>
       <c r="E52" s="3">
-        <v>65600</v>
+        <v>63200</v>
       </c>
       <c r="F52" s="3">
-        <v>50400</v>
+        <v>48500</v>
       </c>
       <c r="G52" s="3">
-        <v>83500</v>
+        <v>80400</v>
       </c>
       <c r="H52" s="3">
-        <v>101800</v>
+        <v>98100</v>
       </c>
       <c r="I52" s="3">
-        <v>98400</v>
+        <v>94800</v>
       </c>
       <c r="J52" s="3">
-        <v>83800</v>
+        <v>80700</v>
       </c>
       <c r="K52" s="3">
         <v>52300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2629900</v>
+        <v>2533100</v>
       </c>
       <c r="E54" s="3">
-        <v>2895800</v>
+        <v>2789200</v>
       </c>
       <c r="F54" s="3">
-        <v>2981600</v>
+        <v>2871800</v>
       </c>
       <c r="G54" s="3">
-        <v>3508200</v>
+        <v>3379100</v>
       </c>
       <c r="H54" s="3">
-        <v>3666400</v>
+        <v>3531400</v>
       </c>
       <c r="I54" s="3">
-        <v>4556100</v>
+        <v>4388400</v>
       </c>
       <c r="J54" s="3">
-        <v>4575300</v>
+        <v>4406900</v>
       </c>
       <c r="K54" s="3">
         <v>2036600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>336800</v>
+        <v>324400</v>
       </c>
       <c r="E57" s="3">
-        <v>324000</v>
+        <v>312000</v>
       </c>
       <c r="F57" s="3">
-        <v>276800</v>
+        <v>266600</v>
       </c>
       <c r="G57" s="3">
-        <v>284700</v>
+        <v>274200</v>
       </c>
       <c r="H57" s="3">
-        <v>278400</v>
+        <v>268200</v>
       </c>
       <c r="I57" s="3">
-        <v>312100</v>
+        <v>300600</v>
       </c>
       <c r="J57" s="3">
-        <v>295400</v>
+        <v>284500</v>
       </c>
       <c r="K57" s="3">
         <v>163200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="E58" s="3">
-        <v>37600</v>
+        <v>36200</v>
       </c>
       <c r="F58" s="3">
-        <v>68000</v>
+        <v>65500</v>
       </c>
       <c r="G58" s="3">
-        <v>58400</v>
+        <v>56200</v>
       </c>
       <c r="H58" s="3">
-        <v>82200</v>
+        <v>79200</v>
       </c>
       <c r="I58" s="3">
-        <v>129500</v>
+        <v>124800</v>
       </c>
       <c r="J58" s="3">
-        <v>86300</v>
+        <v>83200</v>
       </c>
       <c r="K58" s="3">
         <v>116100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54200</v>
+        <v>52200</v>
       </c>
       <c r="E59" s="3">
-        <v>53200</v>
+        <v>51200</v>
       </c>
       <c r="F59" s="3">
-        <v>67700</v>
+        <v>65200</v>
       </c>
       <c r="G59" s="3">
-        <v>44500</v>
+        <v>42900</v>
       </c>
       <c r="H59" s="3">
-        <v>32300</v>
+        <v>31100</v>
       </c>
       <c r="I59" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="J59" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="K59" s="3">
         <v>6900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413700</v>
+        <v>398500</v>
       </c>
       <c r="E60" s="3">
-        <v>414700</v>
+        <v>399500</v>
       </c>
       <c r="F60" s="3">
-        <v>412500</v>
+        <v>397300</v>
       </c>
       <c r="G60" s="3">
-        <v>387600</v>
+        <v>373300</v>
       </c>
       <c r="H60" s="3">
-        <v>392900</v>
+        <v>378500</v>
       </c>
       <c r="I60" s="3">
-        <v>453500</v>
+        <v>436800</v>
       </c>
       <c r="J60" s="3">
-        <v>399300</v>
+        <v>384600</v>
       </c>
       <c r="K60" s="3">
         <v>286200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1025500</v>
+        <v>987800</v>
       </c>
       <c r="E61" s="3">
-        <v>1083300</v>
+        <v>1043400</v>
       </c>
       <c r="F61" s="3">
-        <v>1174400</v>
+        <v>1131200</v>
       </c>
       <c r="G61" s="3">
-        <v>1243000</v>
+        <v>1197200</v>
       </c>
       <c r="H61" s="3">
-        <v>1411500</v>
+        <v>1359600</v>
       </c>
       <c r="I61" s="3">
-        <v>1441000</v>
+        <v>1387900</v>
       </c>
       <c r="J61" s="3">
-        <v>1562600</v>
+        <v>1505000</v>
       </c>
       <c r="K61" s="3">
         <v>503700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>511800</v>
+        <v>493000</v>
       </c>
       <c r="E62" s="3">
-        <v>481400</v>
+        <v>463700</v>
       </c>
       <c r="F62" s="3">
-        <v>607500</v>
+        <v>585100</v>
       </c>
       <c r="G62" s="3">
-        <v>569500</v>
+        <v>548600</v>
       </c>
       <c r="H62" s="3">
-        <v>602900</v>
+        <v>580700</v>
       </c>
       <c r="I62" s="3">
-        <v>709800</v>
+        <v>683700</v>
       </c>
       <c r="J62" s="3">
-        <v>754100</v>
+        <v>726300</v>
       </c>
       <c r="K62" s="3">
         <v>302800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2065200</v>
+        <v>1989200</v>
       </c>
       <c r="E66" s="3">
-        <v>2094200</v>
+        <v>2017100</v>
       </c>
       <c r="F66" s="3">
-        <v>2305900</v>
+        <v>2221100</v>
       </c>
       <c r="G66" s="3">
-        <v>2309300</v>
+        <v>2224300</v>
       </c>
       <c r="H66" s="3">
-        <v>2523300</v>
+        <v>2430400</v>
       </c>
       <c r="I66" s="3">
-        <v>2723500</v>
+        <v>2623200</v>
       </c>
       <c r="J66" s="3">
-        <v>2834800</v>
+        <v>2730500</v>
       </c>
       <c r="K66" s="3">
         <v>1106100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1182100</v>
+        <v>-1138600</v>
       </c>
       <c r="E72" s="3">
-        <v>-963300</v>
+        <v>-927800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1070300</v>
+        <v>-1030900</v>
       </c>
       <c r="G72" s="3">
-        <v>-569700</v>
+        <v>-548700</v>
       </c>
       <c r="H72" s="3">
-        <v>-643200</v>
+        <v>-619600</v>
       </c>
       <c r="I72" s="3">
-        <v>86000</v>
+        <v>82800</v>
       </c>
       <c r="J72" s="3">
-        <v>107000</v>
+        <v>103100</v>
       </c>
       <c r="K72" s="3">
         <v>147900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>564700</v>
+        <v>543900</v>
       </c>
       <c r="E76" s="3">
-        <v>801600</v>
+        <v>772100</v>
       </c>
       <c r="F76" s="3">
-        <v>675600</v>
+        <v>650800</v>
       </c>
       <c r="G76" s="3">
-        <v>1198900</v>
+        <v>1154800</v>
       </c>
       <c r="H76" s="3">
-        <v>1143100</v>
+        <v>1101000</v>
       </c>
       <c r="I76" s="3">
-        <v>1832600</v>
+        <v>1765200</v>
       </c>
       <c r="J76" s="3">
-        <v>1740400</v>
+        <v>1676400</v>
       </c>
       <c r="K76" s="3">
         <v>930500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-184000</v>
+        <v>-177200</v>
       </c>
       <c r="E81" s="3">
-        <v>129600</v>
+        <v>124800</v>
       </c>
       <c r="F81" s="3">
-        <v>-469600</v>
+        <v>-452300</v>
       </c>
       <c r="G81" s="3">
-        <v>117200</v>
+        <v>112900</v>
       </c>
       <c r="H81" s="3">
-        <v>-589100</v>
+        <v>-567400</v>
       </c>
       <c r="I81" s="3">
-        <v>143900</v>
+        <v>138600</v>
       </c>
       <c r="J81" s="3">
-        <v>94600</v>
+        <v>91100</v>
       </c>
       <c r="K81" s="3">
         <v>-19500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>556100</v>
+        <v>535700</v>
       </c>
       <c r="E83" s="3">
-        <v>494700</v>
+        <v>476400</v>
       </c>
       <c r="F83" s="3">
-        <v>506400</v>
+        <v>487800</v>
       </c>
       <c r="G83" s="3">
-        <v>536700</v>
+        <v>517000</v>
       </c>
       <c r="H83" s="3">
-        <v>461300</v>
+        <v>444300</v>
       </c>
       <c r="I83" s="3">
-        <v>470400</v>
+        <v>453000</v>
       </c>
       <c r="J83" s="3">
-        <v>307800</v>
+        <v>296500</v>
       </c>
       <c r="K83" s="3">
         <v>205300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>162800</v>
+        <v>156800</v>
       </c>
       <c r="E89" s="3">
-        <v>206100</v>
+        <v>198500</v>
       </c>
       <c r="F89" s="3">
-        <v>235200</v>
+        <v>226600</v>
       </c>
       <c r="G89" s="3">
-        <v>258000</v>
+        <v>248500</v>
       </c>
       <c r="H89" s="3">
-        <v>278500</v>
+        <v>268200</v>
       </c>
       <c r="I89" s="3">
-        <v>223900</v>
+        <v>215600</v>
       </c>
       <c r="J89" s="3">
-        <v>150300</v>
+        <v>144800</v>
       </c>
       <c r="K89" s="3">
         <v>162800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="E91" s="3">
-        <v>-14700</v>
+        <v>-14100</v>
       </c>
       <c r="F91" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="G91" s="3">
-        <v>-22600</v>
+        <v>-21700</v>
       </c>
       <c r="H91" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="I91" s="3">
-        <v>-20300</v>
+        <v>-19500</v>
       </c>
       <c r="J91" s="3">
-        <v>-16900</v>
+        <v>-16300</v>
       </c>
       <c r="K91" s="3">
         <v>-12900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="E94" s="3">
-        <v>-22200</v>
+        <v>-21400</v>
       </c>
       <c r="F94" s="3">
-        <v>-14300</v>
+        <v>-13700</v>
       </c>
       <c r="G94" s="3">
-        <v>-22700</v>
+        <v>-21900</v>
       </c>
       <c r="H94" s="3">
-        <v>-19200</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3">
-        <v>-15700</v>
+        <v>-15100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1245200</v>
+        <v>-1199400</v>
       </c>
       <c r="K94" s="3">
         <v>-22400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-37200</v>
+        <v>-35800</v>
       </c>
       <c r="E96" s="3">
-        <v>-37500</v>
+        <v>-36200</v>
       </c>
       <c r="F96" s="3">
-        <v>-37800</v>
+        <v>-36400</v>
       </c>
       <c r="G96" s="3">
-        <v>-28600</v>
+        <v>-27600</v>
       </c>
       <c r="H96" s="3">
-        <v>-149300</v>
+        <v>-143800</v>
       </c>
       <c r="I96" s="3">
-        <v>-79600</v>
+        <v>-76700</v>
       </c>
       <c r="J96" s="3">
-        <v>-67400</v>
+        <v>-64900</v>
       </c>
       <c r="K96" s="3">
         <v>-59000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-173300</v>
+        <v>-166900</v>
       </c>
       <c r="E100" s="3">
-        <v>-185600</v>
+        <v>-178800</v>
       </c>
       <c r="F100" s="3">
-        <v>-248500</v>
+        <v>-239300</v>
       </c>
       <c r="G100" s="3">
-        <v>-244500</v>
+        <v>-235500</v>
       </c>
       <c r="H100" s="3">
-        <v>-258500</v>
+        <v>-249000</v>
       </c>
       <c r="I100" s="3">
-        <v>-191400</v>
+        <v>-184300</v>
       </c>
       <c r="J100" s="3">
-        <v>1120400</v>
+        <v>1079100</v>
       </c>
       <c r="K100" s="3">
         <v>-120400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>-27500</v>
+        <v>-26500</v>
       </c>
       <c r="G102" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="H102" s="3">
         <v>800</v>
       </c>
       <c r="I102" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="J102" s="3">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="K102" s="3">
         <v>20000</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1156100</v>
+        <v>1184100</v>
       </c>
       <c r="E8" s="3">
-        <v>1116300</v>
+        <v>1143300</v>
       </c>
       <c r="F8" s="3">
-        <v>1093000</v>
+        <v>1119400</v>
       </c>
       <c r="G8" s="3">
-        <v>1220400</v>
+        <v>1250000</v>
       </c>
       <c r="H8" s="3">
-        <v>1191400</v>
+        <v>1220300</v>
       </c>
       <c r="I8" s="3">
-        <v>1214300</v>
+        <v>1243700</v>
       </c>
       <c r="J8" s="3">
-        <v>847100</v>
+        <v>867600</v>
       </c>
       <c r="K8" s="3">
         <v>630800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>453600</v>
+        <v>464600</v>
       </c>
       <c r="E9" s="3">
-        <v>390800</v>
+        <v>400300</v>
       </c>
       <c r="F9" s="3">
-        <v>394400</v>
+        <v>404000</v>
       </c>
       <c r="G9" s="3">
-        <v>410300</v>
+        <v>420200</v>
       </c>
       <c r="H9" s="3">
-        <v>404900</v>
+        <v>414700</v>
       </c>
       <c r="I9" s="3">
-        <v>406700</v>
+        <v>416500</v>
       </c>
       <c r="J9" s="3">
-        <v>259200</v>
+        <v>265500</v>
       </c>
       <c r="K9" s="3">
         <v>205900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>702500</v>
+        <v>719500</v>
       </c>
       <c r="E10" s="3">
-        <v>725500</v>
+        <v>743000</v>
       </c>
       <c r="F10" s="3">
-        <v>698500</v>
+        <v>715500</v>
       </c>
       <c r="G10" s="3">
-        <v>810200</v>
+        <v>829800</v>
       </c>
       <c r="H10" s="3">
-        <v>786500</v>
+        <v>805600</v>
       </c>
       <c r="I10" s="3">
-        <v>807600</v>
+        <v>827200</v>
       </c>
       <c r="J10" s="3">
-        <v>587900</v>
+        <v>602100</v>
       </c>
       <c r="K10" s="3">
         <v>424900</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>258100</v>
+        <v>264300</v>
       </c>
       <c r="E14" s="3">
         <v>-300</v>
       </c>
       <c r="F14" s="3">
-        <v>557700</v>
+        <v>571200</v>
       </c>
       <c r="G14" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="H14" s="3">
-        <v>745500</v>
+        <v>763500</v>
       </c>
       <c r="I14" s="3">
-        <v>26900</v>
+        <v>27600</v>
       </c>
       <c r="J14" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K14" s="3">
         <v>155400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>113500</v>
+        <v>116200</v>
       </c>
       <c r="E15" s="3">
-        <v>110100</v>
+        <v>112800</v>
       </c>
       <c r="F15" s="3">
-        <v>114700</v>
+        <v>117400</v>
       </c>
       <c r="G15" s="3">
-        <v>131900</v>
+        <v>135100</v>
       </c>
       <c r="H15" s="3">
-        <v>59200</v>
+        <v>60600</v>
       </c>
       <c r="I15" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="J15" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="K15" s="3">
         <v>18600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1294900</v>
+        <v>1326300</v>
       </c>
       <c r="E17" s="3">
-        <v>925800</v>
+        <v>948300</v>
       </c>
       <c r="F17" s="3">
-        <v>1502100</v>
+        <v>1538500</v>
       </c>
       <c r="G17" s="3">
-        <v>1038100</v>
+        <v>1063200</v>
       </c>
       <c r="H17" s="3">
-        <v>1676000</v>
+        <v>1716600</v>
       </c>
       <c r="I17" s="3">
-        <v>992600</v>
+        <v>1016600</v>
       </c>
       <c r="J17" s="3">
-        <v>713200</v>
+        <v>730500</v>
       </c>
       <c r="K17" s="3">
         <v>622000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-138800</v>
+        <v>-142100</v>
       </c>
       <c r="E18" s="3">
-        <v>190400</v>
+        <v>195100</v>
       </c>
       <c r="F18" s="3">
-        <v>-409200</v>
+        <v>-419100</v>
       </c>
       <c r="G18" s="3">
-        <v>182300</v>
+        <v>186700</v>
       </c>
       <c r="H18" s="3">
-        <v>-484600</v>
+        <v>-496300</v>
       </c>
       <c r="I18" s="3">
-        <v>221700</v>
+        <v>227100</v>
       </c>
       <c r="J18" s="3">
-        <v>133900</v>
+        <v>137100</v>
       </c>
       <c r="K18" s="3">
         <v>8900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>397800</v>
+        <v>408500</v>
       </c>
       <c r="E21" s="3">
-        <v>667700</v>
+        <v>684800</v>
       </c>
       <c r="F21" s="3">
-        <v>79400</v>
+        <v>82300</v>
       </c>
       <c r="G21" s="3">
-        <v>700200</v>
+        <v>718200</v>
       </c>
       <c r="H21" s="3">
-        <v>-39500</v>
+        <v>-39600</v>
       </c>
       <c r="I21" s="3">
-        <v>675500</v>
+        <v>692800</v>
       </c>
       <c r="J21" s="3">
-        <v>430900</v>
+        <v>441900</v>
       </c>
       <c r="K21" s="3">
         <v>213600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-138800</v>
+        <v>-142100</v>
       </c>
       <c r="E23" s="3">
-        <v>190400</v>
+        <v>195100</v>
       </c>
       <c r="F23" s="3">
-        <v>-409200</v>
+        <v>-419100</v>
       </c>
       <c r="G23" s="3">
-        <v>182300</v>
+        <v>186700</v>
       </c>
       <c r="H23" s="3">
-        <v>-484600</v>
+        <v>-496300</v>
       </c>
       <c r="I23" s="3">
-        <v>221700</v>
+        <v>227100</v>
       </c>
       <c r="J23" s="3">
-        <v>133900</v>
+        <v>137100</v>
       </c>
       <c r="K23" s="3">
         <v>8900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29200</v>
+        <v>29900</v>
       </c>
       <c r="E24" s="3">
-        <v>49700</v>
+        <v>50900</v>
       </c>
       <c r="F24" s="3">
-        <v>30300</v>
+        <v>31100</v>
       </c>
       <c r="G24" s="3">
-        <v>51700</v>
+        <v>52900</v>
       </c>
       <c r="H24" s="3">
-        <v>63700</v>
+        <v>65300</v>
       </c>
       <c r="I24" s="3">
-        <v>59700</v>
+        <v>61100</v>
       </c>
       <c r="J24" s="3">
-        <v>30100</v>
+        <v>30800</v>
       </c>
       <c r="K24" s="3">
         <v>24000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-168000</v>
+        <v>-172000</v>
       </c>
       <c r="E26" s="3">
-        <v>140700</v>
+        <v>144100</v>
       </c>
       <c r="F26" s="3">
-        <v>-439500</v>
+        <v>-450200</v>
       </c>
       <c r="G26" s="3">
-        <v>130700</v>
+        <v>133800</v>
       </c>
       <c r="H26" s="3">
-        <v>-548300</v>
+        <v>-561600</v>
       </c>
       <c r="I26" s="3">
-        <v>162100</v>
+        <v>166000</v>
       </c>
       <c r="J26" s="3">
-        <v>103800</v>
+        <v>106300</v>
       </c>
       <c r="K26" s="3">
         <v>-15100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-177200</v>
+        <v>-181500</v>
       </c>
       <c r="E27" s="3">
-        <v>124800</v>
+        <v>127800</v>
       </c>
       <c r="F27" s="3">
-        <v>-452300</v>
+        <v>-463200</v>
       </c>
       <c r="G27" s="3">
-        <v>112900</v>
+        <v>115600</v>
       </c>
       <c r="H27" s="3">
-        <v>-567400</v>
+        <v>-581100</v>
       </c>
       <c r="I27" s="3">
-        <v>138600</v>
+        <v>142000</v>
       </c>
       <c r="J27" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="K27" s="3">
         <v>-19500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-177200</v>
+        <v>-181500</v>
       </c>
       <c r="E33" s="3">
-        <v>124800</v>
+        <v>127800</v>
       </c>
       <c r="F33" s="3">
-        <v>-452300</v>
+        <v>-463200</v>
       </c>
       <c r="G33" s="3">
-        <v>112900</v>
+        <v>115600</v>
       </c>
       <c r="H33" s="3">
-        <v>-567400</v>
+        <v>-581100</v>
       </c>
       <c r="I33" s="3">
-        <v>138600</v>
+        <v>142000</v>
       </c>
       <c r="J33" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="K33" s="3">
         <v>-19500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-177200</v>
+        <v>-181500</v>
       </c>
       <c r="E35" s="3">
-        <v>124800</v>
+        <v>127800</v>
       </c>
       <c r="F35" s="3">
-        <v>-452300</v>
+        <v>-463200</v>
       </c>
       <c r="G35" s="3">
-        <v>112900</v>
+        <v>115600</v>
       </c>
       <c r="H35" s="3">
-        <v>-567400</v>
+        <v>-581100</v>
       </c>
       <c r="I35" s="3">
-        <v>138600</v>
+        <v>142000</v>
       </c>
       <c r="J35" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="K35" s="3">
         <v>-19500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="E41" s="3">
-        <v>31600</v>
+        <v>32400</v>
       </c>
       <c r="F41" s="3">
-        <v>33200</v>
+        <v>34000</v>
       </c>
       <c r="G41" s="3">
-        <v>59700</v>
+        <v>61200</v>
       </c>
       <c r="H41" s="3">
-        <v>68600</v>
+        <v>70200</v>
       </c>
       <c r="I41" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="J41" s="3">
-        <v>51600</v>
+        <v>52900</v>
       </c>
       <c r="K41" s="3">
         <v>29000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>237400</v>
+        <v>243100</v>
       </c>
       <c r="E43" s="3">
-        <v>239500</v>
+        <v>245300</v>
       </c>
       <c r="F43" s="3">
-        <v>215200</v>
+        <v>220400</v>
       </c>
       <c r="G43" s="3">
-        <v>279600</v>
+        <v>286400</v>
       </c>
       <c r="H43" s="3">
-        <v>283500</v>
+        <v>290400</v>
       </c>
       <c r="I43" s="3">
-        <v>296400</v>
+        <v>303600</v>
       </c>
       <c r="J43" s="3">
-        <v>274700</v>
+        <v>281400</v>
       </c>
       <c r="K43" s="3">
         <v>137000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="E45" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G45" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="H45" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="I45" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="J45" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>292600</v>
+        <v>299700</v>
       </c>
       <c r="E46" s="3">
-        <v>288500</v>
+        <v>295500</v>
       </c>
       <c r="F46" s="3">
-        <v>260800</v>
+        <v>267100</v>
       </c>
       <c r="G46" s="3">
-        <v>353500</v>
+        <v>362000</v>
       </c>
       <c r="H46" s="3">
-        <v>367100</v>
+        <v>376000</v>
       </c>
       <c r="I46" s="3">
-        <v>380000</v>
+        <v>389200</v>
       </c>
       <c r="J46" s="3">
-        <v>340000</v>
+        <v>348200</v>
       </c>
       <c r="K46" s="3">
         <v>176700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46000</v>
+        <v>47100</v>
       </c>
       <c r="E47" s="3">
-        <v>62100</v>
+        <v>63600</v>
       </c>
       <c r="F47" s="3">
-        <v>52600</v>
+        <v>53900</v>
       </c>
       <c r="G47" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="H47" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="J47" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="K47" s="3">
         <v>32600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>212600</v>
+        <v>217800</v>
       </c>
       <c r="E48" s="3">
-        <v>228700</v>
+        <v>234200</v>
       </c>
       <c r="F48" s="3">
-        <v>241400</v>
+        <v>247200</v>
       </c>
       <c r="G48" s="3">
-        <v>163400</v>
+        <v>167400</v>
       </c>
       <c r="H48" s="3">
-        <v>167200</v>
+        <v>171300</v>
       </c>
       <c r="I48" s="3">
-        <v>188100</v>
+        <v>192600</v>
       </c>
       <c r="J48" s="3">
-        <v>204000</v>
+        <v>209000</v>
       </c>
       <c r="K48" s="3">
         <v>107700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1921600</v>
+        <v>1968100</v>
       </c>
       <c r="E49" s="3">
-        <v>2146700</v>
+        <v>2198700</v>
       </c>
       <c r="F49" s="3">
-        <v>2268500</v>
+        <v>2323500</v>
       </c>
       <c r="G49" s="3">
-        <v>2763700</v>
+        <v>2830700</v>
       </c>
       <c r="H49" s="3">
-        <v>2879500</v>
+        <v>2949300</v>
       </c>
       <c r="I49" s="3">
-        <v>3704700</v>
+        <v>3794500</v>
       </c>
       <c r="J49" s="3">
-        <v>3756600</v>
+        <v>3847600</v>
       </c>
       <c r="K49" s="3">
         <v>1667400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60300</v>
+        <v>61800</v>
       </c>
       <c r="E52" s="3">
-        <v>63200</v>
+        <v>64700</v>
       </c>
       <c r="F52" s="3">
-        <v>48500</v>
+        <v>49700</v>
       </c>
       <c r="G52" s="3">
-        <v>80400</v>
+        <v>82300</v>
       </c>
       <c r="H52" s="3">
-        <v>98100</v>
+        <v>100500</v>
       </c>
       <c r="I52" s="3">
-        <v>94800</v>
+        <v>97100</v>
       </c>
       <c r="J52" s="3">
-        <v>80700</v>
+        <v>82600</v>
       </c>
       <c r="K52" s="3">
         <v>52300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2533100</v>
+        <v>2594400</v>
       </c>
       <c r="E54" s="3">
-        <v>2789200</v>
+        <v>2856800</v>
       </c>
       <c r="F54" s="3">
-        <v>2871800</v>
+        <v>2941400</v>
       </c>
       <c r="G54" s="3">
-        <v>3379100</v>
+        <v>3461000</v>
       </c>
       <c r="H54" s="3">
-        <v>3531400</v>
+        <v>3617000</v>
       </c>
       <c r="I54" s="3">
-        <v>4388400</v>
+        <v>4494700</v>
       </c>
       <c r="J54" s="3">
-        <v>4406900</v>
+        <v>4513600</v>
       </c>
       <c r="K54" s="3">
         <v>2036600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>324400</v>
+        <v>332300</v>
       </c>
       <c r="E57" s="3">
-        <v>312000</v>
+        <v>319600</v>
       </c>
       <c r="F57" s="3">
-        <v>266600</v>
+        <v>273000</v>
       </c>
       <c r="G57" s="3">
-        <v>274200</v>
+        <v>280800</v>
       </c>
       <c r="H57" s="3">
-        <v>268200</v>
+        <v>274700</v>
       </c>
       <c r="I57" s="3">
-        <v>300600</v>
+        <v>307900</v>
       </c>
       <c r="J57" s="3">
-        <v>284500</v>
+        <v>291400</v>
       </c>
       <c r="K57" s="3">
         <v>163200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21800</v>
+        <v>22400</v>
       </c>
       <c r="E58" s="3">
-        <v>36200</v>
+        <v>37100</v>
       </c>
       <c r="F58" s="3">
-        <v>65500</v>
+        <v>67100</v>
       </c>
       <c r="G58" s="3">
-        <v>56200</v>
+        <v>57600</v>
       </c>
       <c r="H58" s="3">
-        <v>79200</v>
+        <v>81100</v>
       </c>
       <c r="I58" s="3">
-        <v>124800</v>
+        <v>127800</v>
       </c>
       <c r="J58" s="3">
-        <v>83200</v>
+        <v>85200</v>
       </c>
       <c r="K58" s="3">
         <v>116100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52200</v>
+        <v>53500</v>
       </c>
       <c r="E59" s="3">
-        <v>51200</v>
+        <v>52500</v>
       </c>
       <c r="F59" s="3">
-        <v>65200</v>
+        <v>66800</v>
       </c>
       <c r="G59" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="H59" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="I59" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="J59" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="K59" s="3">
         <v>6900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>398500</v>
+        <v>408200</v>
       </c>
       <c r="E60" s="3">
-        <v>399500</v>
+        <v>409100</v>
       </c>
       <c r="F60" s="3">
-        <v>397300</v>
+        <v>406900</v>
       </c>
       <c r="G60" s="3">
-        <v>373300</v>
+        <v>382300</v>
       </c>
       <c r="H60" s="3">
-        <v>378500</v>
+        <v>387600</v>
       </c>
       <c r="I60" s="3">
-        <v>436800</v>
+        <v>447400</v>
       </c>
       <c r="J60" s="3">
-        <v>384600</v>
+        <v>393900</v>
       </c>
       <c r="K60" s="3">
         <v>286200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>987800</v>
+        <v>1011700</v>
       </c>
       <c r="E61" s="3">
-        <v>1043400</v>
+        <v>1068700</v>
       </c>
       <c r="F61" s="3">
-        <v>1131200</v>
+        <v>1158600</v>
       </c>
       <c r="G61" s="3">
-        <v>1197200</v>
+        <v>1226200</v>
       </c>
       <c r="H61" s="3">
-        <v>1359600</v>
+        <v>1392500</v>
       </c>
       <c r="I61" s="3">
-        <v>1387900</v>
+        <v>1421500</v>
       </c>
       <c r="J61" s="3">
-        <v>1505000</v>
+        <v>1541500</v>
       </c>
       <c r="K61" s="3">
         <v>503700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>493000</v>
+        <v>504900</v>
       </c>
       <c r="E62" s="3">
-        <v>463700</v>
+        <v>474900</v>
       </c>
       <c r="F62" s="3">
-        <v>585100</v>
+        <v>599300</v>
       </c>
       <c r="G62" s="3">
-        <v>548600</v>
+        <v>561900</v>
       </c>
       <c r="H62" s="3">
-        <v>580700</v>
+        <v>594800</v>
       </c>
       <c r="I62" s="3">
-        <v>683700</v>
+        <v>700200</v>
       </c>
       <c r="J62" s="3">
-        <v>726300</v>
+        <v>743900</v>
       </c>
       <c r="K62" s="3">
         <v>302800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1989200</v>
+        <v>2037400</v>
       </c>
       <c r="E66" s="3">
-        <v>2017100</v>
+        <v>2066000</v>
       </c>
       <c r="F66" s="3">
-        <v>2221100</v>
+        <v>2274900</v>
       </c>
       <c r="G66" s="3">
-        <v>2224300</v>
+        <v>2278200</v>
       </c>
       <c r="H66" s="3">
-        <v>2430400</v>
+        <v>2489300</v>
       </c>
       <c r="I66" s="3">
-        <v>2623200</v>
+        <v>2686800</v>
       </c>
       <c r="J66" s="3">
-        <v>2730500</v>
+        <v>2796600</v>
       </c>
       <c r="K66" s="3">
         <v>1106100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1138600</v>
+        <v>-1166200</v>
       </c>
       <c r="E72" s="3">
-        <v>-927800</v>
+        <v>-950300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1030900</v>
+        <v>-1055900</v>
       </c>
       <c r="G72" s="3">
-        <v>-548700</v>
+        <v>-562000</v>
       </c>
       <c r="H72" s="3">
-        <v>-619600</v>
+        <v>-634600</v>
       </c>
       <c r="I72" s="3">
-        <v>82800</v>
+        <v>84800</v>
       </c>
       <c r="J72" s="3">
-        <v>103100</v>
+        <v>105600</v>
       </c>
       <c r="K72" s="3">
         <v>147900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>543900</v>
+        <v>557100</v>
       </c>
       <c r="E76" s="3">
-        <v>772100</v>
+        <v>790800</v>
       </c>
       <c r="F76" s="3">
-        <v>650800</v>
+        <v>666500</v>
       </c>
       <c r="G76" s="3">
-        <v>1154800</v>
+        <v>1182800</v>
       </c>
       <c r="H76" s="3">
-        <v>1101000</v>
+        <v>1127700</v>
       </c>
       <c r="I76" s="3">
-        <v>1765200</v>
+        <v>1807900</v>
       </c>
       <c r="J76" s="3">
-        <v>1676400</v>
+        <v>1717000</v>
       </c>
       <c r="K76" s="3">
         <v>930500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-177200</v>
+        <v>-181500</v>
       </c>
       <c r="E81" s="3">
-        <v>124800</v>
+        <v>127800</v>
       </c>
       <c r="F81" s="3">
-        <v>-452300</v>
+        <v>-463200</v>
       </c>
       <c r="G81" s="3">
-        <v>112900</v>
+        <v>115600</v>
       </c>
       <c r="H81" s="3">
-        <v>-567400</v>
+        <v>-581100</v>
       </c>
       <c r="I81" s="3">
-        <v>138600</v>
+        <v>142000</v>
       </c>
       <c r="J81" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="K81" s="3">
         <v>-19500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>535700</v>
+        <v>548600</v>
       </c>
       <c r="E83" s="3">
-        <v>476400</v>
+        <v>488000</v>
       </c>
       <c r="F83" s="3">
-        <v>487800</v>
+        <v>499600</v>
       </c>
       <c r="G83" s="3">
-        <v>517000</v>
+        <v>529500</v>
       </c>
       <c r="H83" s="3">
-        <v>444300</v>
+        <v>455100</v>
       </c>
       <c r="I83" s="3">
-        <v>453000</v>
+        <v>464000</v>
       </c>
       <c r="J83" s="3">
-        <v>296500</v>
+        <v>303700</v>
       </c>
       <c r="K83" s="3">
         <v>205300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>156800</v>
+        <v>160600</v>
       </c>
       <c r="E89" s="3">
-        <v>198500</v>
+        <v>203300</v>
       </c>
       <c r="F89" s="3">
-        <v>226600</v>
+        <v>232100</v>
       </c>
       <c r="G89" s="3">
-        <v>248500</v>
+        <v>254500</v>
       </c>
       <c r="H89" s="3">
-        <v>268200</v>
+        <v>274700</v>
       </c>
       <c r="I89" s="3">
-        <v>215600</v>
+        <v>220800</v>
       </c>
       <c r="J89" s="3">
-        <v>144800</v>
+        <v>148300</v>
       </c>
       <c r="K89" s="3">
         <v>162800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12900</v>
+        <v>-13200</v>
       </c>
       <c r="E91" s="3">
-        <v>-14100</v>
+        <v>-14500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="G91" s="3">
-        <v>-21700</v>
+        <v>-22300</v>
       </c>
       <c r="H91" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="I91" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="J91" s="3">
-        <v>-16300</v>
+        <v>-16700</v>
       </c>
       <c r="K91" s="3">
         <v>-12900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="E94" s="3">
-        <v>-21400</v>
+        <v>-21900</v>
       </c>
       <c r="F94" s="3">
-        <v>-13700</v>
+        <v>-14100</v>
       </c>
       <c r="G94" s="3">
-        <v>-21900</v>
+        <v>-22400</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-18900</v>
       </c>
       <c r="I94" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1199400</v>
+        <v>-1228500</v>
       </c>
       <c r="K94" s="3">
         <v>-22400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-35800</v>
+        <v>-36700</v>
       </c>
       <c r="E96" s="3">
-        <v>-36200</v>
+        <v>-37000</v>
       </c>
       <c r="F96" s="3">
-        <v>-36400</v>
+        <v>-37300</v>
       </c>
       <c r="G96" s="3">
-        <v>-27600</v>
+        <v>-28300</v>
       </c>
       <c r="H96" s="3">
-        <v>-143800</v>
+        <v>-147300</v>
       </c>
       <c r="I96" s="3">
-        <v>-76700</v>
+        <v>-78600</v>
       </c>
       <c r="J96" s="3">
-        <v>-64900</v>
+        <v>-66400</v>
       </c>
       <c r="K96" s="3">
         <v>-59000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-166900</v>
+        <v>-170900</v>
       </c>
       <c r="E100" s="3">
-        <v>-178800</v>
+        <v>-183100</v>
       </c>
       <c r="F100" s="3">
-        <v>-239300</v>
+        <v>-245100</v>
       </c>
       <c r="G100" s="3">
-        <v>-235500</v>
+        <v>-241200</v>
       </c>
       <c r="H100" s="3">
-        <v>-249000</v>
+        <v>-255000</v>
       </c>
       <c r="I100" s="3">
-        <v>-184300</v>
+        <v>-188800</v>
       </c>
       <c r="J100" s="3">
-        <v>1079100</v>
+        <v>1105300</v>
       </c>
       <c r="K100" s="3">
         <v>-120400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E102" s="3">
         <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>-26500</v>
+        <v>-27200</v>
       </c>
       <c r="G102" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="H102" s="3">
         <v>800</v>
       </c>
       <c r="I102" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="J102" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="K102" s="3">
         <v>20000</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1184100</v>
+        <v>1183500</v>
       </c>
       <c r="E8" s="3">
-        <v>1143300</v>
+        <v>1142700</v>
       </c>
       <c r="F8" s="3">
-        <v>1119400</v>
+        <v>1118900</v>
       </c>
       <c r="G8" s="3">
-        <v>1250000</v>
+        <v>1249300</v>
       </c>
       <c r="H8" s="3">
-        <v>1220300</v>
+        <v>1219600</v>
       </c>
       <c r="I8" s="3">
-        <v>1243700</v>
+        <v>1243100</v>
       </c>
       <c r="J8" s="3">
-        <v>867600</v>
+        <v>867200</v>
       </c>
       <c r="K8" s="3">
         <v>630800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>464600</v>
+        <v>464400</v>
       </c>
       <c r="E9" s="3">
-        <v>400300</v>
+        <v>400100</v>
       </c>
       <c r="F9" s="3">
-        <v>404000</v>
+        <v>403800</v>
       </c>
       <c r="G9" s="3">
-        <v>420200</v>
+        <v>420000</v>
       </c>
       <c r="H9" s="3">
-        <v>414700</v>
+        <v>414500</v>
       </c>
       <c r="I9" s="3">
-        <v>416500</v>
+        <v>416300</v>
       </c>
       <c r="J9" s="3">
-        <v>265500</v>
+        <v>265400</v>
       </c>
       <c r="K9" s="3">
         <v>205900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>719500</v>
+        <v>719200</v>
       </c>
       <c r="E10" s="3">
-        <v>743000</v>
+        <v>742700</v>
       </c>
       <c r="F10" s="3">
-        <v>715500</v>
+        <v>715100</v>
       </c>
       <c r="G10" s="3">
-        <v>829800</v>
+        <v>829400</v>
       </c>
       <c r="H10" s="3">
-        <v>805600</v>
+        <v>805100</v>
       </c>
       <c r="I10" s="3">
-        <v>827200</v>
+        <v>826800</v>
       </c>
       <c r="J10" s="3">
-        <v>602100</v>
+        <v>601800</v>
       </c>
       <c r="K10" s="3">
         <v>424900</v>
@@ -954,19 +954,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>264300</v>
+        <v>264200</v>
       </c>
       <c r="E14" s="3">
         <v>-300</v>
       </c>
       <c r="F14" s="3">
-        <v>571200</v>
+        <v>570900</v>
       </c>
       <c r="G14" s="3">
         <v>23100</v>
       </c>
       <c r="H14" s="3">
-        <v>763500</v>
+        <v>763100</v>
       </c>
       <c r="I14" s="3">
         <v>27600</v>
@@ -999,19 +999,19 @@
         <v>116200</v>
       </c>
       <c r="E15" s="3">
-        <v>112800</v>
+        <v>112700</v>
       </c>
       <c r="F15" s="3">
         <v>117400</v>
       </c>
       <c r="G15" s="3">
-        <v>135100</v>
+        <v>135000</v>
       </c>
       <c r="H15" s="3">
         <v>60600</v>
       </c>
       <c r="I15" s="3">
-        <v>68000</v>
+        <v>67900</v>
       </c>
       <c r="J15" s="3">
         <v>54800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1326300</v>
+        <v>1325600</v>
       </c>
       <c r="E17" s="3">
-        <v>948300</v>
+        <v>947800</v>
       </c>
       <c r="F17" s="3">
-        <v>1538500</v>
+        <v>1537700</v>
       </c>
       <c r="G17" s="3">
-        <v>1063200</v>
+        <v>1062700</v>
       </c>
       <c r="H17" s="3">
-        <v>1716600</v>
+        <v>1715700</v>
       </c>
       <c r="I17" s="3">
-        <v>1016600</v>
+        <v>1016100</v>
       </c>
       <c r="J17" s="3">
-        <v>730500</v>
+        <v>730100</v>
       </c>
       <c r="K17" s="3">
         <v>622000</v>
@@ -1098,19 +1098,19 @@
         <v>-142100</v>
       </c>
       <c r="E18" s="3">
-        <v>195100</v>
+        <v>195000</v>
       </c>
       <c r="F18" s="3">
-        <v>-419100</v>
+        <v>-418900</v>
       </c>
       <c r="G18" s="3">
         <v>186700</v>
       </c>
       <c r="H18" s="3">
-        <v>-496300</v>
+        <v>-496100</v>
       </c>
       <c r="I18" s="3">
-        <v>227100</v>
+        <v>227000</v>
       </c>
       <c r="J18" s="3">
         <v>137100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>408500</v>
+        <v>406300</v>
       </c>
       <c r="E21" s="3">
-        <v>684800</v>
+        <v>682700</v>
       </c>
       <c r="F21" s="3">
-        <v>82300</v>
+        <v>80400</v>
       </c>
       <c r="G21" s="3">
-        <v>718200</v>
+        <v>715900</v>
       </c>
       <c r="H21" s="3">
-        <v>-39600</v>
+        <v>-41200</v>
       </c>
       <c r="I21" s="3">
-        <v>692800</v>
+        <v>690800</v>
       </c>
       <c r="J21" s="3">
-        <v>441900</v>
+        <v>440600</v>
       </c>
       <c r="K21" s="3">
         <v>213600</v>
@@ -1284,19 +1284,19 @@
         <v>-142100</v>
       </c>
       <c r="E23" s="3">
-        <v>195100</v>
+        <v>195000</v>
       </c>
       <c r="F23" s="3">
-        <v>-419100</v>
+        <v>-418900</v>
       </c>
       <c r="G23" s="3">
         <v>186700</v>
       </c>
       <c r="H23" s="3">
-        <v>-496300</v>
+        <v>-496100</v>
       </c>
       <c r="I23" s="3">
-        <v>227100</v>
+        <v>227000</v>
       </c>
       <c r="J23" s="3">
         <v>137100</v>
@@ -1335,7 +1335,7 @@
         <v>52900</v>
       </c>
       <c r="H24" s="3">
-        <v>65300</v>
+        <v>65200</v>
       </c>
       <c r="I24" s="3">
         <v>61100</v>
@@ -1407,22 +1407,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-172000</v>
+        <v>-171900</v>
       </c>
       <c r="E26" s="3">
         <v>144100</v>
       </c>
       <c r="F26" s="3">
-        <v>-450200</v>
+        <v>-449900</v>
       </c>
       <c r="G26" s="3">
         <v>133800</v>
       </c>
       <c r="H26" s="3">
-        <v>-561600</v>
+        <v>-561300</v>
       </c>
       <c r="I26" s="3">
-        <v>166000</v>
+        <v>165900</v>
       </c>
       <c r="J26" s="3">
         <v>106300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-181500</v>
+        <v>-181400</v>
       </c>
       <c r="E27" s="3">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="F27" s="3">
-        <v>-463200</v>
+        <v>-463000</v>
       </c>
       <c r="G27" s="3">
         <v>115600</v>
       </c>
       <c r="H27" s="3">
-        <v>-581100</v>
+        <v>-580800</v>
       </c>
       <c r="I27" s="3">
-        <v>142000</v>
+        <v>141900</v>
       </c>
       <c r="J27" s="3">
-        <v>93300</v>
+        <v>93200</v>
       </c>
       <c r="K27" s="3">
         <v>-19500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-181500</v>
+        <v>-181400</v>
       </c>
       <c r="E33" s="3">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="F33" s="3">
-        <v>-463200</v>
+        <v>-463000</v>
       </c>
       <c r="G33" s="3">
         <v>115600</v>
       </c>
       <c r="H33" s="3">
-        <v>-581100</v>
+        <v>-580800</v>
       </c>
       <c r="I33" s="3">
-        <v>142000</v>
+        <v>141900</v>
       </c>
       <c r="J33" s="3">
-        <v>93300</v>
+        <v>93200</v>
       </c>
       <c r="K33" s="3">
         <v>-19500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-181500</v>
+        <v>-181400</v>
       </c>
       <c r="E35" s="3">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="F35" s="3">
-        <v>-463200</v>
+        <v>-463000</v>
       </c>
       <c r="G35" s="3">
         <v>115600</v>
       </c>
       <c r="H35" s="3">
-        <v>-581100</v>
+        <v>-580800</v>
       </c>
       <c r="I35" s="3">
-        <v>142000</v>
+        <v>141900</v>
       </c>
       <c r="J35" s="3">
-        <v>93300</v>
+        <v>93200</v>
       </c>
       <c r="K35" s="3">
         <v>-19500</v>
@@ -1913,13 +1913,13 @@
         <v>40700</v>
       </c>
       <c r="E41" s="3">
-        <v>32400</v>
+        <v>32300</v>
       </c>
       <c r="F41" s="3">
         <v>34000</v>
       </c>
       <c r="G41" s="3">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="H41" s="3">
         <v>70200</v>
@@ -1928,7 +1928,7 @@
         <v>69400</v>
       </c>
       <c r="J41" s="3">
-        <v>52900</v>
+        <v>52800</v>
       </c>
       <c r="K41" s="3">
         <v>29000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>243100</v>
+        <v>243000</v>
       </c>
       <c r="E43" s="3">
-        <v>245300</v>
+        <v>245200</v>
       </c>
       <c r="F43" s="3">
-        <v>220400</v>
+        <v>220300</v>
       </c>
       <c r="G43" s="3">
-        <v>286400</v>
+        <v>286200</v>
       </c>
       <c r="H43" s="3">
-        <v>290400</v>
+        <v>290300</v>
       </c>
       <c r="I43" s="3">
-        <v>303600</v>
+        <v>303400</v>
       </c>
       <c r="J43" s="3">
-        <v>281400</v>
+        <v>281200</v>
       </c>
       <c r="K43" s="3">
         <v>137000</v>
@@ -2081,7 +2081,7 @@
         <v>15900</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="F45" s="3">
         <v>12700</v>
@@ -2090,13 +2090,13 @@
         <v>14500</v>
       </c>
       <c r="H45" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="I45" s="3">
         <v>16200</v>
       </c>
       <c r="J45" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>299700</v>
+        <v>299500</v>
       </c>
       <c r="E46" s="3">
-        <v>295500</v>
+        <v>295400</v>
       </c>
       <c r="F46" s="3">
-        <v>267100</v>
+        <v>267000</v>
       </c>
       <c r="G46" s="3">
-        <v>362000</v>
+        <v>361800</v>
       </c>
       <c r="H46" s="3">
-        <v>376000</v>
+        <v>375800</v>
       </c>
       <c r="I46" s="3">
-        <v>389200</v>
+        <v>389000</v>
       </c>
       <c r="J46" s="3">
-        <v>348200</v>
+        <v>348000</v>
       </c>
       <c r="K46" s="3">
         <v>176700</v>
@@ -2165,13 +2165,13 @@
         <v>47100</v>
       </c>
       <c r="E47" s="3">
-        <v>63600</v>
+        <v>63500</v>
       </c>
       <c r="F47" s="3">
         <v>53900</v>
       </c>
       <c r="G47" s="3">
-        <v>18600</v>
+        <v>18500</v>
       </c>
       <c r="H47" s="3">
         <v>20000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>217800</v>
+        <v>217700</v>
       </c>
       <c r="E48" s="3">
-        <v>234200</v>
+        <v>234100</v>
       </c>
       <c r="F48" s="3">
-        <v>247200</v>
+        <v>247100</v>
       </c>
       <c r="G48" s="3">
-        <v>167400</v>
+        <v>167300</v>
       </c>
       <c r="H48" s="3">
-        <v>171300</v>
+        <v>171200</v>
       </c>
       <c r="I48" s="3">
-        <v>192600</v>
+        <v>192500</v>
       </c>
       <c r="J48" s="3">
-        <v>209000</v>
+        <v>208900</v>
       </c>
       <c r="K48" s="3">
         <v>107700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1968100</v>
+        <v>1967100</v>
       </c>
       <c r="E49" s="3">
-        <v>2198700</v>
+        <v>2197500</v>
       </c>
       <c r="F49" s="3">
-        <v>2323500</v>
+        <v>2322300</v>
       </c>
       <c r="G49" s="3">
-        <v>2830700</v>
+        <v>2829200</v>
       </c>
       <c r="H49" s="3">
-        <v>2949300</v>
+        <v>2947800</v>
       </c>
       <c r="I49" s="3">
-        <v>3794500</v>
+        <v>3792500</v>
       </c>
       <c r="J49" s="3">
-        <v>3847600</v>
+        <v>3845700</v>
       </c>
       <c r="K49" s="3">
         <v>1667400</v>
@@ -2372,7 +2372,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="E52" s="3">
         <v>64700</v>
@@ -2384,7 +2384,7 @@
         <v>82300</v>
       </c>
       <c r="H52" s="3">
-        <v>100500</v>
+        <v>100400</v>
       </c>
       <c r="I52" s="3">
         <v>97100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2594400</v>
+        <v>2593100</v>
       </c>
       <c r="E54" s="3">
-        <v>2856800</v>
+        <v>2855300</v>
       </c>
       <c r="F54" s="3">
-        <v>2941400</v>
+        <v>2939900</v>
       </c>
       <c r="G54" s="3">
-        <v>3461000</v>
+        <v>3459200</v>
       </c>
       <c r="H54" s="3">
-        <v>3617000</v>
+        <v>3615100</v>
       </c>
       <c r="I54" s="3">
-        <v>4494700</v>
+        <v>4492400</v>
       </c>
       <c r="J54" s="3">
-        <v>4513600</v>
+        <v>4511300</v>
       </c>
       <c r="K54" s="3">
         <v>2036600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>332300</v>
+        <v>332100</v>
       </c>
       <c r="E57" s="3">
-        <v>319600</v>
+        <v>319400</v>
       </c>
       <c r="F57" s="3">
-        <v>273000</v>
+        <v>272900</v>
       </c>
       <c r="G57" s="3">
-        <v>280800</v>
+        <v>280700</v>
       </c>
       <c r="H57" s="3">
-        <v>274700</v>
+        <v>274500</v>
       </c>
       <c r="I57" s="3">
-        <v>307900</v>
+        <v>307700</v>
       </c>
       <c r="J57" s="3">
-        <v>291400</v>
+        <v>291200</v>
       </c>
       <c r="K57" s="3">
         <v>163200</v>
@@ -2591,10 +2591,10 @@
         <v>81100</v>
       </c>
       <c r="I58" s="3">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="J58" s="3">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="K58" s="3">
         <v>116100</v>
@@ -2618,13 +2618,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53500</v>
+        <v>53400</v>
       </c>
       <c r="E59" s="3">
-        <v>52500</v>
+        <v>52400</v>
       </c>
       <c r="F59" s="3">
-        <v>66800</v>
+        <v>66700</v>
       </c>
       <c r="G59" s="3">
         <v>43900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>408200</v>
+        <v>407900</v>
       </c>
       <c r="E60" s="3">
-        <v>409100</v>
+        <v>408900</v>
       </c>
       <c r="F60" s="3">
-        <v>406900</v>
+        <v>406700</v>
       </c>
       <c r="G60" s="3">
-        <v>382300</v>
+        <v>382100</v>
       </c>
       <c r="H60" s="3">
-        <v>387600</v>
+        <v>387400</v>
       </c>
       <c r="I60" s="3">
-        <v>447400</v>
+        <v>447100</v>
       </c>
       <c r="J60" s="3">
-        <v>393900</v>
+        <v>393700</v>
       </c>
       <c r="K60" s="3">
         <v>286200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1011700</v>
+        <v>1011200</v>
       </c>
       <c r="E61" s="3">
-        <v>1068700</v>
+        <v>1068200</v>
       </c>
       <c r="F61" s="3">
-        <v>1158600</v>
+        <v>1158000</v>
       </c>
       <c r="G61" s="3">
-        <v>1226200</v>
+        <v>1225600</v>
       </c>
       <c r="H61" s="3">
-        <v>1392500</v>
+        <v>1391800</v>
       </c>
       <c r="I61" s="3">
-        <v>1421500</v>
+        <v>1420800</v>
       </c>
       <c r="J61" s="3">
-        <v>1541500</v>
+        <v>1540700</v>
       </c>
       <c r="K61" s="3">
         <v>503700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>504900</v>
+        <v>504700</v>
       </c>
       <c r="E62" s="3">
-        <v>474900</v>
+        <v>474700</v>
       </c>
       <c r="F62" s="3">
-        <v>599300</v>
+        <v>599000</v>
       </c>
       <c r="G62" s="3">
-        <v>561900</v>
+        <v>561600</v>
       </c>
       <c r="H62" s="3">
-        <v>594800</v>
+        <v>594500</v>
       </c>
       <c r="I62" s="3">
-        <v>700200</v>
+        <v>699900</v>
       </c>
       <c r="J62" s="3">
-        <v>743900</v>
+        <v>743500</v>
       </c>
       <c r="K62" s="3">
         <v>302800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2037400</v>
+        <v>2036300</v>
       </c>
       <c r="E66" s="3">
-        <v>2066000</v>
+        <v>2064900</v>
       </c>
       <c r="F66" s="3">
-        <v>2274900</v>
+        <v>2273700</v>
       </c>
       <c r="G66" s="3">
-        <v>2278200</v>
+        <v>2277000</v>
       </c>
       <c r="H66" s="3">
-        <v>2489300</v>
+        <v>2488000</v>
       </c>
       <c r="I66" s="3">
-        <v>2686800</v>
+        <v>2685400</v>
       </c>
       <c r="J66" s="3">
-        <v>2796600</v>
+        <v>2795200</v>
       </c>
       <c r="K66" s="3">
         <v>1106100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1166200</v>
+        <v>-1165600</v>
       </c>
       <c r="E72" s="3">
-        <v>-950300</v>
+        <v>-949800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1055900</v>
+        <v>-1055300</v>
       </c>
       <c r="G72" s="3">
-        <v>-562000</v>
+        <v>-561800</v>
       </c>
       <c r="H72" s="3">
-        <v>-634600</v>
+        <v>-634200</v>
       </c>
       <c r="I72" s="3">
         <v>84800</v>
       </c>
       <c r="J72" s="3">
-        <v>105600</v>
+        <v>105500</v>
       </c>
       <c r="K72" s="3">
         <v>147900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>557100</v>
+        <v>556800</v>
       </c>
       <c r="E76" s="3">
-        <v>790800</v>
+        <v>790400</v>
       </c>
       <c r="F76" s="3">
-        <v>666500</v>
+        <v>666200</v>
       </c>
       <c r="G76" s="3">
-        <v>1182800</v>
+        <v>1182200</v>
       </c>
       <c r="H76" s="3">
-        <v>1127700</v>
+        <v>1127100</v>
       </c>
       <c r="I76" s="3">
-        <v>1807900</v>
+        <v>1807000</v>
       </c>
       <c r="J76" s="3">
-        <v>1717000</v>
+        <v>1716100</v>
       </c>
       <c r="K76" s="3">
         <v>930500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-181500</v>
+        <v>-181400</v>
       </c>
       <c r="E81" s="3">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="F81" s="3">
-        <v>-463200</v>
+        <v>-463000</v>
       </c>
       <c r="G81" s="3">
         <v>115600</v>
       </c>
       <c r="H81" s="3">
-        <v>-581100</v>
+        <v>-580800</v>
       </c>
       <c r="I81" s="3">
-        <v>142000</v>
+        <v>141900</v>
       </c>
       <c r="J81" s="3">
-        <v>93300</v>
+        <v>93200</v>
       </c>
       <c r="K81" s="3">
         <v>-19500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>548600</v>
+        <v>548400</v>
       </c>
       <c r="E83" s="3">
-        <v>488000</v>
+        <v>487700</v>
       </c>
       <c r="F83" s="3">
-        <v>499600</v>
+        <v>499300</v>
       </c>
       <c r="G83" s="3">
-        <v>529500</v>
+        <v>529200</v>
       </c>
       <c r="H83" s="3">
-        <v>455100</v>
+        <v>454800</v>
       </c>
       <c r="I83" s="3">
-        <v>464000</v>
+        <v>463800</v>
       </c>
       <c r="J83" s="3">
-        <v>303700</v>
+        <v>303500</v>
       </c>
       <c r="K83" s="3">
         <v>205300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>160600</v>
+        <v>160500</v>
       </c>
       <c r="E89" s="3">
-        <v>203300</v>
+        <v>203200</v>
       </c>
       <c r="F89" s="3">
-        <v>232100</v>
+        <v>231900</v>
       </c>
       <c r="G89" s="3">
-        <v>254500</v>
+        <v>254400</v>
       </c>
       <c r="H89" s="3">
-        <v>274700</v>
+        <v>274600</v>
       </c>
       <c r="I89" s="3">
-        <v>220800</v>
+        <v>220700</v>
       </c>
       <c r="J89" s="3">
-        <v>148300</v>
+        <v>148200</v>
       </c>
       <c r="K89" s="3">
         <v>162800</v>
@@ -3955,7 +3955,7 @@
         <v>-15500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1228500</v>
+        <v>-1227800</v>
       </c>
       <c r="K94" s="3">
         <v>-22400</v>
@@ -4006,13 +4006,13 @@
         <v>-37300</v>
       </c>
       <c r="G96" s="3">
-        <v>-28300</v>
+        <v>-28200</v>
       </c>
       <c r="H96" s="3">
-        <v>-147300</v>
+        <v>-147200</v>
       </c>
       <c r="I96" s="3">
-        <v>-78600</v>
+        <v>-78500</v>
       </c>
       <c r="J96" s="3">
         <v>-66400</v>
@@ -4168,22 +4168,22 @@
         <v>-170900</v>
       </c>
       <c r="E100" s="3">
-        <v>-183100</v>
+        <v>-183000</v>
       </c>
       <c r="F100" s="3">
-        <v>-245100</v>
+        <v>-245000</v>
       </c>
       <c r="G100" s="3">
-        <v>-241200</v>
+        <v>-241000</v>
       </c>
       <c r="H100" s="3">
-        <v>-255000</v>
+        <v>-254900</v>
       </c>
       <c r="I100" s="3">
-        <v>-188800</v>
+        <v>-188700</v>
       </c>
       <c r="J100" s="3">
-        <v>1105300</v>
+        <v>1104700</v>
       </c>
       <c r="K100" s="3">
         <v>-120400</v>
@@ -4255,7 +4255,7 @@
         <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>-27200</v>
+        <v>-27100</v>
       </c>
       <c r="G102" s="3">
         <v>-9100</v>

--- a/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CJREF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CJREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,201 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42978</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42613</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42247</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41882</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41517</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41152</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40786</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1183500</v>
+        <v>1098700</v>
       </c>
       <c r="E8" s="3">
-        <v>1142700</v>
+        <v>1162200</v>
       </c>
       <c r="F8" s="3">
-        <v>1118900</v>
+        <v>1122100</v>
       </c>
       <c r="G8" s="3">
-        <v>1249300</v>
+        <v>1098700</v>
       </c>
       <c r="H8" s="3">
-        <v>1219600</v>
+        <v>1226800</v>
       </c>
       <c r="I8" s="3">
-        <v>1243100</v>
+        <v>1197600</v>
       </c>
       <c r="J8" s="3">
+        <v>1220700</v>
+      </c>
+      <c r="K8" s="3">
         <v>867200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>630800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>649500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>572000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>626800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>634000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>464400</v>
+        <v>488500</v>
       </c>
       <c r="E9" s="3">
-        <v>400100</v>
+        <v>456000</v>
       </c>
       <c r="F9" s="3">
-        <v>403800</v>
+        <v>392900</v>
       </c>
       <c r="G9" s="3">
-        <v>420000</v>
+        <v>396500</v>
       </c>
       <c r="H9" s="3">
-        <v>414500</v>
+        <v>412400</v>
       </c>
       <c r="I9" s="3">
-        <v>416300</v>
+        <v>407000</v>
       </c>
       <c r="J9" s="3">
+        <v>408800</v>
+      </c>
+      <c r="K9" s="3">
         <v>265400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>198900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>175000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>197700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>191200</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>719200</v>
+        <v>610200</v>
       </c>
       <c r="E10" s="3">
-        <v>742700</v>
+        <v>706200</v>
       </c>
       <c r="F10" s="3">
-        <v>715100</v>
+        <v>729300</v>
       </c>
       <c r="G10" s="3">
-        <v>829400</v>
+        <v>702200</v>
       </c>
       <c r="H10" s="3">
-        <v>805100</v>
+        <v>814400</v>
       </c>
       <c r="I10" s="3">
-        <v>826800</v>
+        <v>790600</v>
       </c>
       <c r="J10" s="3">
+        <v>811900</v>
+      </c>
+      <c r="K10" s="3">
         <v>601800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>424900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>450600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>397000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>429100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>442700</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +876,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,9 +918,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,93 +963,102 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>264200</v>
+        <v>412600</v>
       </c>
       <c r="E14" s="3">
+        <v>259400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>570900</v>
-      </c>
       <c r="G14" s="3">
-        <v>23100</v>
+        <v>560600</v>
       </c>
       <c r="H14" s="3">
-        <v>763100</v>
+        <v>22600</v>
       </c>
       <c r="I14" s="3">
-        <v>27600</v>
+        <v>749400</v>
       </c>
       <c r="J14" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K14" s="3">
         <v>23300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>155400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>34400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>116200</v>
+        <v>114600</v>
       </c>
       <c r="E15" s="3">
-        <v>112700</v>
+        <v>114100</v>
       </c>
       <c r="F15" s="3">
-        <v>117400</v>
+        <v>110700</v>
       </c>
       <c r="G15" s="3">
-        <v>135000</v>
+        <v>115300</v>
       </c>
       <c r="H15" s="3">
-        <v>60600</v>
+        <v>132600</v>
       </c>
       <c r="I15" s="3">
-        <v>67900</v>
+        <v>59500</v>
       </c>
       <c r="J15" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K15" s="3">
         <v>54800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>19100</v>
       </c>
       <c r="O15" s="3">
         <v>19100</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,92 +1072,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1325600</v>
+        <v>1479400</v>
       </c>
       <c r="E17" s="3">
-        <v>947800</v>
+        <v>1301700</v>
       </c>
       <c r="F17" s="3">
-        <v>1537700</v>
+        <v>930700</v>
       </c>
       <c r="G17" s="3">
-        <v>1062700</v>
+        <v>1510000</v>
       </c>
       <c r="H17" s="3">
-        <v>1715700</v>
+        <v>1043500</v>
       </c>
       <c r="I17" s="3">
-        <v>1016100</v>
+        <v>1684800</v>
       </c>
       <c r="J17" s="3">
+        <v>997800</v>
+      </c>
+      <c r="K17" s="3">
         <v>730100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>622000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>486100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>419600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>468000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>477200</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-142100</v>
+        <v>-380700</v>
       </c>
       <c r="E18" s="3">
-        <v>195000</v>
+        <v>-139500</v>
       </c>
       <c r="F18" s="3">
-        <v>-418900</v>
+        <v>191400</v>
       </c>
       <c r="G18" s="3">
-        <v>186700</v>
+        <v>-411300</v>
       </c>
       <c r="H18" s="3">
-        <v>-496100</v>
+        <v>183300</v>
       </c>
       <c r="I18" s="3">
-        <v>227000</v>
+        <v>-487100</v>
       </c>
       <c r="J18" s="3">
+        <v>222900</v>
+      </c>
+      <c r="K18" s="3">
         <v>137100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>163400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>158800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>156800</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,8 +1181,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,51 +1223,57 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>406300</v>
+        <v>196600</v>
       </c>
       <c r="E21" s="3">
-        <v>682700</v>
+        <v>402000</v>
       </c>
       <c r="F21" s="3">
-        <v>80400</v>
+        <v>673100</v>
       </c>
       <c r="G21" s="3">
-        <v>715900</v>
+        <v>81800</v>
       </c>
       <c r="H21" s="3">
-        <v>-41200</v>
+        <v>705900</v>
       </c>
       <c r="I21" s="3">
-        <v>690800</v>
+        <v>-38000</v>
       </c>
       <c r="J21" s="3">
+        <v>680900</v>
+      </c>
+      <c r="K21" s="3">
         <v>440600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>213600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>362200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>465000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>316900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>309900</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,93 +1313,102 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-142100</v>
+        <v>-380700</v>
       </c>
       <c r="E23" s="3">
-        <v>195000</v>
+        <v>-139500</v>
       </c>
       <c r="F23" s="3">
-        <v>-418900</v>
+        <v>191400</v>
       </c>
       <c r="G23" s="3">
-        <v>186700</v>
+        <v>-411300</v>
       </c>
       <c r="H23" s="3">
-        <v>-496100</v>
+        <v>183300</v>
       </c>
       <c r="I23" s="3">
-        <v>227000</v>
+        <v>-487100</v>
       </c>
       <c r="J23" s="3">
+        <v>222900</v>
+      </c>
+      <c r="K23" s="3">
         <v>137100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>163400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>152400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>158800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>156800</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29900</v>
+        <v>-73300</v>
       </c>
       <c r="E24" s="3">
-        <v>50900</v>
+        <v>29300</v>
       </c>
       <c r="F24" s="3">
-        <v>31100</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="3">
-        <v>52900</v>
+        <v>30500</v>
       </c>
       <c r="H24" s="3">
-        <v>65200</v>
+        <v>51900</v>
       </c>
       <c r="I24" s="3">
-        <v>61100</v>
+        <v>64100</v>
       </c>
       <c r="J24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K24" s="3">
         <v>30800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42500</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,93 +1448,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-171900</v>
+        <v>-307400</v>
       </c>
       <c r="E26" s="3">
-        <v>144100</v>
+        <v>-168800</v>
       </c>
       <c r="F26" s="3">
-        <v>-449900</v>
+        <v>141500</v>
       </c>
       <c r="G26" s="3">
-        <v>133800</v>
+        <v>-441800</v>
       </c>
       <c r="H26" s="3">
-        <v>-561300</v>
+        <v>131300</v>
       </c>
       <c r="I26" s="3">
-        <v>165900</v>
+        <v>-551200</v>
       </c>
       <c r="J26" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K26" s="3">
         <v>106300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>121800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>126100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114300</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-181400</v>
+        <v>-311700</v>
       </c>
       <c r="E27" s="3">
-        <v>127700</v>
+        <v>-178200</v>
       </c>
       <c r="F27" s="3">
-        <v>-463000</v>
+        <v>125400</v>
       </c>
       <c r="G27" s="3">
-        <v>115600</v>
+        <v>-454600</v>
       </c>
       <c r="H27" s="3">
-        <v>-580800</v>
+        <v>113500</v>
       </c>
       <c r="I27" s="3">
-        <v>141900</v>
+        <v>-570300</v>
       </c>
       <c r="J27" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K27" s="3">
         <v>93200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>117300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>121700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>108700</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1526,9 +1583,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1566,11 +1626,14 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>3900</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,9 +1673,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,9 +1718,12 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1694,51 +1763,57 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-181400</v>
+        <v>-311700</v>
       </c>
       <c r="E33" s="3">
-        <v>127700</v>
+        <v>-178200</v>
       </c>
       <c r="F33" s="3">
-        <v>-463000</v>
+        <v>125400</v>
       </c>
       <c r="G33" s="3">
-        <v>115600</v>
+        <v>-454600</v>
       </c>
       <c r="H33" s="3">
-        <v>-580800</v>
+        <v>113500</v>
       </c>
       <c r="I33" s="3">
-        <v>141900</v>
+        <v>-570300</v>
       </c>
       <c r="J33" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K33" s="3">
         <v>93200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>117300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>121700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>110600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112600</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,98 +1853,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-181400</v>
+        <v>-311700</v>
       </c>
       <c r="E35" s="3">
-        <v>127700</v>
+        <v>-178200</v>
       </c>
       <c r="F35" s="3">
-        <v>-463000</v>
+        <v>125400</v>
       </c>
       <c r="G35" s="3">
-        <v>115600</v>
+        <v>-454600</v>
       </c>
       <c r="H35" s="3">
-        <v>-580800</v>
+        <v>113500</v>
       </c>
       <c r="I35" s="3">
-        <v>141900</v>
+        <v>-570300</v>
       </c>
       <c r="J35" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K35" s="3">
         <v>93200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>117300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>121700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>110600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112600</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42978</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42613</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42247</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41882</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41517</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41152</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40786</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,8 +1970,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,50 +1989,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="E41" s="3">
-        <v>32300</v>
+        <v>39900</v>
       </c>
       <c r="F41" s="3">
-        <v>34000</v>
+        <v>31800</v>
       </c>
       <c r="G41" s="3">
-        <v>61100</v>
+        <v>33400</v>
       </c>
       <c r="H41" s="3">
-        <v>70200</v>
+        <v>60000</v>
       </c>
       <c r="I41" s="3">
-        <v>69400</v>
+        <v>68900</v>
       </c>
       <c r="J41" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K41" s="3">
         <v>52800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1987,51 +2076,57 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>243000</v>
+        <v>230300</v>
       </c>
       <c r="E43" s="3">
-        <v>245200</v>
+        <v>238600</v>
       </c>
       <c r="F43" s="3">
-        <v>220300</v>
+        <v>240800</v>
       </c>
       <c r="G43" s="3">
-        <v>286200</v>
+        <v>216300</v>
       </c>
       <c r="H43" s="3">
-        <v>290300</v>
+        <v>281100</v>
       </c>
       <c r="I43" s="3">
-        <v>303400</v>
+        <v>285000</v>
       </c>
       <c r="J43" s="3">
+        <v>298000</v>
+      </c>
+      <c r="K43" s="3">
         <v>281200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>137000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>150300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>296000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>136200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>137600</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2071,219 +2166,237 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="E45" s="3">
-        <v>17800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>15300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139600</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>299500</v>
+        <v>286600</v>
       </c>
       <c r="E46" s="3">
-        <v>295400</v>
+        <v>294100</v>
       </c>
       <c r="F46" s="3">
-        <v>267000</v>
+        <v>290100</v>
       </c>
       <c r="G46" s="3">
-        <v>361800</v>
+        <v>262200</v>
       </c>
       <c r="H46" s="3">
-        <v>375800</v>
+        <v>355300</v>
       </c>
       <c r="I46" s="3">
-        <v>389000</v>
+        <v>369000</v>
       </c>
       <c r="J46" s="3">
+        <v>382000</v>
+      </c>
+      <c r="K46" s="3">
         <v>348000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>176700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>169500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>236000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>163900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>190900</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47100</v>
+        <v>52800</v>
       </c>
       <c r="E47" s="3">
-        <v>63500</v>
+        <v>46200</v>
       </c>
       <c r="F47" s="3">
-        <v>53900</v>
+        <v>62400</v>
       </c>
       <c r="G47" s="3">
-        <v>18500</v>
+        <v>52900</v>
       </c>
       <c r="H47" s="3">
-        <v>20000</v>
+        <v>18200</v>
       </c>
       <c r="I47" s="3">
-        <v>21300</v>
+        <v>19700</v>
       </c>
       <c r="J47" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K47" s="3">
         <v>26200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>127500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>98400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>103900</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>217700</v>
+        <v>195000</v>
       </c>
       <c r="E48" s="3">
-        <v>234100</v>
+        <v>213800</v>
       </c>
       <c r="F48" s="3">
-        <v>247100</v>
+        <v>229900</v>
       </c>
       <c r="G48" s="3">
-        <v>167300</v>
+        <v>242600</v>
       </c>
       <c r="H48" s="3">
-        <v>171200</v>
+        <v>164300</v>
       </c>
       <c r="I48" s="3">
-        <v>192500</v>
+        <v>168100</v>
       </c>
       <c r="J48" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K48" s="3">
         <v>208900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>112000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>230300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>121700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>208400</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1967100</v>
+        <v>1396100</v>
       </c>
       <c r="E49" s="3">
-        <v>2197500</v>
+        <v>1931600</v>
       </c>
       <c r="F49" s="3">
-        <v>2322300</v>
+        <v>2157900</v>
       </c>
       <c r="G49" s="3">
-        <v>2829200</v>
+        <v>2280400</v>
       </c>
       <c r="H49" s="3">
-        <v>2947800</v>
+        <v>2778200</v>
       </c>
       <c r="I49" s="3">
-        <v>3792500</v>
+        <v>2894600</v>
       </c>
       <c r="J49" s="3">
+        <v>3724100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3845700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1667400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1813300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1423700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1137600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1247400</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2323,9 +2436,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,51 +2481,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61700</v>
+        <v>66000</v>
       </c>
       <c r="E52" s="3">
-        <v>64700</v>
+        <v>60600</v>
       </c>
       <c r="F52" s="3">
-        <v>49700</v>
+        <v>63500</v>
       </c>
       <c r="G52" s="3">
-        <v>82300</v>
+        <v>48800</v>
       </c>
       <c r="H52" s="3">
-        <v>100400</v>
+        <v>80800</v>
       </c>
       <c r="I52" s="3">
-        <v>97100</v>
+        <v>98600</v>
       </c>
       <c r="J52" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K52" s="3">
         <v>82600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31500</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,51 +2571,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2593100</v>
+        <v>1996400</v>
       </c>
       <c r="E54" s="3">
-        <v>2855300</v>
+        <v>2546300</v>
       </c>
       <c r="F54" s="3">
-        <v>2939900</v>
+        <v>2803800</v>
       </c>
       <c r="G54" s="3">
-        <v>3459200</v>
+        <v>2886900</v>
       </c>
       <c r="H54" s="3">
-        <v>3615100</v>
+        <v>3396800</v>
       </c>
       <c r="I54" s="3">
-        <v>4492400</v>
+        <v>3550000</v>
       </c>
       <c r="J54" s="3">
+        <v>4411400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4511300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2036600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2171100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1649400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1549100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1623700</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2638,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2528,260 +2657,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>332100</v>
+        <v>344200</v>
       </c>
       <c r="E57" s="3">
-        <v>319400</v>
+        <v>326100</v>
       </c>
       <c r="F57" s="3">
-        <v>272900</v>
+        <v>313700</v>
       </c>
       <c r="G57" s="3">
-        <v>280700</v>
+        <v>268000</v>
       </c>
       <c r="H57" s="3">
-        <v>274500</v>
+        <v>275600</v>
       </c>
       <c r="I57" s="3">
-        <v>307700</v>
+        <v>269600</v>
       </c>
       <c r="J57" s="3">
+        <v>302200</v>
+      </c>
+      <c r="K57" s="3">
         <v>291200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>163200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>132900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>187100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>120700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139900</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22400</v>
+        <v>20200</v>
       </c>
       <c r="E58" s="3">
-        <v>37100</v>
+        <v>22000</v>
       </c>
       <c r="F58" s="3">
-        <v>67100</v>
+        <v>36400</v>
       </c>
       <c r="G58" s="3">
-        <v>57600</v>
+        <v>65900</v>
       </c>
       <c r="H58" s="3">
-        <v>81100</v>
+        <v>56500</v>
       </c>
       <c r="I58" s="3">
-        <v>127700</v>
+        <v>79600</v>
       </c>
       <c r="J58" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K58" s="3">
         <v>85100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>116100</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6500</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53400</v>
+        <v>63300</v>
       </c>
       <c r="E59" s="3">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="F59" s="3">
-        <v>66700</v>
+        <v>51500</v>
       </c>
       <c r="G59" s="3">
-        <v>43900</v>
+        <v>65500</v>
       </c>
       <c r="H59" s="3">
-        <v>31800</v>
+        <v>43100</v>
       </c>
       <c r="I59" s="3">
-        <v>11700</v>
+        <v>31300</v>
       </c>
       <c r="J59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K59" s="3">
         <v>17300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16500</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>407900</v>
+        <v>427700</v>
       </c>
       <c r="E60" s="3">
-        <v>408900</v>
+        <v>400600</v>
       </c>
       <c r="F60" s="3">
-        <v>406700</v>
+        <v>401600</v>
       </c>
       <c r="G60" s="3">
-        <v>382100</v>
+        <v>399400</v>
       </c>
       <c r="H60" s="3">
-        <v>387400</v>
+        <v>375200</v>
       </c>
       <c r="I60" s="3">
-        <v>447100</v>
+        <v>380500</v>
       </c>
       <c r="J60" s="3">
+        <v>439100</v>
+      </c>
+      <c r="K60" s="3">
         <v>393700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>286200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>137000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>128200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>140100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>162900</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1011200</v>
+        <v>865700</v>
       </c>
       <c r="E61" s="3">
-        <v>1068200</v>
+        <v>993000</v>
       </c>
       <c r="F61" s="3">
-        <v>1158000</v>
+        <v>1048900</v>
       </c>
       <c r="G61" s="3">
-        <v>1225600</v>
+        <v>1137100</v>
       </c>
       <c r="H61" s="3">
-        <v>1391800</v>
+        <v>1203500</v>
       </c>
       <c r="I61" s="3">
-        <v>1420800</v>
+        <v>1366700</v>
       </c>
       <c r="J61" s="3">
+        <v>1395200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1540700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>503700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>681600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>410200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>385700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>461500</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>504700</v>
+        <v>369400</v>
       </c>
       <c r="E62" s="3">
-        <v>474700</v>
+        <v>495600</v>
       </c>
       <c r="F62" s="3">
-        <v>599000</v>
+        <v>466100</v>
       </c>
       <c r="G62" s="3">
-        <v>561600</v>
+        <v>588200</v>
       </c>
       <c r="H62" s="3">
-        <v>594500</v>
+        <v>551400</v>
       </c>
       <c r="I62" s="3">
-        <v>699900</v>
+        <v>583800</v>
       </c>
       <c r="J62" s="3">
+        <v>687200</v>
+      </c>
+      <c r="K62" s="3">
         <v>743500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>302800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>331000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>259400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>177700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>198000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2821,9 +2969,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2863,9 +3014,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2905,51 +3059,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2036300</v>
+        <v>1765400</v>
       </c>
       <c r="E66" s="3">
-        <v>2064900</v>
+        <v>1999600</v>
       </c>
       <c r="F66" s="3">
-        <v>2273700</v>
+        <v>2027700</v>
       </c>
       <c r="G66" s="3">
-        <v>2277000</v>
+        <v>2232700</v>
       </c>
       <c r="H66" s="3">
-        <v>2488000</v>
+        <v>2236000</v>
       </c>
       <c r="I66" s="3">
-        <v>2685400</v>
+        <v>2443200</v>
       </c>
       <c r="J66" s="3">
+        <v>2637000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2795200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1106100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1163100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>734100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>718900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>828100</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2966,8 +3126,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3007,9 +3168,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3049,9 +3213,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3091,9 +3258,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3133,51 +3303,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1165600</v>
+        <v>-1464300</v>
       </c>
       <c r="E72" s="3">
-        <v>-949800</v>
+        <v>-1144600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1055300</v>
+        <v>-932700</v>
       </c>
       <c r="G72" s="3">
-        <v>-561800</v>
+        <v>-1036300</v>
       </c>
       <c r="H72" s="3">
-        <v>-634200</v>
+        <v>-551600</v>
       </c>
       <c r="I72" s="3">
-        <v>84800</v>
+        <v>-622800</v>
       </c>
       <c r="J72" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K72" s="3">
         <v>105500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>147900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>244300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>195200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>147700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>110400</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3217,9 +3393,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,9 +3438,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3301,51 +3483,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>556800</v>
+        <v>231000</v>
       </c>
       <c r="E76" s="3">
-        <v>790400</v>
+        <v>546700</v>
       </c>
       <c r="F76" s="3">
-        <v>666200</v>
+        <v>776100</v>
       </c>
       <c r="G76" s="3">
-        <v>1182200</v>
+        <v>654200</v>
       </c>
       <c r="H76" s="3">
-        <v>1127100</v>
+        <v>1160800</v>
       </c>
       <c r="I76" s="3">
-        <v>1807000</v>
+        <v>1106800</v>
       </c>
       <c r="J76" s="3">
+        <v>1774400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1716100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>930500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1008000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>915300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>830100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>795600</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3385,98 +3573,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42978</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42613</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42247</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41882</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41517</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41152</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40786</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-181400</v>
+        <v>-311700</v>
       </c>
       <c r="E81" s="3">
-        <v>127700</v>
+        <v>-178200</v>
       </c>
       <c r="F81" s="3">
-        <v>-463000</v>
+        <v>125400</v>
       </c>
       <c r="G81" s="3">
-        <v>115600</v>
+        <v>-454600</v>
       </c>
       <c r="H81" s="3">
-        <v>-580800</v>
+        <v>113500</v>
       </c>
       <c r="I81" s="3">
-        <v>141900</v>
+        <v>-570300</v>
       </c>
       <c r="J81" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K81" s="3">
         <v>93200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>117300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>121700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>110600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112600</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3493,50 +3690,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>548400</v>
+        <v>574000</v>
       </c>
       <c r="E83" s="3">
-        <v>487700</v>
+        <v>538500</v>
       </c>
       <c r="F83" s="3">
-        <v>499300</v>
+        <v>478900</v>
       </c>
       <c r="G83" s="3">
-        <v>529200</v>
+        <v>490300</v>
       </c>
       <c r="H83" s="3">
-        <v>454800</v>
+        <v>519700</v>
       </c>
       <c r="I83" s="3">
-        <v>463800</v>
+        <v>446600</v>
       </c>
       <c r="J83" s="3">
+        <v>455400</v>
+      </c>
+      <c r="K83" s="3">
         <v>303500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>205300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>196100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>313300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>157800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>152400</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3576,9 +3777,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3618,9 +3822,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3660,9 +3867,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,9 +3912,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3744,51 +3957,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>160500</v>
+        <v>89200</v>
       </c>
       <c r="E89" s="3">
-        <v>203200</v>
+        <v>157600</v>
       </c>
       <c r="F89" s="3">
-        <v>231900</v>
+        <v>199600</v>
       </c>
       <c r="G89" s="3">
-        <v>254400</v>
+        <v>227800</v>
       </c>
       <c r="H89" s="3">
-        <v>274600</v>
+        <v>249800</v>
       </c>
       <c r="I89" s="3">
-        <v>220700</v>
+        <v>269700</v>
       </c>
       <c r="J89" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K89" s="3">
         <v>148200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>124300</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,50 +4024,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-9700</v>
       </c>
       <c r="E91" s="3">
-        <v>-14500</v>
+        <v>-12900</v>
       </c>
       <c r="F91" s="3">
-        <v>-11400</v>
+        <v>-14200</v>
       </c>
       <c r="G91" s="3">
-        <v>-22300</v>
+        <v>-11200</v>
       </c>
       <c r="H91" s="3">
-        <v>-11900</v>
+        <v>-21900</v>
       </c>
       <c r="I91" s="3">
-        <v>-20000</v>
+        <v>-11700</v>
       </c>
       <c r="J91" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37200</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,9 +4111,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3930,51 +4156,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18600</v>
+        <v>91100</v>
       </c>
       <c r="E94" s="3">
-        <v>-21900</v>
+        <v>18300</v>
       </c>
       <c r="F94" s="3">
-        <v>-14100</v>
+        <v>-21500</v>
       </c>
       <c r="G94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-1227800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1227800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-410300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>25500</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3991,50 +4223,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-36700</v>
+        <v>-26100</v>
       </c>
       <c r="E96" s="3">
-        <v>-37000</v>
+        <v>-36000</v>
       </c>
       <c r="F96" s="3">
-        <v>-37300</v>
+        <v>-36300</v>
       </c>
       <c r="G96" s="3">
-        <v>-28200</v>
+        <v>-36600</v>
       </c>
       <c r="H96" s="3">
-        <v>-147200</v>
+        <v>-27700</v>
       </c>
       <c r="I96" s="3">
-        <v>-78500</v>
+        <v>-144500</v>
       </c>
       <c r="J96" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-66400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-59000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-51000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-43200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-37800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-35000</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4074,9 +4310,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4116,9 +4355,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4158,51 +4400,57 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-170900</v>
+        <v>-179300</v>
       </c>
       <c r="E100" s="3">
-        <v>-183000</v>
+        <v>-167800</v>
       </c>
       <c r="F100" s="3">
-        <v>-245000</v>
+        <v>-179700</v>
       </c>
       <c r="G100" s="3">
-        <v>-241000</v>
+        <v>-240600</v>
       </c>
       <c r="H100" s="3">
-        <v>-254900</v>
+        <v>-236700</v>
       </c>
       <c r="I100" s="3">
-        <v>-188700</v>
+        <v>-250300</v>
       </c>
       <c r="J100" s="3">
+        <v>-185300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1104700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>204300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-61600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-123800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-113000</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4242,49 +4490,55 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8300</v>
+        <v>900</v>
       </c>
       <c r="E102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
-        <v>-27100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-9100</v>
+        <v>-26700</v>
       </c>
       <c r="H102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>16500</v>
-      </c>
       <c r="J102" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K102" s="3">
         <v>25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-54300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>36800</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
